--- a/TenderScrap/TenderScrap/spiders/advert.xlsx
+++ b/TenderScrap/TenderScrap/spiders/advert.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -506,8 +510,12 @@
           <t>MAINTENANCE OF RAILWAY TRACK WITH ON-TRACK HIGH PRODUCTION BALLAST TAMPING MACHINES COUNTRYWIDE ON AN 'AS AND WHEN” REQUIRED' BASIS.</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="C2" s="2" t="n">
+        <v>45811.84238425926</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45828.5</v>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
@@ -516,7 +524,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97688</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97688</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -556,8 +564,12 @@
           <t>FOR THE PROVISION OF SUPPLY AND DELIVERY OF ICT CONSUMABLES</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="C3" s="2" t="n">
+        <v>45811.78873842592</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>45817.5</v>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>6/6/2025 11:00:00 AM</t>
@@ -570,7 +582,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97687</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97687</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -611,8 +623,12 @@
 </t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="C4" s="2" t="n">
+        <v>45811.6865625</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45838.66666666666</v>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>6/12/2025 9:00:00 AM</t>
@@ -625,7 +641,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97549</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97549</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -665,8 +681,12 @@
           <t>RCB 06/2025/05	Land situated on Sub 21 (of 8) of Lot 5333, Umhlathuzi Lot 3/7,RBH 86-A-663</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="C5" s="2" t="n">
+        <v>45811.68482638889</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45838.66666666666</v>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>6/12/2025 9:00:00 AM</t>
@@ -679,7 +699,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97548</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97548</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -720,8 +740,12 @@
 </t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="C6" s="2" t="n">
+        <v>45811.68445601852</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45838.66666666666</v>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>6/12/2025 9:00:00 AM</t>
@@ -734,7 +758,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97546</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97546</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -774,8 +798,12 @@
           <t>RCB 06/2025/02 Land situated on Lot 3/4 Umhlathuzi sites, Bayview Precinct, RBH 86-A-689</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="C7" s="2" t="n">
+        <v>45811.6837037037</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45838.66666666666</v>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>6/12/2025 9:00:00 AM</t>
@@ -788,7 +816,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97544</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97544</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -828,8 +856,12 @@
           <t xml:space="preserve">FOR THE PROVISION OF THE SUPPLY AND INSTALLATION OF SUMP PUMPS; FOR TRANSNET SOC LTD (REG. NO. 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS (HEREINAFTER REFERRED TO AS “TPT”) AT THE PORT OF DURBAN: MAYDON WHARF AND AGRIPORT TERMINALS </t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="C8" s="2" t="n">
+        <v>45811.67271990741</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45825.5</v>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>6/10/2025 11:00:00 AM</t>
@@ -842,7 +874,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97651</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97651</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -882,8 +914,12 @@
           <t xml:space="preserve">SUPPLY OF PARTICIPANT GEAR FOR THE TPT NATIONAL AND GROUP SAFETY PROFICIENCY PROGRAMME </t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="C9" s="2" t="n">
+        <v>45811.67030092593</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>45814.5</v>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
@@ -892,7 +928,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97652</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97652</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -932,8 +968,12 @@
           <t>FOR THE SUPPLY AND DELIVERY OF ENCODER; INCREMENTAL, 50 MM, AT THE CAPE TOWN CONTAINER TERMINAL AS ONCE OFF</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="C10" s="2" t="n">
+        <v>45811.6684375</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>45814.66666666666</v>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
@@ -942,7 +982,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97666</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97666</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -982,8 +1022,12 @@
           <t>FOR THE SUPPLY AND DELIVERY OF STORE MAINTENANCE PARTS AT CAPE TOWN TERMINAL AS A ONCE-OFF PERIOD.</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="C11" s="2" t="n">
+        <v>45811.65332175926</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>45814.58333333334</v>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
@@ -992,7 +1036,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97644</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97644</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1032,8 +1076,12 @@
           <t>RCB 06/2025/11 Land situated on Lot 2/7 and 2/8 Umhlatuzi sites, Bayview Precinct</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="C12" s="2" t="n">
+        <v>45811.65217592593</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>45838.66666666666</v>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>6/12/2025 9:00:00 AM</t>
@@ -1046,7 +1094,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97540</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97540</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1088,8 +1136,12 @@
 </t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="C13" s="2" t="n">
+        <v>45811.65131944444</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>45838.66666666666</v>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>6/12/2025 9:00:00 AM</t>
@@ -1102,7 +1154,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97542</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97542</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1142,8 +1194,12 @@
           <t>RCB 06/2025/07	Land Situated on Newark Road, Bayview precinct, RBH 87-A-6020</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+      <c r="C14" s="2" t="n">
+        <v>45811.64928240741</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>45838.66666666666</v>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>6/12/2025 9:00:00 AM</t>
@@ -1156,7 +1212,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97552</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97552</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1196,8 +1252,12 @@
           <t>RCB 06/2025/09	Land Situated in Sub 21 (of 8) of Lot 5333, Umhlathuzi lot 2/6, RBH 86-A-682</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="C15" s="2" t="n">
+        <v>45811.64877314815</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>45838.66666666666</v>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>6/12/2025 9:00:00 AM</t>
@@ -1210,7 +1270,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97555</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97555</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1250,8 +1310,12 @@
           <t>RCB 06/2025/10	Water area Walk-on Moorings and slipway, New Ark Precinct, RBH-89-A-646</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+      <c r="C16" s="2" t="n">
+        <v>45811.64552083334</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>45838.66666666666</v>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>6/12/2025 9:00:00 AM</t>
@@ -1264,7 +1328,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97556</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97556</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1304,8 +1368,12 @@
           <t>FOR THE APPOINTMENT OF A SERVICE PROVIDER TO REMOVE WASTE AND PROVIDE WASTE MANAGEMENT SERVICES IN THE GERMISTON PLANT &amp; CENTRAL CORRIDOR FOR A PERIOD OF THREE (3) YEARS</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="C17" s="2" t="n">
+        <v>45811.645</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>45833.625</v>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>6/12/2025 10:00:00 AM</t>
@@ -1318,7 +1386,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97530</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97530</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1360,8 +1428,12 @@
 </t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="C18" s="2" t="n">
+        <v>45811.58258101852</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>45825.5</v>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>6/10/2025 10:00:00 AM</t>
@@ -1374,7 +1446,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=93623</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/93623</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1414,8 +1486,12 @@
           <t xml:space="preserve">FOR THE PROVISION OF MOBILE CRANE HIRE FOR QC03 ,QC04 AND QC05  AT PIER 1 CONTAINER TERMINAL FOR PERIOD OF ONE DAY </t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+      <c r="C19" s="2" t="n">
+        <v>45811.52672453703</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45814.5</v>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
@@ -1424,7 +1500,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97595</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97595</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1464,8 +1540,12 @@
           <t>FOR THE PROVISION OF BHEKULWANDLE LIBRARY WINDOWS AT PIER 1 CONTAINER TERMINAL</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="C20" s="2" t="n">
+        <v>45811.52664351852</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>45821.5</v>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>6/10/2025 10:00:00 AM</t>
@@ -1478,7 +1558,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97601</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97601</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1518,8 +1598,12 @@
           <t>SUPPLY OF VARIOUS ITEMS TO PIER ONE STORES .</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="C21" s="2" t="n">
+        <v>45811.52626157407</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45814.5</v>
+      </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
@@ -1528,7 +1612,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97622</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97622</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1568,8 +1652,12 @@
           <t>FOR THE ERADICATION OF ALIEN INVASIVE PLANTS AND PEST CONTROL</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+      <c r="C22" s="2" t="n">
+        <v>45811.52148148148</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>45817.5</v>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
@@ -1578,7 +1666,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97631</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97631</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1618,8 +1706,12 @@
           <t>FOR THE SUPPLY, DELIVERY AND RENTAL OF PERWAY AND WELDING TOOLS AT ERMELO FOR THE PERIOD OF SIX (6) MONTHS</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="C23" s="2" t="n">
+        <v>45811.44056712963</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>45826.41666666666</v>
+      </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
@@ -1628,7 +1720,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97612</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97612</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1668,8 +1760,12 @@
           <t>FOR THE SUPPLY OF BRAKE;EMERGENCY,240 KN,HOIST AND BOOM TO DURBAN CONTAINER TERMINAL PIER 2</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="C24" s="2" t="n">
+        <v>45810.64641203704</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>45813.5</v>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
@@ -1678,7 +1774,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97534</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97534</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1718,8 +1814,12 @@
           <t>FOR THE SUPPLY OF VARIOUS STOCK ITEMS TO DURBAN CONTAINER TERMINAL PIER 2</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+      <c r="C25" s="2" t="n">
+        <v>45810.64615740741</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>45813.5</v>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
@@ -1728,7 +1828,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97551</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97551</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1768,8 +1868,12 @@
           <t>FOR THE PROVISION OF STATUTORY INSPECTION AIR RECEIVER AND STATUTORY INSPECTION TIPPLER 2 FOR TRANSNET SOC LTD (REG. NO. 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS AT THE PORT OF RICHARDS BAY.</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+      <c r="C26" s="2" t="n">
+        <v>45810.61916666666</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>45813.5</v>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
@@ -1778,7 +1882,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97537</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97537</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1818,8 +1922,12 @@
           <t>SUPPLY OF VARIOUS ITEMS TO PIER ONE STORES.</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="C27" s="2" t="n">
+        <v>45810.58803240741</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>45813.5</v>
+      </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
@@ -1828,7 +1936,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97524</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97524</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1868,8 +1976,12 @@
           <t>SUPPLY OF VARIOUS ITEMS TO PIER ONE STORES.</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="C28" s="2" t="n">
+        <v>45810.58788194445</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>45813.5</v>
+      </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
@@ -1878,7 +1990,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97520</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97520</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1918,8 +2030,12 @@
           <t>SUPPLY OF VARIOUS ITEMS TO PIER ONE STORES.</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+      <c r="C29" s="2" t="n">
+        <v>45810.56768518518</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>45813.5</v>
+      </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
@@ -1928,7 +2044,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97516</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97516</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1968,8 +2084,12 @@
           <t>FOR THE PROVISION AND DELIVERY OF HIGH AND MEDIUM PRODUCTION BALLAST TAMPERS FOR COAL ANNUAL SHUTDOWN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
+      <c r="C30" s="2" t="n">
+        <v>45810.5594212963</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>45825.41666666666</v>
+      </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
@@ -1978,7 +2098,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97514</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97514</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2018,8 +2138,12 @@
           <t>SUPPLY OF VARIOUS ITEMS TO PIER ONE STORES.</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="C31" s="2" t="n">
+        <v>45810.55778935185</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>45813.5</v>
+      </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
@@ -2028,7 +2152,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97513</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97513</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2068,8 +2192,12 @@
           <t>HIRE 12 BAR MOBILE AIR COMPRESSOR</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+      <c r="C32" s="2" t="n">
+        <v>45810.54626157408</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>45812.5</v>
+      </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
@@ -2078,7 +2206,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97510</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97510</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2118,8 +2246,12 @@
           <t xml:space="preserve">FOR THE PROVISION OF REPAIR 55 KW AC TROLLEY MOTORS AT PIER 1 CONTAINER TERMINAL </t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+      <c r="C33" s="2" t="n">
+        <v>45810.54322916667</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>45814.5</v>
+      </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
@@ -2128,7 +2260,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97476</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97476</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2169,8 +2301,12 @@
 </t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
+      <c r="C34" s="2" t="n">
+        <v>45810.5203125</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>45819.5</v>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>6/6/2025 10:00:00 AM</t>
@@ -2183,7 +2319,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97473</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97473</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2223,8 +2359,12 @@
           <t>THE PROVISION TO RE-INSTATE OHTE INFRASTRUCTURE BETWEEN RUSTENBURG AND THABAZIMBI</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
+      <c r="C35" s="2" t="n">
+        <v>45810.44561342592</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>45825.41666666666</v>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>6/10/2025 11:00:00 AM</t>
@@ -2237,7 +2377,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97467</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97467</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2277,8 +2417,12 @@
           <t>FOR THE SUPPLY &amp; DELIVERY OF BATTERIES FOR TRANSNET SOC LTD (REG. NO 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS (HEREINAFTER REFERRED TO AS “TPT”) AT THE DURBAN CONTAINER TERMINAL (PIER 1 AND 2) ON AN AS AND WHEN BASIS FOR A PERIOD OF THREE (3) YEARS.</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
+      <c r="C36" s="2" t="n">
+        <v>45810.34425925926</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>45826.41666666666</v>
+      </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
@@ -2287,7 +2431,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97443</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97443</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2327,8 +2471,12 @@
           <t>FOR THE PROVISION OF CANTEEN AND CATERING SERVICES FOR TRANSNET SOC LTD (REG. NO. 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS (HEREINAFTER REFERRED TO AS “TPT”) AT THE NGQURA CONTAINER TERMINAL (NCT) AND PORT OF PORT ELIZABETH (PE)FOR A PERIOD OF THREE (3) YEARS.</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+      <c r="C37" s="2" t="n">
+        <v>45807.66918981481</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>45835.95833333334</v>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>6/18/2025 10:00:00 AM</t>
@@ -2341,7 +2489,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97428</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97428</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2381,8 +2529,12 @@
           <t>PROVISION OF HEAVY INDUSTRIAL PLANT CLEANING SERVICES FOR TRANSNET SOC LIMITED (REG. NO 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS (HEREINAFTER REFERRED TO AS “TPT”) AT THE BULK TERMINAL, PORT OF SALDANHA, FOR A PERIOD OF TWO (2) MONTHS.</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
+      <c r="C38" s="2" t="n">
+        <v>45807.65804398148</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>45812.54166666666</v>
+      </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
@@ -2391,7 +2543,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=96710</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96710</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2431,8 +2583,12 @@
           <t>FOR THE  PROVISION OF A01, A02,A03 &amp; B GALLERY LIGHTING TO TRANSNET PORT TERMINAL IN RICHARDS BAY AS ONCE OFF.</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
+      <c r="C39" s="2" t="n">
+        <v>45807.63056712963</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>45819.5</v>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>6/4/2025 11:00:00 AM</t>
@@ -2445,7 +2601,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=96781</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96781</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2485,8 +2641,12 @@
           <t>MANUFACTURE CABIN ACCESS PLATFORM</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
+      <c r="C40" s="2" t="n">
+        <v>45807.62273148148</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>45817.5</v>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>6/4/2025 10:00:00 AM</t>
@@ -2499,7 +2659,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97400</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97400</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2539,8 +2699,12 @@
           <t>FOR THE PROVISION OF TECHNICAL SERVICES ON A MIGRATION FROM SAP ECC6 TO SAP S/4HANA FOR TRANSNET CORPORATE CENTER (TCC) FOR A PERIOD OF TWELVE (12) MONTHS.</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
+      <c r="C41" s="2" t="n">
+        <v>45807.59373842592</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>45838.5</v>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>6/6/2025 11:00:00 AM</t>
@@ -2553,7 +2717,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=54684</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/54684</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2595,8 +2759,12 @@
 TRANSNET NATIONAL PORTS AUTHORITY IN THE PORT OF PORT ELIZABETH.</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
+      <c r="C42" s="2" t="n">
+        <v>45807.57770833333</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>45838.5</v>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>6/13/2025 12:00:00 PM</t>
@@ -2609,7 +2777,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97399</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97399</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2649,8 +2817,12 @@
           <t>PROVISION FOR THE REPAIRS AND MAINTENANCE OF WHARF FOREMAN FOR CIVIL MAINTENANCE DEPARTMENT AT THE PORT OF RICHARDS BAY FOR A PERIOD OF THREE (03) MONTHS</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
+      <c r="C43" s="2" t="n">
+        <v>45807.52611111111</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>45838.5</v>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>6/18/2025 10:00:00 AM</t>
@@ -2663,7 +2835,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=94803</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/94803</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2703,8 +2875,12 @@
           <t>Provision of service for Steelwork Repairs in the Port of East London</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
+      <c r="C44" s="2" t="n">
+        <v>45807.41094907407</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>45814.5</v>
+      </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
@@ -2713,7 +2889,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97034</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97034</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2753,8 +2929,12 @@
           <t>FOR THE TEST AND REPAIR OF INTERNAL TRACTION TRANSFORMER FAULT AT TURFGROND AT, INFRA KOEDOESPOORT</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
+      <c r="C45" s="2" t="n">
+        <v>45807.3596875</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>45819.41666666666</v>
+      </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
@@ -2763,7 +2943,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97327</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97327</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2803,8 +2983,12 @@
           <t>MAINTENANCE OF RAILWAY TRACK WITH ON-TRACK MEDIUM PRODUCTION UNIVERAL BALLAST TAMPING MACHINES AND A BALLAST STABILISER COUNTRYWIDE ON AN 'AS AND WHEN” REQUIRED' BASIS</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+      <c r="C46" s="2" t="n">
+        <v>45807.33966435185</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>45821.41666666666</v>
+      </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
@@ -2813,7 +2997,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97328</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97328</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2854,8 +3038,12 @@
 PROVIDE, SERV;RECERTIFY,XB SAMPLE TEST</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
+      <c r="C47" s="2" t="n">
+        <v>45806.6893287037</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>45820.75</v>
+      </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
@@ -2864,7 +3052,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97249</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97249</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2904,8 +3092,12 @@
           <t xml:space="preserve">REPAIR OF THE BOOM HYDRAULIC RAM 524 FOR TRANSNET SOC LTD (REG. NO. 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS AT THE DURBAN CONTAINER TERMINAL </t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
+      <c r="C48" s="2" t="n">
+        <v>45806.63712962963</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>45814.5</v>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>6/2/2025 10:00:00 AM</t>
@@ -2918,7 +3110,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97251</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97251</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2958,8 +3150,12 @@
           <t>REPLACEMENT AND INSTALLATION OF FENCE AT THE PORT OF NGQURA AND COEGA KOP QUARRY FOR A PERIOD OF TEN (10) MONTH</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+      <c r="C49" s="2" t="n">
+        <v>45806.62247685185</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>45838.625</v>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>6/11/2025 10:00:00 AM</t>
@@ -2972,7 +3168,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=94422</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/94422</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3012,8 +3208,12 @@
           <t>REQUEST FOR PROVISION OF SERVICE TO SUPPLY AND DELIVER RO PLANT HIGH PRESSURE FEED PUMP.</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
+      <c r="C50" s="2" t="n">
+        <v>45806.55134259259</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>45812.83333333334</v>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>6/2/2025 11:00:00 AM</t>
@@ -3026,7 +3226,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97097</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97097</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3068,8 +3268,12 @@
 TRACTION SUBSTATIONS UNDER THE CONTROL OF DEPOT ENGINEER.</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
+      <c r="C51" s="2" t="n">
+        <v>45806.51459490741</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>45821.41666666666</v>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>6/6/2025 10:00:00 AM</t>
@@ -3082,7 +3286,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97240</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97240</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3122,8 +3326,12 @@
           <t>HEALTH AND SAFETY AGENT/S ON THE PORT ELIZABETH (PE) FOR CIVIL BULK INFRASTRUCTURE UPGRADE (FOR A PERIOD OF THIRTY-SIX (36) MONTHS) AND/OR MARINE INFRASTRUCTURE UPGRADE (FOR A PERIOD OF TWENTY-FOUR (24) MONTHS) AND/OR NATIONAL FIRE SERVICES INFRASTRUCTURE EQUIPMENT UPGRADE PHASE 2A  (FOR A PERIOD OF FIFTEEN (15) MONTHS)</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
+      <c r="C52" s="2" t="n">
+        <v>45806.48064814815</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>45827.5</v>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>6/5/2025 10:00:00 AM</t>
@@ -3136,7 +3344,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=89905</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/89905</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3176,8 +3384,12 @@
           <t>THE APPOINTMENT OF A PROFESSIONAL SERVICE PROVIDER FOR THE BOEGOEBAAI PORT AND RAIL DEVELOPMENT MARKET RESEARCH STUDIES FOR A PERIOD OF SIX (6) MONTHS</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
+      <c r="C53" s="2" t="n">
+        <v>45806.45256944445</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>45835.66666666666</v>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>6/6/2025 10:00:00 AM</t>
@@ -3190,7 +3402,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=92645</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/92645</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3230,8 +3442,12 @@
           <t>FOR THE PROVISION OF REPAIRS TO WASH BAY ROOF &amp; HAULER WORKSHOP BUILDING</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
+      <c r="C54" s="2" t="n">
+        <v>45806.4412962963</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>45821.5</v>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>6/10/2025 10:00:00 AM</t>
@@ -3244,7 +3460,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97217</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97217</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3284,8 +3500,12 @@
           <t>FOR THE SUPPLY AND DELIVERY OF XV, XN AND XB WAGONS SAFETY RELIEF VALVES FOR TRANSNET ENGINEERING, FOR GERMISTON AND BLOEMFONTEIN ON AN “AS AND WHEN” REQUIRED BASIS FOR A PERIOD OF FIVE (5) YEARS</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
+      <c r="C55" s="2" t="n">
+        <v>45806.38208333333</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>45838.66666666666</v>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>6/11/2025 11:00:00 AM</t>
@@ -3298,7 +3518,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97214</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97214</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3338,8 +3558,12 @@
           <t>RFP REQUEST FOR THE PROVISION OF DRY DOCK MAINTENANCE OF THE LAUNCH KITE, PILOT BOAT AVOCET, WORK BOAT CRESTED TERN, TUG OSPREY, TUG CORMORANT, TUG JUTTEN/LOTHENI AND TUG CHARDONNAY FOR TRANSNET NATIONAL PORTS AUTHORITY (TNPA), PORT OF SALDANHA, ON AN AS AND WHEN REQUIRED BASIS FOR A PERIOD OF THIRTY-SIX (36) MONTHS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
+      <c r="C56" s="2" t="n">
+        <v>45806.37510416667</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>45832.58333333334</v>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>6/10/2025 11:00:00 AM</t>
@@ -3352,7 +3576,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=80674</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/80674</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3392,8 +3616,12 @@
           <t>For an appointment of a publishing house to wholly develop, publish, print and distribute one Magazine for a period of (3) Three years</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
+      <c r="C57" s="2" t="n">
+        <v>45805.73349537037</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>45826.5</v>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
           <t>6/5/2025 11:00:00 AM</t>
@@ -3406,7 +3634,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=91127</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/91127</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3446,8 +3674,12 @@
           <t>For the Provision of Roof Repairs and General Building Maintenance Services at the ex-Transtel building at TNPA in the Port of Richards Bay for a period of four (4) months.</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
+      <c r="C58" s="2" t="n">
+        <v>45805.58128472222</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>45820.5</v>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>6/5/2025 10:00:00 AM</t>
@@ -3460,7 +3692,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=93883</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/93883</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3500,8 +3732,12 @@
           <t>LAB CONSUMABLES</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
+      <c r="C59" s="2" t="n">
+        <v>45805.36445601852</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>45818.625</v>
+      </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
@@ -3510,7 +3746,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=92732</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/92732</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3550,8 +3786,12 @@
           <t>LAB MACHINE MAINTENANCE SERVICES</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
+      <c r="C60" s="2" t="n">
+        <v>45805.36417824074</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>45814.625</v>
+      </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
@@ -3560,7 +3800,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=96993</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96993</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3600,8 +3840,12 @@
           <t>PROVISION OF OFFICE, BUILDING, WORKSHOP CLEANING AND TEA SERVICES FOR TRANSNET SOC LTD (REG. NO. 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS (HEREINAFTER REFERRED TO AS “TPT”) AT THE PORT OF DURBAN: MPT POINT, CAR TERMINAL, MAYDON WHARF AND AGRIBULK FOR A PERIOD OF THREE (3) YEARS.</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
+      <c r="C61" s="2" t="n">
+        <v>45804.70929398148</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>45819.41666666666</v>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>6/3/2025 10:00:00 AM</t>
@@ -3614,7 +3858,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97073</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97073</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3655,8 +3899,12 @@
 EQUIPMENTS AND WELDER CERTIFICATION AT TRANSNET ENGINEERING, GERMISTON.</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
+      <c r="C62" s="2" t="n">
+        <v>45804.65201388889</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>45812.625</v>
+      </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
@@ -3665,7 +3913,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=97057</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97057</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3705,8 +3953,12 @@
           <t>FOR THE PROVISION OF REPAIR, TESTING AND COMMISSIONING OF TWO RAIL-ROAD SHUNTING LOCOMOTIVES SALDANHA AT TRANSNET ENGINEERING FOR A ONCE-OFF PERIOD</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
+      <c r="C63" s="2" t="n">
+        <v>45804.58878472223</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>45833.45833333334</v>
+      </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
@@ -3715,7 +3967,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=96968</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96968</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3757,8 +4009,12 @@
 CONVEYOR</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
+      <c r="C64" s="2" t="n">
+        <v>45804.47309027778</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>45818.66666666666</v>
+      </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
@@ -3767,7 +4023,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=96985</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96985</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3807,8 +4063,12 @@
           <t>EXPRESSION OF INTEREST (EOI) REQUIRED IN RELATION TO TRIDEM AXLE BOGIE WITH OVERSLUNG SUSPENSION (TRAILER) FOR USE AT PORT TERMINAL, MARITIME BUSINESS, TRANSNET ENGINEERING, RICHARDS BAY.</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
+      <c r="C65" s="2" t="n">
+        <v>45804.37309027778</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>45819.58333333334</v>
+      </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
@@ -3817,7 +4077,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=95158</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/95158</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3858,8 +4118,12 @@
 INFRASTRUCTURE MANAGER’S SECURITY DEPARTMENT.</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
+      <c r="C66" s="2" t="n">
+        <v>45804.32800925926</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>45832.54166666666</v>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>6/3/2025 11:00:00 AM</t>
@@ -3872,7 +4136,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=96953</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96953</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3912,8 +4176,12 @@
           <t xml:space="preserve"> PROVISION TO REFURBISHMENT OF SUBSTATION 1A AND 1B AT NGQURA CONTAINER TERMINAL FOR TRANSNET SOC LTD (REG NO:1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS (HEREINAFTER REFERRED AS “TPT”) FOR NGQURA CONTAINER TERMINAL AS A ONCE OFF </t>
         </is>
       </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
+      <c r="C67" s="2" t="n">
+        <v>45803.6796875</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>45835.58333333334</v>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>6/10/2025 11:00:00 AM</t>
@@ -3926,7 +4194,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=96950</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96950</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3968,8 +4236,12 @@
 MUNCHER</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
+      <c r="C68" s="2" t="n">
+        <v>45803.63376157408</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>45817.66666666666</v>
+      </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
@@ -3978,7 +4250,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=96921</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96921</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -4018,8 +4290,12 @@
           <t>SUPPLY, INSTALLATION, COMMISSIONING AND TESTING OF NEW SMALL BASIC MINI-CNC LATHE MACHINE FOR PD BUSINESS AT KOEDOESPOORT FOR ONCE OFF PERIOD, AT TRANSNET ENGINEERING</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
+      <c r="C69" s="2" t="n">
+        <v>45803.56710648148</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>45813.58333333334</v>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>5/30/2025 10:00:00 AM</t>
@@ -4032,7 +4308,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=96841</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96841</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -4076,8 +4352,12 @@
 </t>
         </is>
       </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
+      <c r="C70" s="2" t="n">
+        <v>45803.54571759259</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>45813.5</v>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
           <t>5/29/2025 10:00:00 AM</t>
@@ -4090,7 +4370,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=96898</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96898</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -4130,8 +4410,12 @@
           <t>FOR THE SUPPLY, DELIVERY AND INSTALLATION OF STEEL PALISADE WITH ELECTRIC FENCE AT OGIES/ERMELO</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
+      <c r="C71" s="2" t="n">
+        <v>45803.47934027778</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>45817.41666666666</v>
+      </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
@@ -4140,7 +4424,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=96878</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96878</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -4180,8 +4464,12 @@
           <t>PROVISION OF HYGIENE AND PEST CONTROL SERVICES AT SCHEEPERSNECK FOR 24 MONTHS PERIOD</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
+      <c r="C72" s="2" t="n">
+        <v>45803.36966435185</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>45813.45833333334</v>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
           <t>5/30/2025 11:00:00 AM</t>
@@ -4194,7 +4482,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=96672</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96672</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -4234,8 +4522,12 @@
           <t xml:space="preserve">FOR THE MAINTENANCE OF RAILWAY TRACK WITH AN ON-TRACK HIGH PRODUCTION SCREENING MACHINE ON ALL LINES OWNED AND MAINTAINED BY TRANSNET </t>
         </is>
       </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
+      <c r="C73" s="2" t="n">
+        <v>45803.32575231481</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>45817.5</v>
+      </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
@@ -4244,7 +4536,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=96842</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96842</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -4284,8 +4576,12 @@
           <t>PROVISION OF COMPREHENSIVE SCAFFOLDING SERVICES ON AN AS AND WHEN REQUIRED BASIS FOR A PERIOD OF 2 MONTHS FOR TRANSNET PORT TERMINALS RICHARDS BAY</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
+      <c r="C74" s="2" t="n">
+        <v>45800.67446759259</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>45814.58333333334</v>
+      </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
@@ -4294,7 +4590,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=96670</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96670</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -4335,8 +4631,12 @@
 RECON, COMP;DRAWGEAR KEYSTONE</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
+      <c r="C75" s="2" t="n">
+        <v>45800.63063657407</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>45818.75</v>
+      </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
@@ -4345,7 +4645,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=95898</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/95898</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -4385,8 +4685,12 @@
           <t>FOR THE PROVISION OF MAINTENANCE FOR RAIL DISPATCH BUILDING TARLTON DEPOT ON A ONCE OFF BASIS</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
+      <c r="C76" s="2" t="n">
+        <v>45800.53383101852</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>45817.66666666666</v>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>6/2/2025 11:00:00 AM</t>
@@ -4399,7 +4703,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=88724</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/88724</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4440,8 +4744,12 @@
 </t>
         </is>
       </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
+      <c r="C77" s="2" t="n">
+        <v>45800.5280324074</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>45817.5</v>
+      </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
@@ -4450,7 +4758,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=96729</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96729</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4490,8 +4798,12 @@
           <t xml:space="preserve">PROVISION OF S04 TAIL STRUCTURAL REPAIRS </t>
         </is>
       </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
+      <c r="C78" s="2" t="n">
+        <v>45800.51077546296</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>45814.33333333334</v>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>5/30/2025 10:00:00 AM</t>
@@ -4504,7 +4816,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=96661</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96661</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4544,8 +4856,12 @@
           <t>FOR THE SUPPLY AND DELIVERY OF SOAPS AND DETERGENTS TRANSNET SOC LTD REG. NO. 1990/000900) OPERATING AS TRANSNET PORT TERMINALS (HEREINAFTER REFERRED TO AS “TPT”) FOR THE DURBAN CONTAINER TERMINALS PIER 1 AND PIER 2. FOR A PERIOD OF THIRTY-SIX MONTHS (36) MONTHS.</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
+      <c r="C79" s="2" t="n">
+        <v>45800.50451388889</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>45817.5</v>
+      </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
@@ -4554,7 +4870,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=96770</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96770</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4594,8 +4910,12 @@
           <t>THE PROVISION OF AN ACCREDITED YOUNG LEADERS PROGRAMME WITHIN TRANSNET, FOR A PERIOD OF THREE (3) YEARS.</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
+      <c r="C80" s="2" t="n">
+        <v>45800.47005787037</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>45835.66666666666</v>
+      </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
@@ -4604,7 +4924,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=96361</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96361</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4644,8 +4964,12 @@
           <t>REPAIR DAMAGED LEAKING ROOFS WITHIN THE RM BUSINESS WORKSHOP 150 EEL ROAD UMBILO</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
+      <c r="C81" s="2" t="n">
+        <v>45800.44152777778</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>45817.54166666666</v>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>6/3/2025 11:00:00 AM</t>
@@ -4658,7 +4982,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=96663</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96663</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4698,8 +5022,12 @@
           <t>FOR THE PROVISION OF WASTE REMOVAL SERVICES IN NORTHERN KZN (EMPANGENI, RICHARDS BAY AND VRYHEID AND SURROUNDING AREAS) FOR TRANSNET PROPERTY FOR A PERIOD OF THIRTY SIX (36) MONTHS</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
+      <c r="C82" s="2" t="n">
+        <v>45799.79829861111</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>45825.5</v>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
           <t>5/29/2025 9:30:00 AM</t>
@@ -4712,7 +5040,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=93373</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/93373</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4752,8 +5080,12 @@
           <t xml:space="preserve">PROVISION OF PEST CONTROL SERVICES AT VRYHEID, EMPANGENI , RICHARDS BAY AND SURROUNDING AREAS FOR TRANSNET PROPERTY FOR A PERIOD OF 36 MONTHS. </t>
         </is>
       </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
+      <c r="C83" s="2" t="n">
+        <v>45799.79804398148</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>45821.58333333334</v>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
           <t>5/29/2025 11:00:00 AM</t>
@@ -4766,7 +5098,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=94085</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/94085</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4806,8 +5138,12 @@
           <t>FOR THE APPOINTMENT OF A SERVICE PROVIDER TO CONDUCT INTERNAL SHOTBLAST FOR RAIL TANKS AT TRANSNET ENGINEERING, GERMISTON DEPOT ON AN AS AND WHEN BASIS FOR A PERIOD OF THREE (3) YEARS.</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
+      <c r="C84" s="2" t="n">
+        <v>45799.65636574074</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>45813.66666666666</v>
+      </c>
       <c r="E84" t="inlineStr">
         <is>
           <t>5/29/2025 11:00:00 AM</t>
@@ -4820,7 +5156,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=96693</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96693</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4860,8 +5196,12 @@
           <t>SUPPLY, INSTALLATION AND MOULDING HDPE PIPES FOR INTERMEDIATE PUMPS FOR TRANSNET PORT TERMINAL - RICHARDS BAY - AS A ONCE OFF SERVICE</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
+      <c r="C85" s="2" t="n">
+        <v>45799.50821759259</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>45814.58333333334</v>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
           <t>5/30/2025 11:00:00 AM</t>
@@ -4874,7 +5214,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=96578</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96578</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4914,8 +5254,12 @@
           <t>THE PROVISION OF INSPECTION AND CALIBRATION SERVICES FOR PRESSURE RELIEF DEVICES AT VARIOUS TRANSNET PIPELINES SITES FOR A PERIOD OF FOUR (4) YEARS.</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
+      <c r="C86" s="2" t="n">
+        <v>45798.73452546296</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>45814.5</v>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
           <t>5/30/2025 10:00:00 AM</t>
@@ -4928,7 +5272,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=92507</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/92507</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4968,8 +5312,12 @@
           <t>FOR THE APPOINTMENT OF FINANCIAL INSTITUTION(S) TO ACT AS LEAD ARRANGER(S) AND TRANSACTION ADVISOR(S) FOR SPECIFIC ISSUANCES UNDER TRANSNET’S R80 BILLION DOMESTIC MEDIUM-TERM NOTE (“DMTN”) PROGRAMME FOR A PERIOD OF THREE (3) YEARS.</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
+      <c r="C87" s="2" t="n">
+        <v>45798.68741898148</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>45821.66666666666</v>
+      </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
@@ -4978,7 +5326,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=94467</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/94467</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -5018,8 +5366,12 @@
           <t>Provision of service for the maintenance, repair and installation (if necessary) of air conditioning units in Kimberley South relay rooms (Spuitfontein to De Aar) as and when required for a period of two (2) years.</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
+      <c r="C88" s="2" t="n">
+        <v>45798.6144212963</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>45825.41666666666</v>
+      </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
@@ -5028,7 +5380,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=96567</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96567</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -5069,8 +5421,12 @@
 </t>
         </is>
       </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
+      <c r="C89" s="2" t="n">
+        <v>45797.47945601852</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>45821.5</v>
+      </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
@@ -5079,7 +5435,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=63385</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/63385</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -5119,8 +5475,12 @@
           <t xml:space="preserve"> CIDB - FOR THE PROVISION TO REPAIR THE CONCRETE STRUCTURE FOR GP4 SHED FOR TRANSNET SOC LTD</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
+      <c r="C90" s="2" t="n">
+        <v>45796.62003472223</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>45814.54166666666</v>
+      </c>
       <c r="E90" t="inlineStr">
         <is>
           <t>5/26/2025 10:00:00 AM</t>
@@ -5133,7 +5493,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=96253</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96253</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -5175,8 +5535,12 @@
 </t>
         </is>
       </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
+      <c r="C91" s="2" t="n">
+        <v>45794.54615740741</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>45812.58333333334</v>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>5/19/2025 11:00:00 AM</t>
@@ -5189,7 +5553,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=96243</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96243</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -5229,8 +5593,12 @@
           <t>FOR THE SUPPLY, DELIVERY, INSTALLATION, TESTING AND COMMISSIONING OF 9 OFF ROTARY SCREW TYPE COMPRESSORS AND AIR DRYERS FOR TRANSNET ENGINEERING AT VARIOUS CORRIDOR DEPOTS (NORTH CAPE AND CONTAINER CORRIDORS)</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
+      <c r="C92" s="2" t="n">
+        <v>45793.60487268519</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>45818.5</v>
+      </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>5/26/2025 9:30:00 AM</t>
@@ -5243,7 +5611,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=94658</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/94658</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -5283,8 +5651,12 @@
           <t>FOR THE PROVISION OF NETWORK DETECTION AND RESPONSE (NDR) SOLUTION FOR A PERIOD OF THREE (3) YEARS.</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
+      <c r="C93" s="2" t="n">
+        <v>45793.48670138889</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>45827.5</v>
+      </c>
       <c r="E93" t="inlineStr">
         <is>
           <t>5/23/2025 11:00:00 AM</t>
@@ -5297,7 +5669,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=84866</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/84866</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -5338,8 +5710,12 @@
 </t>
         </is>
       </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
+      <c r="C94" s="2" t="n">
+        <v>45792.64659722222</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>45838.75</v>
+      </c>
       <c r="E94" t="inlineStr">
         <is>
           <t>5/27/2025 10:00:00 AM</t>
@@ -5352,7 +5728,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=96000</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96000</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -5392,8 +5768,12 @@
           <t>SUPPLY AND DELIVERY OF VARIOUS AMOUR ROCK FOR THE CONSTRUCTION WORK IN THE UPGRADE OF THE BREAKWATERS (NEW DOLOSSE) AT THE PORT OF RICHARDS BAY</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
+      <c r="C95" s="2" t="n">
+        <v>45792.61826388889</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>45817.66666666666</v>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
           <t>5/26/2025 10:00:00 AM</t>
@@ -5406,7 +5786,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=90555</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/90555</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -5446,8 +5826,12 @@
           <t>THE ESTABLISHMENT OF AN  APPROVED LIST OF SERVICE PROVIDERS FOR PROVISION OF LEGAL SERVICES FOR A PERIOD OF FIVE (5) YEARS</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
+      <c r="C96" s="2" t="n">
+        <v>45791.66534722222</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>45825.5</v>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
           <t>5/23/2024 11:00:00 AM</t>
@@ -5460,7 +5844,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=65599</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/65599</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -5501,8 +5885,12 @@
 </t>
         </is>
       </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
+      <c r="C97" s="2" t="n">
+        <v>45791.47337962963</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>45821.75</v>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>5/19/2025 1:00:00 PM</t>
@@ -5515,7 +5903,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=94921</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/94921</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5559,8 +5947,12 @@
 </t>
         </is>
       </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
+      <c r="C98" s="2" t="n">
+        <v>45790.86484953704</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>45814.41666666666</v>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
           <t>5/22/2025 10:00:00 AM</t>
@@ -5573,7 +5965,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=95751</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/95751</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5613,8 +6005,12 @@
           <t>FOR THE DESIGN, MANUFACTURE, OFF SITE TESTING, SUPPLY, DELIVERY, INSTALLATION, TESTING AND COMMISSIONING OF ONE (1) NEW 1000KVA MINI SUBSTATION AND ONE (1) 1000KVA MOBILE GENERATOR FOR THE ENGINEERING EQUIPMENT SERVICES (EES) BUILDING, FOR TRANSNET SOC LTD OPERATING AS TRANSNET PORT TERMINALS, (HEREINAFTER REFERRED TO AS “TPT”), AT DURBAN CONTAINER TERMINAL PIER 1, FOR THE DURATION OF 12 MONTHS</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
+      <c r="C99" s="2" t="n">
+        <v>45790.62701388889</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>45817</v>
+      </c>
       <c r="E99" t="inlineStr">
         <is>
           <t>5/21/2025 12:00:00 AM</t>
@@ -5627,7 +6023,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=95844</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/95844</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5667,8 +6063,12 @@
           <t>MECHANICAL UPGRADE AT SASOLBURG DIESEL STORAGE DEPOT, FREE STATE.</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
+      <c r="C100" s="2" t="n">
+        <v>45789.69364583334</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>45821.41666666666</v>
+      </c>
       <c r="E100" t="inlineStr">
         <is>
           <t>5/22/2025 10:12:00 AM</t>
@@ -5681,7 +6081,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=95743</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/95743</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5721,8 +6121,12 @@
           <t xml:space="preserve">THE DESIGN, SUPPLY, DELIVERY, INSTALLATION, TESTING AND COMMISSIONING OF A COMPLETE NEW SHOT BLAST BOOTH INCLUDING THE STRUCTURE FOR THE LOCOMOTIVE BUSINESS DURBAN FOR A PERIOD OF FOUR (04) MONTHS. </t>
         </is>
       </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
+      <c r="C101" s="2" t="n">
+        <v>45786.61042824074</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>45814.75</v>
+      </c>
       <c r="E101" t="inlineStr">
         <is>
           <t>5/19/2025 11:00:00 AM</t>
@@ -5735,7 +6139,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=94930</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/94930</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5775,8 +6179,12 @@
           <t>FOR A SERVICE PROVIDER TO PROVIDE THE SERVICES OF AN APPROVED INSPECTION AUTHORITY (AIA) TO CONDUCT SAMPLE TESTING ON THE XB WAGONS FLEET IN LINE WITH SPECIFICATION EW_KLP_SPEC_2003 IN BLOEMFONTEIN ON AN “AS AND WHEN” REQUIRED BASIS FOR A PERIOD OF FOUR (4) YEARS.</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
+      <c r="C102" s="2" t="n">
+        <v>45785.36899305556</v>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>45814.66666666666</v>
+      </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr">
         <is>
@@ -5785,7 +6193,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=91624</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/91624</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5825,8 +6233,12 @@
           <t>FOR AN APPOINTMENT OF A SERVICE PROVIDER TO OPERATE  AND  TAKE OVER OWNERSHIP SCHOOL OF EXCELLENCE</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
+      <c r="C103" s="2" t="n">
+        <v>45784.35107638889</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>45821.625</v>
+      </c>
       <c r="E103" t="inlineStr">
         <is>
           <t>5/21/2025 11:00:00 AM</t>
@@ -5839,7 +6251,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=92369</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/92369</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5879,8 +6291,12 @@
           <t>FOR THE APPOINTMENT OF A REGISTERED PROFESSIONAL TO PERFORM AN EPC ASSESSMENT, MEASUREMENT OF THE BUILDING NET FLOOR AREA AND ENERGY DATA ON 13 FACILITIES TO TRANSNET SOC LTD (REG. NO. 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS (HEREINAFTER REFERRED TO AS “TPT”) AT THE VARIOUS TRANSNET PORT TERMINALS ON A ONCE OFF BASIS.</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
+      <c r="C104" s="2" t="n">
+        <v>45783.49142361111</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>45821.5</v>
+      </c>
       <c r="E104" t="inlineStr">
         <is>
           <t>5/16/2025 11:00:00 AM</t>
@@ -5893,7 +6309,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=92515</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/92515</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5933,8 +6349,12 @@
           <t>DESIGN, SUPPLY, DELIVER AND CONSTRUCT THE PERIMETER FENCE WITH INTRUSION DETECTION AT UITENHAGE (SWARTKOPS), FOR A PERIOD OF 06 MONTHS</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
+      <c r="C105" s="2" t="n">
+        <v>45782.56052083334</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>45817.75</v>
+      </c>
       <c r="E105" t="inlineStr">
         <is>
           <t>5/13/2025 10:00:00 AM</t>
@@ -5947,7 +6367,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=92908</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/92908</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5987,8 +6407,12 @@
           <t>FOR THE LEASE AND/OR DEVELOPMENT OF THE REMAINDER OF ERF 34104 BELLVILLE (UNREGISTERED SUBDIVISION OF REMAINDER OF ERF 11661 BELLVILLE), ERF 34103 BELLVILLE (UNREGISTERED SUBDIVISION OF REMAINDER OF ERF 11659 BELLVILLE), ERF 22933 PAROW.</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
+      <c r="C106" s="2" t="n">
+        <v>45780.34752314815</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>45838.95833333334</v>
+      </c>
       <c r="E106" t="inlineStr">
         <is>
           <t>5/19/2025 11:00:00 AM</t>
@@ -6001,7 +6425,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=92763</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/92763</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -6041,8 +6465,12 @@
           <t>DECOMMISSIONING OF OBSOLETE NETWORK VIDEO RECORDERS (NVRs), SUPPLY, INSTALLATION, CONFIGURATION, INTEGRATION, TRAINING, MAINTENANCE, AND COMMISSIONING OF A NEW NVR AND SOFTWARE FOR THE CCTV SURVEILLANCE SYSTEM AT KILNERPARK CORPORATE OFFICE FOR A PERIOD OF 12 MONTHS</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
+      <c r="C107" s="2" t="n">
+        <v>45777.94576388889</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>45818.41666666666</v>
+      </c>
       <c r="E107" t="inlineStr">
         <is>
           <t>5/14/2025 11:00:00 AM</t>
@@ -6055,7 +6483,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=94967</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/94967</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -6095,8 +6523,12 @@
           <t>FOR THE SUPPLY, INSTALLATION, AND COMMISSIONING OF SHOP 5 WORKSHOP EQUIPMENT/MACHINERY AT THE DRY BULK TERMINAL PORT OF RICHARDS BAY WORKS FOR TRANSNET SOC LTD OPERATING AS TRANSNET PORT TERMINALS</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
+      <c r="C108" s="2" t="n">
+        <v>45764.48126157407</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>45812.5</v>
+      </c>
       <c r="E108" t="inlineStr">
         <is>
           <t>5/6/2025 11:00:00 AM</t>
@@ -6109,7 +6541,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=94230</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/94230</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -6149,8 +6581,12 @@
           <t>DESIGN, SUPPLY, INSTALLATION (EPC CONTRACTOR) AND PROVIDE PLANNED MAINTENANCE FOR A LIMITED PERIOD FOR THE VAPOUR RECOVERY UNIT SYSTEM AT THE TPL TARLTON PETROLEUM PRODUCTS HANDLING AND BULK STORAGE FACILITY</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
+      <c r="C109" s="2" t="n">
+        <v>45763.49534722222</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>45814.625</v>
+      </c>
       <c r="E109" t="inlineStr">
         <is>
           <t>4/25/2025 11:00:00 AM</t>
@@ -6163,7 +6599,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=70943</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/70943</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -6203,8 +6639,12 @@
           <t>REQUEST FOR PROPOSALS FOR THE APPOINTMENT OF A TERMINAL OPERATOR TO FINANCE, DESIGN, CONSTRUCT, OPERATE, MAINTAIN, AND TRANSFER A MULTI-PURPOSE TERMINAL HANDLING FRESH PRODUCE AND COMPATIBLE BREAK BULK CARGO FOR A TWENTY-FIVE (25) YEAR CONCESSION PERIOD AT MAYDON WHARF PRECINCT IN THE PORT OF DURBAN.</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
+      <c r="C110" s="2" t="n">
+        <v>45758.65010416666</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>45898.66666666666</v>
+      </c>
       <c r="E110" t="inlineStr">
         <is>
           <t>5/7/2025 10:00:00 AM</t>
@@ -6217,7 +6657,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=93866</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/93866</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -6257,8 +6697,12 @@
           <t>Request for Qualification (RFQ) for the Establishment of the Rolling Stock Leasing Company (LeaseCo) for Transnet SOC Ltd operating as Transnet Corporate Centre</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
+      <c r="C111" s="2" t="n">
+        <v>45755.66251157408</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>45842.66666666666</v>
+      </c>
       <c r="E111" t="inlineStr">
         <is>
           <t>5/6/2025 11:00:00 AM</t>
@@ -6271,7 +6715,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=92339</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/92339</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -6311,8 +6755,12 @@
           <t>APPOINTMENT OF A TERMINAL OPERATOR TO ACQUIRE, OPERATE, MAINTAIN, REFURBISH, AND/OR CONSTRUCT AND TRANSFER A LIQUID BULK TERMINAL FOR A TWENTY-FIVE (25) YEAR CONCESSION PERIOD AT THE PORT OF CAPE TOWN LIQUID BULK PRECINCT</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
+      <c r="C112" s="2" t="n">
+        <v>45750.64232638889</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>45881.66666666666</v>
+      </c>
       <c r="E112" t="inlineStr">
         <is>
           <t>4/17/2025 10:00:00 AM</t>
@@ -6325,7 +6773,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=90040</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/90040</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -6366,8 +6814,12 @@
 CONVEYOR SOLUTION FOR TRANSNET SOC (REG. N0 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS RICHARDS BAY (HEREINAFTER REFERRED TO AS “TPT RCB”)</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
+      <c r="C113" s="2" t="n">
+        <v>45743.61306712963</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>45838.41666666666</v>
+      </c>
       <c r="E113" t="inlineStr">
         <is>
           <t>4/10/2025 10:00:00 AM</t>
@@ -6380,7 +6832,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=85636</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/85636</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -6420,8 +6872,12 @@
           <t>REQUEST FOR PROPOSAL FOR THE APPOINTMENT OF A TERMINAL OPERATOR TO FINANCE, DESIGN, CONSTRUCT, OPERATE, MAINTAIN, AND TRANSFER A MULTI-PURPOSE TERMINAL HANDLING AGRICULTURAL DRY BULK AND OTHER COMPATIBLE CARGO FOR A TWENTY-FIVE (25) YEAR CONCESSION PERIOD AT MAYDON WHARF PRECINCT AT THE PORT OF DURBAN.</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
+      <c r="C114" s="2" t="n">
+        <v>45723.59657407407</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>45849.66666666666</v>
+      </c>
       <c r="E114" t="inlineStr">
         <is>
           <t>3/27/2025 10:00:00 AM</t>
@@ -6434,7 +6890,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://transnetetenders.azurewebsites.net/Home/TenderDetails?Id=90945</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/90945</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">

--- a/TenderScrap/TenderScrap/spiders/advert.xlsx
+++ b/TenderScrap/TenderScrap/spiders/advert.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -558,10 +562,8 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>6/6/2025 11:00:00 AM</t>
-        </is>
+      <c r="E3" s="2" t="n">
+        <v>45814.45833333334</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -613,10 +615,8 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>6/12/2025 9:00:00 AM</t>
-        </is>
+      <c r="E4" s="2" t="n">
+        <v>45820.375</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -667,10 +667,8 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>6/12/2025 9:00:00 AM</t>
-        </is>
+      <c r="E5" s="2" t="n">
+        <v>45820.375</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -722,10 +720,8 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>6/12/2025 9:00:00 AM</t>
-        </is>
+      <c r="E6" s="2" t="n">
+        <v>45820.375</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -776,10 +772,8 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>6/12/2025 9:00:00 AM</t>
-        </is>
+      <c r="E7" s="2" t="n">
+        <v>45820.375</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -830,10 +824,8 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>6/10/2025 11:00:00 AM</t>
-        </is>
+      <c r="E8" s="2" t="n">
+        <v>45818.45833333334</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1034,10 +1026,8 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>6/12/2025 9:00:00 AM</t>
-        </is>
+      <c r="E12" s="2" t="n">
+        <v>45820.375</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1090,10 +1080,8 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>6/12/2025 9:00:00 AM</t>
-        </is>
+      <c r="E13" s="2" t="n">
+        <v>45820.375</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1144,10 +1132,8 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>6/12/2025 9:00:00 AM</t>
-        </is>
+      <c r="E14" s="2" t="n">
+        <v>45820.375</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1198,10 +1184,8 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>6/12/2025 9:00:00 AM</t>
-        </is>
+      <c r="E15" s="2" t="n">
+        <v>45820.375</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1252,10 +1236,8 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>6/12/2025 9:00:00 AM</t>
-        </is>
+      <c r="E16" s="2" t="n">
+        <v>45820.375</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1306,10 +1288,8 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>6/12/2025 10:00:00 AM</t>
-        </is>
+      <c r="E17" s="2" t="n">
+        <v>45820.41666666666</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1362,10 +1342,8 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>6/10/2025 10:00:00 AM</t>
-        </is>
+      <c r="E18" s="2" t="n">
+        <v>45818.41666666666</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1466,10 +1444,8 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>6/10/2025 10:00:00 AM</t>
-        </is>
+      <c r="E20" s="2" t="n">
+        <v>45818.41666666666</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -2171,10 +2147,8 @@
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>6/6/2025 10:00:00 AM</t>
-        </is>
+      <c r="E34" s="2" t="n">
+        <v>45814.41666666666</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2225,10 +2199,8 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>6/10/2025 11:00:00 AM</t>
-        </is>
+      <c r="E35" s="2" t="n">
+        <v>45818.45833333334</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2329,10 +2301,8 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>6/18/2025 10:00:00 AM</t>
-        </is>
+      <c r="E37" s="2" t="n">
+        <v>45826.41666666666</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2433,10 +2403,8 @@
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>6/4/2025 11:00:00 AM</t>
-        </is>
+      <c r="E39" s="2" t="n">
+        <v>45812.45833333334</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2487,10 +2455,8 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>6/4/2025 10:00:00 AM</t>
-        </is>
+      <c r="E40" s="2" t="n">
+        <v>45812.41666666666</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2541,10 +2507,8 @@
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>6/6/2025 11:00:00 AM</t>
-        </is>
+      <c r="E41" s="2" t="n">
+        <v>45814.45833333334</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2597,10 +2561,8 @@
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>6/13/2025 12:00:00 PM</t>
-        </is>
+      <c r="E42" s="2" t="n">
+        <v>45821.5</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2651,10 +2613,8 @@
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>6/18/2025 10:00:00 AM</t>
-        </is>
+      <c r="E43" s="2" t="n">
+        <v>45826.41666666666</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2906,10 +2866,8 @@
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>6/2/2025 10:00:00 AM</t>
-        </is>
+      <c r="E48" s="2" t="n">
+        <v>45810.41666666666</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2960,10 +2918,8 @@
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>6/11/2025 10:00:00 AM</t>
-        </is>
+      <c r="E49" s="2" t="n">
+        <v>45819.41666666666</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -3014,10 +2970,8 @@
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>6/2/2025 11:00:00 AM</t>
-        </is>
+      <c r="E50" s="2" t="n">
+        <v>45810.45833333334</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3070,10 +3024,8 @@
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>6/6/2025 10:00:00 AM</t>
-        </is>
+      <c r="E51" s="2" t="n">
+        <v>45814.41666666666</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3124,10 +3076,8 @@
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>6/5/2025 10:00:00 AM</t>
-        </is>
+      <c r="E52" s="2" t="n">
+        <v>45813.41666666666</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -3178,10 +3128,8 @@
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>6/6/2025 10:00:00 AM</t>
-        </is>
+      <c r="E53" s="2" t="n">
+        <v>45814.41666666666</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3232,10 +3180,8 @@
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>6/10/2025 10:00:00 AM</t>
-        </is>
+      <c r="E54" s="2" t="n">
+        <v>45818.41666666666</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3286,10 +3232,8 @@
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>6/11/2025 11:00:00 AM</t>
-        </is>
+      <c r="E55" s="2" t="n">
+        <v>45819.45833333334</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -3340,10 +3284,8 @@
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>6/10/2025 11:00:00 AM</t>
-        </is>
+      <c r="E56" s="2" t="n">
+        <v>45818.45833333334</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3394,10 +3336,8 @@
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>6/5/2025 11:00:00 AM</t>
-        </is>
+      <c r="E57" s="2" t="n">
+        <v>45813.45833333334</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3448,10 +3388,8 @@
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>6/5/2025 10:00:00 AM</t>
-        </is>
+      <c r="E58" s="2" t="n">
+        <v>45813.41666666666</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3602,10 +3540,8 @@
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>6/3/2025 10:00:00 AM</t>
-        </is>
+      <c r="E61" s="2" t="n">
+        <v>45811.41666666666</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3860,10 +3796,8 @@
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>6/3/2025 11:00:00 AM</t>
-        </is>
+      <c r="E66" s="2" t="n">
+        <v>45811.45833333334</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3914,10 +3848,8 @@
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>6/10/2025 11:00:00 AM</t>
-        </is>
+      <c r="E67" s="2" t="n">
+        <v>45818.45833333334</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -4020,10 +3952,8 @@
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>5/30/2025 10:00:00 AM</t>
-        </is>
+      <c r="E69" s="2" t="n">
+        <v>45807.41666666666</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -4078,10 +4008,8 @@
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>5/29/2025 10:00:00 AM</t>
-        </is>
+      <c r="E70" s="2" t="n">
+        <v>45806.41666666666</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -4182,10 +4110,8 @@
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>5/30/2025 11:00:00 AM</t>
-        </is>
+      <c r="E72" s="2" t="n">
+        <v>45807.45833333334</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -4387,10 +4313,8 @@
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>6/2/2025 11:00:00 AM</t>
-        </is>
+      <c r="E76" s="2" t="n">
+        <v>45810.45833333334</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -4492,10 +4416,8 @@
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>5/30/2025 10:00:00 AM</t>
-        </is>
+      <c r="E78" s="2" t="n">
+        <v>45807.41666666666</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -4646,10 +4568,8 @@
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>6/3/2025 11:00:00 AM</t>
-        </is>
+      <c r="E81" s="2" t="n">
+        <v>45811.45833333334</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -4700,10 +4620,8 @@
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>5/29/2025 9:30:00 AM</t>
-        </is>
+      <c r="E82" s="2" t="n">
+        <v>45806.39583333334</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -4754,10 +4672,8 @@
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>5/29/2025 11:00:00 AM</t>
-        </is>
+      <c r="E83" s="2" t="n">
+        <v>45806.45833333334</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -4808,10 +4724,8 @@
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>5/29/2025 11:00:00 AM</t>
-        </is>
+      <c r="E84" s="2" t="n">
+        <v>45806.45833333334</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -4862,10 +4776,8 @@
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>5/30/2025 11:00:00 AM</t>
-        </is>
+      <c r="E85" s="2" t="n">
+        <v>45807.45833333334</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -4916,10 +4828,8 @@
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>5/30/2025 10:00:00 AM</t>
-        </is>
+      <c r="E86" s="2" t="n">
+        <v>45807.41666666666</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -5121,10 +5031,8 @@
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>5/26/2025 10:00:00 AM</t>
-        </is>
+      <c r="E90" s="2" t="n">
+        <v>45803.41666666666</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -5177,10 +5085,8 @@
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>5/19/2025 11:00:00 AM</t>
-        </is>
+      <c r="E91" s="2" t="n">
+        <v>45796.45833333334</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -5231,10 +5137,8 @@
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>5/26/2025 9:30:00 AM</t>
-        </is>
+      <c r="E92" s="2" t="n">
+        <v>45803.39583333334</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -5285,10 +5189,8 @@
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>5/23/2025 11:00:00 AM</t>
-        </is>
+      <c r="E93" s="2" t="n">
+        <v>45800.45833333334</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -5340,10 +5242,8 @@
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>5/27/2025 10:00:00 AM</t>
-        </is>
+      <c r="E94" s="2" t="n">
+        <v>45804.41666666666</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -5394,10 +5294,8 @@
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>5/26/2025 10:00:00 AM</t>
-        </is>
+      <c r="E95" s="2" t="n">
+        <v>45803.41666666666</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -5448,10 +5346,8 @@
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>5/23/2024 11:00:00 AM</t>
-        </is>
+      <c r="E96" s="2" t="n">
+        <v>45435.45833333334</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -5503,10 +5399,8 @@
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>5/19/2025 1:00:00 PM</t>
-        </is>
+      <c r="E97" s="2" t="n">
+        <v>45796.54166666666</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -5561,10 +5455,8 @@
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>5/22/2025 10:00:00 AM</t>
-        </is>
+      <c r="E98" s="2" t="n">
+        <v>45799.41666666666</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -5615,10 +5507,8 @@
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>5/21/2025 12:00:00 AM</t>
-        </is>
+      <c r="E99" s="2" t="n">
+        <v>45798</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -5669,10 +5559,8 @@
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>5/22/2025 10:12:00 AM</t>
-        </is>
+      <c r="E100" s="2" t="n">
+        <v>45799.425</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -5723,10 +5611,8 @@
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>5/19/2025 11:00:00 AM</t>
-        </is>
+      <c r="E101" s="2" t="n">
+        <v>45796.45833333334</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -5827,10 +5713,8 @@
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>5/21/2025 11:00:00 AM</t>
-        </is>
+      <c r="E103" s="2" t="n">
+        <v>45798.45833333334</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -5881,10 +5765,8 @@
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>5/16/2025 11:00:00 AM</t>
-        </is>
+      <c r="E104" s="2" t="n">
+        <v>45793.45833333334</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -5935,10 +5817,8 @@
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>5/13/2025 10:00:00 AM</t>
-        </is>
+      <c r="E105" s="2" t="n">
+        <v>45790.41666666666</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -5989,10 +5869,8 @@
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>5/19/2025 11:00:00 AM</t>
-        </is>
+      <c r="E106" s="2" t="n">
+        <v>45796.45833333334</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -6043,10 +5921,8 @@
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>5/14/2025 11:00:00 AM</t>
-        </is>
+      <c r="E107" s="2" t="n">
+        <v>45791.45833333334</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -6097,10 +5973,8 @@
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>5/6/2025 11:00:00 AM</t>
-        </is>
+      <c r="E108" s="2" t="n">
+        <v>45783.45833333334</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -6151,10 +6025,8 @@
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>4/25/2025 11:00:00 AM</t>
-        </is>
+      <c r="E109" s="2" t="n">
+        <v>45772.45833333334</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -6205,10 +6077,8 @@
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>5/7/2025 10:00:00 AM</t>
-        </is>
+      <c r="E110" s="2" t="n">
+        <v>45784.41666666666</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -6259,10 +6129,8 @@
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>5/6/2025 11:00:00 AM</t>
-        </is>
+      <c r="E111" s="2" t="n">
+        <v>45783.45833333334</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -6313,10 +6181,8 @@
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>4/17/2025 10:00:00 AM</t>
-        </is>
+      <c r="E112" s="2" t="n">
+        <v>45764.41666666666</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -6368,10 +6234,8 @@
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>4/10/2025 10:00:00 AM</t>
-        </is>
+      <c r="E113" s="2" t="n">
+        <v>45757.41666666666</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -6422,10 +6286,8 @@
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>3/27/2025 10:00:00 AM</t>
-        </is>
+      <c r="E114" s="2" t="n">
+        <v>45743.41666666666</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>

--- a/TenderScrap/TenderScrap/spiders/advert.xlsx
+++ b/TenderScrap/TenderScrap/spiders/advert.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -562,8 +558,10 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" s="2" t="n">
-        <v>45814.45833333334</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-06-06 11:00:00</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -615,8 +613,10 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" s="2" t="n">
-        <v>45820.375</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-06-12 09:00:00</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -667,8 +667,10 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" s="2" t="n">
-        <v>45820.375</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-06-12 09:00:00</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -720,8 +722,10 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" s="2" t="n">
-        <v>45820.375</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-06-12 09:00:00</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -772,8 +776,10 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" s="2" t="n">
-        <v>45820.375</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-06-12 09:00:00</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -824,8 +830,10 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" s="2" t="n">
-        <v>45818.45833333334</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-06-10 11:00:00</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1026,8 +1034,10 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" s="2" t="n">
-        <v>45820.375</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2025-06-12 09:00:00</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1080,8 +1090,10 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" s="2" t="n">
-        <v>45820.375</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-06-12 09:00:00</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1132,8 +1144,10 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" s="2" t="n">
-        <v>45820.375</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2025-06-12 09:00:00</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1184,8 +1198,10 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" s="2" t="n">
-        <v>45820.375</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2025-06-12 09:00:00</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1236,8 +1252,10 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" s="2" t="n">
-        <v>45820.375</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2025-06-12 09:00:00</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1288,8 +1306,10 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" s="2" t="n">
-        <v>45820.41666666666</v>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2025-06-12 10:00:00</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1342,8 +1362,10 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" s="2" t="n">
-        <v>45818.41666666666</v>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:00:00</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1444,8 +1466,10 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" s="2" t="n">
-        <v>45818.41666666666</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:00:00</t>
+        </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -2147,8 +2171,10 @@
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" s="2" t="n">
-        <v>45814.41666666666</v>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2025-06-06 10:00:00</t>
+        </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2199,8 +2225,10 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" s="2" t="n">
-        <v>45818.45833333334</v>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2025-06-10 11:00:00</t>
+        </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2301,8 +2329,10 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" s="2" t="n">
-        <v>45826.41666666666</v>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2025-06-18 10:00:00</t>
+        </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2403,8 +2433,10 @@
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" s="2" t="n">
-        <v>45812.45833333334</v>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2025-06-04 11:00:00</t>
+        </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2455,8 +2487,10 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" s="2" t="n">
-        <v>45812.41666666666</v>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2025-06-04 10:00:00</t>
+        </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2507,8 +2541,10 @@
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" s="2" t="n">
-        <v>45814.45833333334</v>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2025-06-06 11:00:00</t>
+        </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2561,8 +2597,10 @@
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" s="2" t="n">
-        <v>45821.5</v>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2025-06-13 12:00:00</t>
+        </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2613,8 +2651,10 @@
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" s="2" t="n">
-        <v>45826.41666666666</v>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2025-06-18 10:00:00</t>
+        </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2866,8 +2906,10 @@
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" s="2" t="n">
-        <v>45810.41666666666</v>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2025-06-02 10:00:00</t>
+        </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2918,8 +2960,10 @@
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" s="2" t="n">
-        <v>45819.41666666666</v>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2025-06-11 10:00:00</t>
+        </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2970,8 +3014,10 @@
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" s="2" t="n">
-        <v>45810.45833333334</v>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2025-06-02 11:00:00</t>
+        </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3024,8 +3070,10 @@
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" s="2" t="n">
-        <v>45814.41666666666</v>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2025-06-06 10:00:00</t>
+        </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3076,8 +3124,10 @@
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" s="2" t="n">
-        <v>45813.41666666666</v>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2025-06-05 10:00:00</t>
+        </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -3128,8 +3178,10 @@
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" s="2" t="n">
-        <v>45814.41666666666</v>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2025-06-06 10:00:00</t>
+        </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3180,8 +3232,10 @@
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" s="2" t="n">
-        <v>45818.41666666666</v>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:00:00</t>
+        </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3232,8 +3286,10 @@
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" s="2" t="n">
-        <v>45819.45833333334</v>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2025-06-11 11:00:00</t>
+        </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -3284,8 +3340,10 @@
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" s="2" t="n">
-        <v>45818.45833333334</v>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2025-06-10 11:00:00</t>
+        </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3336,8 +3394,10 @@
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" s="2" t="n">
-        <v>45813.45833333334</v>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2025-06-05 11:00:00</t>
+        </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3388,8 +3448,10 @@
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" s="2" t="n">
-        <v>45813.41666666666</v>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2025-06-05 10:00:00</t>
+        </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3540,8 +3602,10 @@
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" s="2" t="n">
-        <v>45811.41666666666</v>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2025-06-03 10:00:00</t>
+        </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3796,8 +3860,10 @@
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" s="2" t="n">
-        <v>45811.45833333334</v>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2025-06-03 11:00:00</t>
+        </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3848,8 +3914,10 @@
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" s="2" t="n">
-        <v>45818.45833333334</v>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2025-06-10 11:00:00</t>
+        </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3952,8 +4020,10 @@
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" s="2" t="n">
-        <v>45807.41666666666</v>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2025-05-30 10:00:00</t>
+        </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -4008,8 +4078,10 @@
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" s="2" t="n">
-        <v>45806.41666666666</v>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2025-05-29 10:00:00</t>
+        </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -4110,8 +4182,10 @@
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" s="2" t="n">
-        <v>45807.45833333334</v>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2025-05-30 11:00:00</t>
+        </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -4313,8 +4387,10 @@
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" s="2" t="n">
-        <v>45810.45833333334</v>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2025-06-02 11:00:00</t>
+        </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -4416,8 +4492,10 @@
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" s="2" t="n">
-        <v>45807.41666666666</v>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2025-05-30 10:00:00</t>
+        </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -4568,8 +4646,10 @@
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" s="2" t="n">
-        <v>45811.45833333334</v>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2025-06-03 11:00:00</t>
+        </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -4620,8 +4700,10 @@
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" s="2" t="n">
-        <v>45806.39583333334</v>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2025-05-29 09:30:00</t>
+        </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -4672,8 +4754,10 @@
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
-      <c r="E83" s="2" t="n">
-        <v>45806.45833333334</v>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2025-05-29 11:00:00</t>
+        </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -4724,8 +4808,10 @@
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" s="2" t="n">
-        <v>45806.45833333334</v>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2025-05-29 11:00:00</t>
+        </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -4776,8 +4862,10 @@
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" s="2" t="n">
-        <v>45807.45833333334</v>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2025-05-30 11:00:00</t>
+        </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -4828,8 +4916,10 @@
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" s="2" t="n">
-        <v>45807.41666666666</v>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2025-05-30 10:00:00</t>
+        </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -5031,8 +5121,10 @@
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" s="2" t="n">
-        <v>45803.41666666666</v>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2025-05-26 10:00:00</t>
+        </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -5085,8 +5177,10 @@
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
-      <c r="E91" s="2" t="n">
-        <v>45796.45833333334</v>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2025-05-19 11:00:00</t>
+        </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -5137,8 +5231,10 @@
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
-      <c r="E92" s="2" t="n">
-        <v>45803.39583333334</v>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2025-05-26 09:30:00</t>
+        </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -5189,8 +5285,10 @@
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
-      <c r="E93" s="2" t="n">
-        <v>45800.45833333334</v>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2025-05-23 11:00:00</t>
+        </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -5242,8 +5340,10 @@
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
-      <c r="E94" s="2" t="n">
-        <v>45804.41666666666</v>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2025-05-27 10:00:00</t>
+        </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -5294,8 +5394,10 @@
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
-      <c r="E95" s="2" t="n">
-        <v>45803.41666666666</v>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2025-05-26 10:00:00</t>
+        </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -5346,8 +5448,10 @@
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" s="2" t="n">
-        <v>45435.45833333334</v>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2024-05-23 11:00:00</t>
+        </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -5399,8 +5503,10 @@
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" s="2" t="n">
-        <v>45796.54166666666</v>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2025-05-19 13:00:00</t>
+        </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -5455,8 +5561,10 @@
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" s="2" t="n">
-        <v>45799.41666666666</v>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2025-05-22 10:00:00</t>
+        </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -5507,8 +5615,10 @@
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" s="2" t="n">
-        <v>45798</v>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2025-05-21 00:00:00</t>
+        </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -5559,8 +5669,10 @@
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
-      <c r="E100" s="2" t="n">
-        <v>45799.425</v>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2025-05-22 10:12:00</t>
+        </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -5611,8 +5723,10 @@
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
-      <c r="E101" s="2" t="n">
-        <v>45796.45833333334</v>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2025-05-19 11:00:00</t>
+        </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -5713,8 +5827,10 @@
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
-      <c r="E103" s="2" t="n">
-        <v>45798.45833333334</v>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2025-05-21 11:00:00</t>
+        </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -5765,8 +5881,10 @@
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
-      <c r="E104" s="2" t="n">
-        <v>45793.45833333334</v>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2025-05-16 11:00:00</t>
+        </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -5817,8 +5935,10 @@
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
-      <c r="E105" s="2" t="n">
-        <v>45790.41666666666</v>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2025-05-13 10:00:00</t>
+        </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -5869,8 +5989,10 @@
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
-      <c r="E106" s="2" t="n">
-        <v>45796.45833333334</v>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2025-05-19 11:00:00</t>
+        </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -5921,8 +6043,10 @@
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
-      <c r="E107" s="2" t="n">
-        <v>45791.45833333334</v>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2025-05-14 11:00:00</t>
+        </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -5973,8 +6097,10 @@
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
-      <c r="E108" s="2" t="n">
-        <v>45783.45833333334</v>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2025-05-06 11:00:00</t>
+        </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -6025,8 +6151,10 @@
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
-      <c r="E109" s="2" t="n">
-        <v>45772.45833333334</v>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2025-04-25 11:00:00</t>
+        </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -6077,8 +6205,10 @@
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
-      <c r="E110" s="2" t="n">
-        <v>45784.41666666666</v>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2025-05-07 10:00:00</t>
+        </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -6129,8 +6259,10 @@
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
-      <c r="E111" s="2" t="n">
-        <v>45783.45833333334</v>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2025-05-06 11:00:00</t>
+        </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -6181,8 +6313,10 @@
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
-      <c r="E112" s="2" t="n">
-        <v>45764.41666666666</v>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2025-04-17 10:00:00</t>
+        </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -6234,8 +6368,10 @@
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
-      <c r="E113" s="2" t="n">
-        <v>45757.41666666666</v>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2025-04-10 10:00:00</t>
+        </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -6286,8 +6422,10 @@
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
-      <c r="E114" s="2" t="n">
-        <v>45743.41666666666</v>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2025-03-27 10:00:00</t>
+        </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>

--- a/TenderScrap/TenderScrap/spiders/advert.xlsx
+++ b/TenderScrap/TenderScrap/spiders/advert.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -506,8 +510,12 @@
           <t>MAINTENANCE OF RAILWAY TRACK WITH ON-TRACK HIGH PRODUCTION BALLAST TAMPING MACHINES COUNTRYWIDE ON AN 'AS AND WHEN” REQUIRED' BASIS.</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="C2" s="2" t="n">
+        <v>45811.84238425926</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45828.5</v>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
@@ -556,11 +564,15 @@
           <t>FOR THE PROVISION OF SUPPLY AND DELIVERY OF ICT CONSUMABLES</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="C3" s="2" t="n">
+        <v>45811.78873842592</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>45817.5</v>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-06-06 11:00:00</t>
+          <t>6/6/2025 11:00:00 AM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -611,11 +623,15 @@
 </t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="C4" s="2" t="n">
+        <v>45811.6865625</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45838.66666666666</v>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-06-12 09:00:00</t>
+          <t>6/12/2025 9:00:00 AM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -665,11 +681,15 @@
           <t>RCB 06/2025/05	Land situated on Sub 21 (of 8) of Lot 5333, Umhlathuzi Lot 3/7,RBH 86-A-663</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="C5" s="2" t="n">
+        <v>45811.68482638889</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45838.66666666666</v>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-12 09:00:00</t>
+          <t>6/12/2025 9:00:00 AM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -720,11 +740,15 @@
 </t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="C6" s="2" t="n">
+        <v>45811.68445601852</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45838.66666666666</v>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-12 09:00:00</t>
+          <t>6/12/2025 9:00:00 AM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -774,11 +798,15 @@
           <t>RCB 06/2025/02 Land situated on Lot 3/4 Umhlathuzi sites, Bayview Precinct, RBH 86-A-689</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="C7" s="2" t="n">
+        <v>45811.6837037037</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45838.66666666666</v>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-12 09:00:00</t>
+          <t>6/12/2025 9:00:00 AM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -828,11 +856,15 @@
           <t xml:space="preserve">FOR THE PROVISION OF THE SUPPLY AND INSTALLATION OF SUMP PUMPS; FOR TRANSNET SOC LTD (REG. NO. 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS (HEREINAFTER REFERRED TO AS “TPT”) AT THE PORT OF DURBAN: MAYDON WHARF AND AGRIPORT TERMINALS </t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="C8" s="2" t="n">
+        <v>45811.67271990741</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45825.5</v>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-10 11:00:00</t>
+          <t>6/10/2025 11:00:00 AM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -882,8 +914,12 @@
           <t xml:space="preserve">SUPPLY OF PARTICIPANT GEAR FOR THE TPT NATIONAL AND GROUP SAFETY PROFICIENCY PROGRAMME </t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="C9" s="2" t="n">
+        <v>45811.67030092593</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>45814.5</v>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
@@ -932,8 +968,12 @@
           <t>FOR THE SUPPLY AND DELIVERY OF ENCODER; INCREMENTAL, 50 MM, AT THE CAPE TOWN CONTAINER TERMINAL AS ONCE OFF</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="C10" s="2" t="n">
+        <v>45811.6684375</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>45814.66666666666</v>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
@@ -982,8 +1022,12 @@
           <t>FOR THE SUPPLY AND DELIVERY OF STORE MAINTENANCE PARTS AT CAPE TOWN TERMINAL AS A ONCE-OFF PERIOD.</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="C11" s="2" t="n">
+        <v>45811.65332175926</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>45814.58333333334</v>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
@@ -1032,11 +1076,15 @@
           <t>RCB 06/2025/11 Land situated on Lot 2/7 and 2/8 Umhlatuzi sites, Bayview Precinct</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="C12" s="2" t="n">
+        <v>45811.65217592593</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>45838.66666666666</v>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-12 09:00:00</t>
+          <t>6/12/2025 9:00:00 AM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1088,11 +1136,15 @@
 </t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="C13" s="2" t="n">
+        <v>45811.65131944444</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>45838.66666666666</v>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-06-12 09:00:00</t>
+          <t>6/12/2025 9:00:00 AM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1142,11 +1194,15 @@
           <t>RCB 06/2025/07	Land Situated on Newark Road, Bayview precinct, RBH 87-A-6020</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+      <c r="C14" s="2" t="n">
+        <v>45811.64928240741</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>45838.66666666666</v>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-12 09:00:00</t>
+          <t>6/12/2025 9:00:00 AM</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1196,11 +1252,15 @@
           <t>RCB 06/2025/09	Land Situated in Sub 21 (of 8) of Lot 5333, Umhlathuzi lot 2/6, RBH 86-A-682</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="C15" s="2" t="n">
+        <v>45811.64877314815</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>45838.66666666666</v>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-12 09:00:00</t>
+          <t>6/12/2025 9:00:00 AM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1250,11 +1310,15 @@
           <t>RCB 06/2025/10	Water area Walk-on Moorings and slipway, New Ark Precinct, RBH-89-A-646</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+      <c r="C16" s="2" t="n">
+        <v>45811.64552083334</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>45838.66666666666</v>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-12 09:00:00</t>
+          <t>6/12/2025 9:00:00 AM</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1304,11 +1368,15 @@
           <t>FOR THE APPOINTMENT OF A SERVICE PROVIDER TO REMOVE WASTE AND PROVIDE WASTE MANAGEMENT SERVICES IN THE GERMISTON PLANT &amp; CENTRAL CORRIDOR FOR A PERIOD OF THREE (3) YEARS</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="C17" s="2" t="n">
+        <v>45811.645</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>45833.625</v>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-12 10:00:00</t>
+          <t>6/12/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1360,11 +1428,15 @@
 </t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="C18" s="2" t="n">
+        <v>45811.58258101852</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>45825.5</v>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-10 10:00:00</t>
+          <t>6/10/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1414,8 +1486,12 @@
           <t xml:space="preserve">FOR THE PROVISION OF MOBILE CRANE HIRE FOR QC03 ,QC04 AND QC05  AT PIER 1 CONTAINER TERMINAL FOR PERIOD OF ONE DAY </t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+      <c r="C19" s="2" t="n">
+        <v>45811.52672453703</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45814.5</v>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
@@ -1464,11 +1540,15 @@
           <t>FOR THE PROVISION OF BHEKULWANDLE LIBRARY WINDOWS AT PIER 1 CONTAINER TERMINAL</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="C20" s="2" t="n">
+        <v>45811.52664351852</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>45821.5</v>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-06-10 10:00:00</t>
+          <t>6/10/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1518,8 +1598,12 @@
           <t>SUPPLY OF VARIOUS ITEMS TO PIER ONE STORES .</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="C21" s="2" t="n">
+        <v>45811.52626157407</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45814.5</v>
+      </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
@@ -1568,8 +1652,12 @@
           <t>FOR THE ERADICATION OF ALIEN INVASIVE PLANTS AND PEST CONTROL</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+      <c r="C22" s="2" t="n">
+        <v>45811.52148148148</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>45817.5</v>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
@@ -1618,8 +1706,12 @@
           <t>FOR THE SUPPLY, DELIVERY AND RENTAL OF PERWAY AND WELDING TOOLS AT ERMELO FOR THE PERIOD OF SIX (6) MONTHS</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="C23" s="2" t="n">
+        <v>45811.44056712963</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>45826.41666666666</v>
+      </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
@@ -1668,8 +1760,12 @@
           <t>FOR THE SUPPLY OF BRAKE;EMERGENCY,240 KN,HOIST AND BOOM TO DURBAN CONTAINER TERMINAL PIER 2</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="C24" s="2" t="n">
+        <v>45810.64641203704</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>45813.5</v>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
@@ -1718,8 +1814,12 @@
           <t>FOR THE SUPPLY OF VARIOUS STOCK ITEMS TO DURBAN CONTAINER TERMINAL PIER 2</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+      <c r="C25" s="2" t="n">
+        <v>45810.64615740741</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>45813.5</v>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
@@ -1768,8 +1868,12 @@
           <t>FOR THE PROVISION OF STATUTORY INSPECTION AIR RECEIVER AND STATUTORY INSPECTION TIPPLER 2 FOR TRANSNET SOC LTD (REG. NO. 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS AT THE PORT OF RICHARDS BAY.</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+      <c r="C26" s="2" t="n">
+        <v>45810.61916666666</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>45813.5</v>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
@@ -1818,8 +1922,12 @@
           <t>SUPPLY OF VARIOUS ITEMS TO PIER ONE STORES.</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="C27" s="2" t="n">
+        <v>45810.58803240741</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>45813.5</v>
+      </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
@@ -1868,8 +1976,12 @@
           <t>SUPPLY OF VARIOUS ITEMS TO PIER ONE STORES.</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="C28" s="2" t="n">
+        <v>45810.58788194445</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>45813.5</v>
+      </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
@@ -1918,8 +2030,12 @@
           <t>SUPPLY OF VARIOUS ITEMS TO PIER ONE STORES.</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+      <c r="C29" s="2" t="n">
+        <v>45810.56768518518</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>45813.5</v>
+      </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
@@ -1968,8 +2084,12 @@
           <t>FOR THE PROVISION AND DELIVERY OF HIGH AND MEDIUM PRODUCTION BALLAST TAMPERS FOR COAL ANNUAL SHUTDOWN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
+      <c r="C30" s="2" t="n">
+        <v>45810.5594212963</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>45825.41666666666</v>
+      </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
@@ -2018,8 +2138,12 @@
           <t>SUPPLY OF VARIOUS ITEMS TO PIER ONE STORES.</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="C31" s="2" t="n">
+        <v>45810.55778935185</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>45813.5</v>
+      </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
@@ -2068,8 +2192,12 @@
           <t>HIRE 12 BAR MOBILE AIR COMPRESSOR</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+      <c r="C32" s="2" t="n">
+        <v>45810.54626157408</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>45812.5</v>
+      </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
@@ -2118,8 +2246,12 @@
           <t xml:space="preserve">FOR THE PROVISION OF REPAIR 55 KW AC TROLLEY MOTORS AT PIER 1 CONTAINER TERMINAL </t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+      <c r="C33" s="2" t="n">
+        <v>45810.54322916667</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>45814.5</v>
+      </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
@@ -2169,11 +2301,15 @@
 </t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
+      <c r="C34" s="2" t="n">
+        <v>45810.5203125</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>45819.5</v>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-06-06 10:00:00</t>
+          <t>6/6/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2223,11 +2359,15 @@
           <t>THE PROVISION TO RE-INSTATE OHTE INFRASTRUCTURE BETWEEN RUSTENBURG AND THABAZIMBI</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
+      <c r="C35" s="2" t="n">
+        <v>45810.44561342592</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>45825.41666666666</v>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-06-10 11:00:00</t>
+          <t>6/10/2025 11:00:00 AM</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2277,8 +2417,12 @@
           <t>FOR THE SUPPLY &amp; DELIVERY OF BATTERIES FOR TRANSNET SOC LTD (REG. NO 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS (HEREINAFTER REFERRED TO AS “TPT”) AT THE DURBAN CONTAINER TERMINAL (PIER 1 AND 2) ON AN AS AND WHEN BASIS FOR A PERIOD OF THREE (3) YEARS.</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
+      <c r="C36" s="2" t="n">
+        <v>45810.34425925926</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>45826.41666666666</v>
+      </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
@@ -2327,11 +2471,15 @@
           <t>FOR THE PROVISION OF CANTEEN AND CATERING SERVICES FOR TRANSNET SOC LTD (REG. NO. 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS (HEREINAFTER REFERRED TO AS “TPT”) AT THE NGQURA CONTAINER TERMINAL (NCT) AND PORT OF PORT ELIZABETH (PE)FOR A PERIOD OF THREE (3) YEARS.</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+      <c r="C37" s="2" t="n">
+        <v>45807.66918981481</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>45835.95833333334</v>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-06-18 10:00:00</t>
+          <t>6/18/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2381,8 +2529,12 @@
           <t>PROVISION OF HEAVY INDUSTRIAL PLANT CLEANING SERVICES FOR TRANSNET SOC LIMITED (REG. NO 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS (HEREINAFTER REFERRED TO AS “TPT”) AT THE BULK TERMINAL, PORT OF SALDANHA, FOR A PERIOD OF TWO (2) MONTHS.</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
+      <c r="C38" s="2" t="n">
+        <v>45807.65804398148</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>45812.54166666666</v>
+      </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
@@ -2431,11 +2583,15 @@
           <t>FOR THE  PROVISION OF A01, A02,A03 &amp; B GALLERY LIGHTING TO TRANSNET PORT TERMINAL IN RICHARDS BAY AS ONCE OFF.</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
+      <c r="C39" s="2" t="n">
+        <v>45807.63056712963</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>45819.5</v>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-06-04 11:00:00</t>
+          <t>6/4/2025 11:00:00 AM</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2485,11 +2641,15 @@
           <t>MANUFACTURE CABIN ACCESS PLATFORM</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
+      <c r="C40" s="2" t="n">
+        <v>45807.62273148148</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>45817.5</v>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-06-04 10:00:00</t>
+          <t>6/4/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2539,11 +2699,15 @@
           <t>FOR THE PROVISION OF TECHNICAL SERVICES ON A MIGRATION FROM SAP ECC6 TO SAP S/4HANA FOR TRANSNET CORPORATE CENTER (TCC) FOR A PERIOD OF TWELVE (12) MONTHS.</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
+      <c r="C41" s="2" t="n">
+        <v>45807.59373842592</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>45838.5</v>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-06-06 11:00:00</t>
+          <t>6/6/2025 11:00:00 AM</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2595,11 +2759,15 @@
 TRANSNET NATIONAL PORTS AUTHORITY IN THE PORT OF PORT ELIZABETH.</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
+      <c r="C42" s="2" t="n">
+        <v>45807.57770833333</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>45838.5</v>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-06-13 12:00:00</t>
+          <t>6/13/2025 12:00:00 PM</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2649,11 +2817,15 @@
           <t>PROVISION FOR THE REPAIRS AND MAINTENANCE OF WHARF FOREMAN FOR CIVIL MAINTENANCE DEPARTMENT AT THE PORT OF RICHARDS BAY FOR A PERIOD OF THREE (03) MONTHS</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
+      <c r="C43" s="2" t="n">
+        <v>45807.52611111111</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>45838.5</v>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-06-18 10:00:00</t>
+          <t>6/18/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2703,8 +2875,12 @@
           <t>Provision of service for Steelwork Repairs in the Port of East London</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
+      <c r="C44" s="2" t="n">
+        <v>45807.41094907407</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>45814.5</v>
+      </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
@@ -2753,8 +2929,12 @@
           <t>FOR THE TEST AND REPAIR OF INTERNAL TRACTION TRANSFORMER FAULT AT TURFGROND AT, INFRA KOEDOESPOORT</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
+      <c r="C45" s="2" t="n">
+        <v>45807.3596875</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>45819.41666666666</v>
+      </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
@@ -2803,8 +2983,12 @@
           <t>MAINTENANCE OF RAILWAY TRACK WITH ON-TRACK MEDIUM PRODUCTION UNIVERAL BALLAST TAMPING MACHINES AND A BALLAST STABILISER COUNTRYWIDE ON AN 'AS AND WHEN” REQUIRED' BASIS</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+      <c r="C46" s="2" t="n">
+        <v>45807.33966435185</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>45821.41666666666</v>
+      </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
@@ -2854,8 +3038,12 @@
 PROVIDE, SERV;RECERTIFY,XB SAMPLE TEST</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
+      <c r="C47" s="2" t="n">
+        <v>45806.6893287037</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>45820.75</v>
+      </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
@@ -2904,11 +3092,15 @@
           <t xml:space="preserve">REPAIR OF THE BOOM HYDRAULIC RAM 524 FOR TRANSNET SOC LTD (REG. NO. 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS AT THE DURBAN CONTAINER TERMINAL </t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
+      <c r="C48" s="2" t="n">
+        <v>45806.63712962963</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>45814.5</v>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-06-02 10:00:00</t>
+          <t>6/2/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2958,11 +3150,15 @@
           <t>REPLACEMENT AND INSTALLATION OF FENCE AT THE PORT OF NGQURA AND COEGA KOP QUARRY FOR A PERIOD OF TEN (10) MONTH</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+      <c r="C49" s="2" t="n">
+        <v>45806.62247685185</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>45838.625</v>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-06-11 10:00:00</t>
+          <t>6/11/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3012,11 +3208,15 @@
           <t>REQUEST FOR PROVISION OF SERVICE TO SUPPLY AND DELIVER RO PLANT HIGH PRESSURE FEED PUMP.</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
+      <c r="C50" s="2" t="n">
+        <v>45806.55134259259</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>45812.83333333334</v>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-06-02 11:00:00</t>
+          <t>6/2/2025 11:00:00 AM</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3068,11 +3268,15 @@
 TRACTION SUBSTATIONS UNDER THE CONTROL OF DEPOT ENGINEER.</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
+      <c r="C51" s="2" t="n">
+        <v>45806.51459490741</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>45821.41666666666</v>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-06-06 10:00:00</t>
+          <t>6/6/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3122,11 +3326,15 @@
           <t>HEALTH AND SAFETY AGENT/S ON THE PORT ELIZABETH (PE) FOR CIVIL BULK INFRASTRUCTURE UPGRADE (FOR A PERIOD OF THIRTY-SIX (36) MONTHS) AND/OR MARINE INFRASTRUCTURE UPGRADE (FOR A PERIOD OF TWENTY-FOUR (24) MONTHS) AND/OR NATIONAL FIRE SERVICES INFRASTRUCTURE EQUIPMENT UPGRADE PHASE 2A  (FOR A PERIOD OF FIFTEEN (15) MONTHS)</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
+      <c r="C52" s="2" t="n">
+        <v>45806.48064814815</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>45827.5</v>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-06-05 10:00:00</t>
+          <t>6/5/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3176,11 +3384,15 @@
           <t>THE APPOINTMENT OF A PROFESSIONAL SERVICE PROVIDER FOR THE BOEGOEBAAI PORT AND RAIL DEVELOPMENT MARKET RESEARCH STUDIES FOR A PERIOD OF SIX (6) MONTHS</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
+      <c r="C53" s="2" t="n">
+        <v>45806.45256944445</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>45835.66666666666</v>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-06-06 10:00:00</t>
+          <t>6/6/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3230,11 +3442,15 @@
           <t>FOR THE PROVISION OF REPAIRS TO WASH BAY ROOF &amp; HAULER WORKSHOP BUILDING</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
+      <c r="C54" s="2" t="n">
+        <v>45806.4412962963</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>45821.5</v>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-06-10 10:00:00</t>
+          <t>6/10/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3284,11 +3500,15 @@
           <t>FOR THE SUPPLY AND DELIVERY OF XV, XN AND XB WAGONS SAFETY RELIEF VALVES FOR TRANSNET ENGINEERING, FOR GERMISTON AND BLOEMFONTEIN ON AN “AS AND WHEN” REQUIRED BASIS FOR A PERIOD OF FIVE (5) YEARS</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
+      <c r="C55" s="2" t="n">
+        <v>45806.38208333333</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>45838.66666666666</v>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-06-11 11:00:00</t>
+          <t>6/11/2025 11:00:00 AM</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3338,11 +3558,15 @@
           <t>RFP REQUEST FOR THE PROVISION OF DRY DOCK MAINTENANCE OF THE LAUNCH KITE, PILOT BOAT AVOCET, WORK BOAT CRESTED TERN, TUG OSPREY, TUG CORMORANT, TUG JUTTEN/LOTHENI AND TUG CHARDONNAY FOR TRANSNET NATIONAL PORTS AUTHORITY (TNPA), PORT OF SALDANHA, ON AN AS AND WHEN REQUIRED BASIS FOR A PERIOD OF THIRTY-SIX (36) MONTHS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
+      <c r="C56" s="2" t="n">
+        <v>45806.37510416667</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>45832.58333333334</v>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-06-10 11:00:00</t>
+          <t>6/10/2025 11:00:00 AM</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3392,11 +3616,15 @@
           <t>For an appointment of a publishing house to wholly develop, publish, print and distribute one Magazine for a period of (3) Three years</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
+      <c r="C57" s="2" t="n">
+        <v>45805.73349537037</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>45826.5</v>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-06-05 11:00:00</t>
+          <t>6/5/2025 11:00:00 AM</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3446,11 +3674,15 @@
           <t>For the Provision of Roof Repairs and General Building Maintenance Services at the ex-Transtel building at TNPA in the Port of Richards Bay for a period of four (4) months.</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
+      <c r="C58" s="2" t="n">
+        <v>45805.58128472222</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>45820.5</v>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-06-05 10:00:00</t>
+          <t>6/5/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3500,8 +3732,12 @@
           <t>LAB CONSUMABLES</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
+      <c r="C59" s="2" t="n">
+        <v>45805.36445601852</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>45818.625</v>
+      </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
@@ -3550,8 +3786,12 @@
           <t>LAB MACHINE MAINTENANCE SERVICES</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
+      <c r="C60" s="2" t="n">
+        <v>45805.36417824074</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>45814.625</v>
+      </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
@@ -3600,11 +3840,15 @@
           <t>PROVISION OF OFFICE, BUILDING, WORKSHOP CLEANING AND TEA SERVICES FOR TRANSNET SOC LTD (REG. NO. 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS (HEREINAFTER REFERRED TO AS “TPT”) AT THE PORT OF DURBAN: MPT POINT, CAR TERMINAL, MAYDON WHARF AND AGRIBULK FOR A PERIOD OF THREE (3) YEARS.</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
+      <c r="C61" s="2" t="n">
+        <v>45804.70929398148</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>45819.41666666666</v>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-06-03 10:00:00</t>
+          <t>6/3/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3655,8 +3899,12 @@
 EQUIPMENTS AND WELDER CERTIFICATION AT TRANSNET ENGINEERING, GERMISTON.</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
+      <c r="C62" s="2" t="n">
+        <v>45804.65201388889</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>45812.625</v>
+      </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
@@ -3705,8 +3953,12 @@
           <t>FOR THE PROVISION OF REPAIR, TESTING AND COMMISSIONING OF TWO RAIL-ROAD SHUNTING LOCOMOTIVES SALDANHA AT TRANSNET ENGINEERING FOR A ONCE-OFF PERIOD</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
+      <c r="C63" s="2" t="n">
+        <v>45804.58878472223</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>45833.45833333334</v>
+      </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
@@ -3757,8 +4009,12 @@
 CONVEYOR</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
+      <c r="C64" s="2" t="n">
+        <v>45804.47309027778</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>45818.66666666666</v>
+      </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
@@ -3807,8 +4063,12 @@
           <t>EXPRESSION OF INTEREST (EOI) REQUIRED IN RELATION TO TRIDEM AXLE BOGIE WITH OVERSLUNG SUSPENSION (TRAILER) FOR USE AT PORT TERMINAL, MARITIME BUSINESS, TRANSNET ENGINEERING, RICHARDS BAY.</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
+      <c r="C65" s="2" t="n">
+        <v>45804.37309027778</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>45819.58333333334</v>
+      </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
@@ -3858,11 +4118,15 @@
 INFRASTRUCTURE MANAGER’S SECURITY DEPARTMENT.</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
+      <c r="C66" s="2" t="n">
+        <v>45804.32800925926</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>45832.54166666666</v>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-06-03 11:00:00</t>
+          <t>6/3/2025 11:00:00 AM</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3912,11 +4176,15 @@
           <t xml:space="preserve"> PROVISION TO REFURBISHMENT OF SUBSTATION 1A AND 1B AT NGQURA CONTAINER TERMINAL FOR TRANSNET SOC LTD (REG NO:1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS (HEREINAFTER REFERRED AS “TPT”) FOR NGQURA CONTAINER TERMINAL AS A ONCE OFF </t>
         </is>
       </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
+      <c r="C67" s="2" t="n">
+        <v>45803.6796875</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>45835.58333333334</v>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-06-10 11:00:00</t>
+          <t>6/10/2025 11:00:00 AM</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3968,8 +4236,12 @@
 MUNCHER</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
+      <c r="C68" s="2" t="n">
+        <v>45803.63376157408</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>45817.66666666666</v>
+      </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
@@ -4018,11 +4290,15 @@
           <t>SUPPLY, INSTALLATION, COMMISSIONING AND TESTING OF NEW SMALL BASIC MINI-CNC LATHE MACHINE FOR PD BUSINESS AT KOEDOESPOORT FOR ONCE OFF PERIOD, AT TRANSNET ENGINEERING</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
+      <c r="C69" s="2" t="n">
+        <v>45803.56710648148</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>45813.58333333334</v>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-30 10:00:00</t>
+          <t>5/30/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4076,11 +4352,15 @@
 </t>
         </is>
       </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
+      <c r="C70" s="2" t="n">
+        <v>45803.54571759259</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>45813.5</v>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-29 10:00:00</t>
+          <t>5/29/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4130,8 +4410,12 @@
           <t>FOR THE SUPPLY, DELIVERY AND INSTALLATION OF STEEL PALISADE WITH ELECTRIC FENCE AT OGIES/ERMELO</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
+      <c r="C71" s="2" t="n">
+        <v>45803.47934027778</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>45817.41666666666</v>
+      </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
@@ -4180,11 +4464,15 @@
           <t>PROVISION OF HYGIENE AND PEST CONTROL SERVICES AT SCHEEPERSNECK FOR 24 MONTHS PERIOD</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
+      <c r="C72" s="2" t="n">
+        <v>45803.36966435185</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>45813.45833333334</v>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-30 11:00:00</t>
+          <t>5/30/2025 11:00:00 AM</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4234,8 +4522,12 @@
           <t xml:space="preserve">FOR THE MAINTENANCE OF RAILWAY TRACK WITH AN ON-TRACK HIGH PRODUCTION SCREENING MACHINE ON ALL LINES OWNED AND MAINTAINED BY TRANSNET </t>
         </is>
       </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
+      <c r="C73" s="2" t="n">
+        <v>45803.32575231481</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>45817.5</v>
+      </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
@@ -4284,8 +4576,12 @@
           <t>PROVISION OF COMPREHENSIVE SCAFFOLDING SERVICES ON AN AS AND WHEN REQUIRED BASIS FOR A PERIOD OF 2 MONTHS FOR TRANSNET PORT TERMINALS RICHARDS BAY</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
+      <c r="C74" s="2" t="n">
+        <v>45800.67446759259</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>45814.58333333334</v>
+      </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
@@ -4335,8 +4631,12 @@
 RECON, COMP;DRAWGEAR KEYSTONE</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
+      <c r="C75" s="2" t="n">
+        <v>45800.63063657407</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>45818.75</v>
+      </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
@@ -4385,11 +4685,15 @@
           <t>FOR THE PROVISION OF MAINTENANCE FOR RAIL DISPATCH BUILDING TARLTON DEPOT ON A ONCE OFF BASIS</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
+      <c r="C76" s="2" t="n">
+        <v>45800.53383101852</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>45817.66666666666</v>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-06-02 11:00:00</t>
+          <t>6/2/2025 11:00:00 AM</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4440,8 +4744,12 @@
 </t>
         </is>
       </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
+      <c r="C77" s="2" t="n">
+        <v>45800.5280324074</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>45817.5</v>
+      </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
@@ -4490,11 +4798,15 @@
           <t xml:space="preserve">PROVISION OF S04 TAIL STRUCTURAL REPAIRS </t>
         </is>
       </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
+      <c r="C78" s="2" t="n">
+        <v>45800.51077546296</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>45814.33333333334</v>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-30 10:00:00</t>
+          <t>5/30/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4544,8 +4856,12 @@
           <t>FOR THE SUPPLY AND DELIVERY OF SOAPS AND DETERGENTS TRANSNET SOC LTD REG. NO. 1990/000900) OPERATING AS TRANSNET PORT TERMINALS (HEREINAFTER REFERRED TO AS “TPT”) FOR THE DURBAN CONTAINER TERMINALS PIER 1 AND PIER 2. FOR A PERIOD OF THIRTY-SIX MONTHS (36) MONTHS.</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
+      <c r="C79" s="2" t="n">
+        <v>45800.50451388889</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>45817.5</v>
+      </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
@@ -4594,8 +4910,12 @@
           <t>THE PROVISION OF AN ACCREDITED YOUNG LEADERS PROGRAMME WITHIN TRANSNET, FOR A PERIOD OF THREE (3) YEARS.</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
+      <c r="C80" s="2" t="n">
+        <v>45800.47005787037</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>45835.66666666666</v>
+      </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
@@ -4644,11 +4964,15 @@
           <t>REPAIR DAMAGED LEAKING ROOFS WITHIN THE RM BUSINESS WORKSHOP 150 EEL ROAD UMBILO</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
+      <c r="C81" s="2" t="n">
+        <v>45800.44152777778</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>45817.54166666666</v>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-06-03 11:00:00</t>
+          <t>6/3/2025 11:00:00 AM</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4698,11 +5022,15 @@
           <t>FOR THE PROVISION OF WASTE REMOVAL SERVICES IN NORTHERN KZN (EMPANGENI, RICHARDS BAY AND VRYHEID AND SURROUNDING AREAS) FOR TRANSNET PROPERTY FOR A PERIOD OF THIRTY SIX (36) MONTHS</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
+      <c r="C82" s="2" t="n">
+        <v>45799.79829861111</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>45825.5</v>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-29 09:30:00</t>
+          <t>5/29/2025 9:30:00 AM</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4752,11 +5080,15 @@
           <t xml:space="preserve">PROVISION OF PEST CONTROL SERVICES AT VRYHEID, EMPANGENI , RICHARDS BAY AND SURROUNDING AREAS FOR TRANSNET PROPERTY FOR A PERIOD OF 36 MONTHS. </t>
         </is>
       </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
+      <c r="C83" s="2" t="n">
+        <v>45799.79804398148</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>45821.58333333334</v>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-29 11:00:00</t>
+          <t>5/29/2025 11:00:00 AM</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4806,11 +5138,15 @@
           <t>FOR THE APPOINTMENT OF A SERVICE PROVIDER TO CONDUCT INTERNAL SHOTBLAST FOR RAIL TANKS AT TRANSNET ENGINEERING, GERMISTON DEPOT ON AN AS AND WHEN BASIS FOR A PERIOD OF THREE (3) YEARS.</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
+      <c r="C84" s="2" t="n">
+        <v>45799.65636574074</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>45813.66666666666</v>
+      </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-29 11:00:00</t>
+          <t>5/29/2025 11:00:00 AM</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4860,11 +5196,15 @@
           <t>SUPPLY, INSTALLATION AND MOULDING HDPE PIPES FOR INTERMEDIATE PUMPS FOR TRANSNET PORT TERMINAL - RICHARDS BAY - AS A ONCE OFF SERVICE</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
+      <c r="C85" s="2" t="n">
+        <v>45799.50821759259</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>45814.58333333334</v>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-30 11:00:00</t>
+          <t>5/30/2025 11:00:00 AM</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4914,11 +5254,15 @@
           <t>THE PROVISION OF INSPECTION AND CALIBRATION SERVICES FOR PRESSURE RELIEF DEVICES AT VARIOUS TRANSNET PIPELINES SITES FOR A PERIOD OF FOUR (4) YEARS.</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
+      <c r="C86" s="2" t="n">
+        <v>45798.73452546296</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>45814.5</v>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-30 10:00:00</t>
+          <t>5/30/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4968,8 +5312,12 @@
           <t>FOR THE APPOINTMENT OF FINANCIAL INSTITUTION(S) TO ACT AS LEAD ARRANGER(S) AND TRANSACTION ADVISOR(S) FOR SPECIFIC ISSUANCES UNDER TRANSNET’S R80 BILLION DOMESTIC MEDIUM-TERM NOTE (“DMTN”) PROGRAMME FOR A PERIOD OF THREE (3) YEARS.</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
+      <c r="C87" s="2" t="n">
+        <v>45798.68741898148</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>45821.66666666666</v>
+      </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
@@ -5018,8 +5366,12 @@
           <t>Provision of service for the maintenance, repair and installation (if necessary) of air conditioning units in Kimberley South relay rooms (Spuitfontein to De Aar) as and when required for a period of two (2) years.</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
+      <c r="C88" s="2" t="n">
+        <v>45798.6144212963</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>45825.41666666666</v>
+      </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
@@ -5069,8 +5421,12 @@
 </t>
         </is>
       </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
+      <c r="C89" s="2" t="n">
+        <v>45797.47945601852</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>45821.5</v>
+      </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
@@ -5119,11 +5475,15 @@
           <t xml:space="preserve"> CIDB - FOR THE PROVISION TO REPAIR THE CONCRETE STRUCTURE FOR GP4 SHED FOR TRANSNET SOC LTD</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
+      <c r="C90" s="2" t="n">
+        <v>45796.62003472223</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>45814.54166666666</v>
+      </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2025-05-26 10:00:00</t>
+          <t>5/26/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5175,11 +5535,15 @@
 </t>
         </is>
       </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
+      <c r="C91" s="2" t="n">
+        <v>45794.54615740741</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>45812.58333333334</v>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2025-05-19 11:00:00</t>
+          <t>5/19/2025 11:00:00 AM</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5229,11 +5593,15 @@
           <t>FOR THE SUPPLY, DELIVERY, INSTALLATION, TESTING AND COMMISSIONING OF 9 OFF ROTARY SCREW TYPE COMPRESSORS AND AIR DRYERS FOR TRANSNET ENGINEERING AT VARIOUS CORRIDOR DEPOTS (NORTH CAPE AND CONTAINER CORRIDORS)</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
+      <c r="C92" s="2" t="n">
+        <v>45793.60487268519</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>45818.5</v>
+      </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2025-05-26 09:30:00</t>
+          <t>5/26/2025 9:30:00 AM</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5283,11 +5651,15 @@
           <t>FOR THE PROVISION OF NETWORK DETECTION AND RESPONSE (NDR) SOLUTION FOR A PERIOD OF THREE (3) YEARS.</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
+      <c r="C93" s="2" t="n">
+        <v>45793.48670138889</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>45827.5</v>
+      </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2025-05-23 11:00:00</t>
+          <t>5/23/2025 11:00:00 AM</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5338,11 +5710,15 @@
 </t>
         </is>
       </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
+      <c r="C94" s="2" t="n">
+        <v>45792.64659722222</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>45838.75</v>
+      </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2025-05-27 10:00:00</t>
+          <t>5/27/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5392,11 +5768,15 @@
           <t>SUPPLY AND DELIVERY OF VARIOUS AMOUR ROCK FOR THE CONSTRUCTION WORK IN THE UPGRADE OF THE BREAKWATERS (NEW DOLOSSE) AT THE PORT OF RICHARDS BAY</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
+      <c r="C95" s="2" t="n">
+        <v>45792.61826388889</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>45817.66666666666</v>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2025-05-26 10:00:00</t>
+          <t>5/26/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5446,11 +5826,15 @@
           <t>THE ESTABLISHMENT OF AN  APPROVED LIST OF SERVICE PROVIDERS FOR PROVISION OF LEGAL SERVICES FOR A PERIOD OF FIVE (5) YEARS</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
+      <c r="C96" s="2" t="n">
+        <v>45791.66534722222</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>45825.5</v>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2024-05-23 11:00:00</t>
+          <t>5/23/2024 11:00:00 AM</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5501,11 +5885,15 @@
 </t>
         </is>
       </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
+      <c r="C97" s="2" t="n">
+        <v>45791.47337962963</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>45821.75</v>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2025-05-19 13:00:00</t>
+          <t>5/19/2025 1:00:00 PM</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5559,11 +5947,15 @@
 </t>
         </is>
       </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
+      <c r="C98" s="2" t="n">
+        <v>45790.86484953704</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>45814.41666666666</v>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2025-05-22 10:00:00</t>
+          <t>5/22/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5613,11 +6005,15 @@
           <t>FOR THE DESIGN, MANUFACTURE, OFF SITE TESTING, SUPPLY, DELIVERY, INSTALLATION, TESTING AND COMMISSIONING OF ONE (1) NEW 1000KVA MINI SUBSTATION AND ONE (1) 1000KVA MOBILE GENERATOR FOR THE ENGINEERING EQUIPMENT SERVICES (EES) BUILDING, FOR TRANSNET SOC LTD OPERATING AS TRANSNET PORT TERMINALS, (HEREINAFTER REFERRED TO AS “TPT”), AT DURBAN CONTAINER TERMINAL PIER 1, FOR THE DURATION OF 12 MONTHS</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
+      <c r="C99" s="2" t="n">
+        <v>45790.62701388889</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>45817</v>
+      </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2025-05-21 00:00:00</t>
+          <t>5/21/2025 12:00:00 AM</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5667,11 +6063,15 @@
           <t>MECHANICAL UPGRADE AT SASOLBURG DIESEL STORAGE DEPOT, FREE STATE.</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
+      <c r="C100" s="2" t="n">
+        <v>45789.69364583334</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>45821.41666666666</v>
+      </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2025-05-22 10:12:00</t>
+          <t>5/22/2025 10:12:00 AM</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5721,11 +6121,15 @@
           <t xml:space="preserve">THE DESIGN, SUPPLY, DELIVERY, INSTALLATION, TESTING AND COMMISSIONING OF A COMPLETE NEW SHOT BLAST BOOTH INCLUDING THE STRUCTURE FOR THE LOCOMOTIVE BUSINESS DURBAN FOR A PERIOD OF FOUR (04) MONTHS. </t>
         </is>
       </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
+      <c r="C101" s="2" t="n">
+        <v>45786.61042824074</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>45814.75</v>
+      </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2025-05-19 11:00:00</t>
+          <t>5/19/2025 11:00:00 AM</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5775,8 +6179,12 @@
           <t>FOR A SERVICE PROVIDER TO PROVIDE THE SERVICES OF AN APPROVED INSPECTION AUTHORITY (AIA) TO CONDUCT SAMPLE TESTING ON THE XB WAGONS FLEET IN LINE WITH SPECIFICATION EW_KLP_SPEC_2003 IN BLOEMFONTEIN ON AN “AS AND WHEN” REQUIRED BASIS FOR A PERIOD OF FOUR (4) YEARS.</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
+      <c r="C102" s="2" t="n">
+        <v>45785.36899305556</v>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>45814.66666666666</v>
+      </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr">
         <is>
@@ -5825,11 +6233,15 @@
           <t>FOR AN APPOINTMENT OF A SERVICE PROVIDER TO OPERATE  AND  TAKE OVER OWNERSHIP SCHOOL OF EXCELLENCE</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
+      <c r="C103" s="2" t="n">
+        <v>45784.35107638889</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>45821.625</v>
+      </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2025-05-21 11:00:00</t>
+          <t>5/21/2025 11:00:00 AM</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5879,11 +6291,15 @@
           <t>FOR THE APPOINTMENT OF A REGISTERED PROFESSIONAL TO PERFORM AN EPC ASSESSMENT, MEASUREMENT OF THE BUILDING NET FLOOR AREA AND ENERGY DATA ON 13 FACILITIES TO TRANSNET SOC LTD (REG. NO. 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS (HEREINAFTER REFERRED TO AS “TPT”) AT THE VARIOUS TRANSNET PORT TERMINALS ON A ONCE OFF BASIS.</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
+      <c r="C104" s="2" t="n">
+        <v>45783.49142361111</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>45821.5</v>
+      </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2025-05-16 11:00:00</t>
+          <t>5/16/2025 11:00:00 AM</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5933,11 +6349,15 @@
           <t>DESIGN, SUPPLY, DELIVER AND CONSTRUCT THE PERIMETER FENCE WITH INTRUSION DETECTION AT UITENHAGE (SWARTKOPS), FOR A PERIOD OF 06 MONTHS</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
+      <c r="C105" s="2" t="n">
+        <v>45782.56052083334</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>45817.75</v>
+      </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2025-05-13 10:00:00</t>
+          <t>5/13/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5987,11 +6407,15 @@
           <t>FOR THE LEASE AND/OR DEVELOPMENT OF THE REMAINDER OF ERF 34104 BELLVILLE (UNREGISTERED SUBDIVISION OF REMAINDER OF ERF 11661 BELLVILLE), ERF 34103 BELLVILLE (UNREGISTERED SUBDIVISION OF REMAINDER OF ERF 11659 BELLVILLE), ERF 22933 PAROW.</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
+      <c r="C106" s="2" t="n">
+        <v>45780.34752314815</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>45838.95833333334</v>
+      </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2025-05-19 11:00:00</t>
+          <t>5/19/2025 11:00:00 AM</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -6041,11 +6465,15 @@
           <t>DECOMMISSIONING OF OBSOLETE NETWORK VIDEO RECORDERS (NVRs), SUPPLY, INSTALLATION, CONFIGURATION, INTEGRATION, TRAINING, MAINTENANCE, AND COMMISSIONING OF A NEW NVR AND SOFTWARE FOR THE CCTV SURVEILLANCE SYSTEM AT KILNERPARK CORPORATE OFFICE FOR A PERIOD OF 12 MONTHS</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
+      <c r="C107" s="2" t="n">
+        <v>45777.94576388889</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>45818.41666666666</v>
+      </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2025-05-14 11:00:00</t>
+          <t>5/14/2025 11:00:00 AM</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -6095,11 +6523,15 @@
           <t>FOR THE SUPPLY, INSTALLATION, AND COMMISSIONING OF SHOP 5 WORKSHOP EQUIPMENT/MACHINERY AT THE DRY BULK TERMINAL PORT OF RICHARDS BAY WORKS FOR TRANSNET SOC LTD OPERATING AS TRANSNET PORT TERMINALS</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
+      <c r="C108" s="2" t="n">
+        <v>45764.48126157407</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>45812.5</v>
+      </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2025-05-06 11:00:00</t>
+          <t>5/6/2025 11:00:00 AM</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -6149,11 +6581,15 @@
           <t>DESIGN, SUPPLY, INSTALLATION (EPC CONTRACTOR) AND PROVIDE PLANNED MAINTENANCE FOR A LIMITED PERIOD FOR THE VAPOUR RECOVERY UNIT SYSTEM AT THE TPL TARLTON PETROLEUM PRODUCTS HANDLING AND BULK STORAGE FACILITY</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
+      <c r="C109" s="2" t="n">
+        <v>45763.49534722222</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>45814.625</v>
+      </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2025-04-25 11:00:00</t>
+          <t>4/25/2025 11:00:00 AM</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -6203,11 +6639,15 @@
           <t>REQUEST FOR PROPOSALS FOR THE APPOINTMENT OF A TERMINAL OPERATOR TO FINANCE, DESIGN, CONSTRUCT, OPERATE, MAINTAIN, AND TRANSFER A MULTI-PURPOSE TERMINAL HANDLING FRESH PRODUCE AND COMPATIBLE BREAK BULK CARGO FOR A TWENTY-FIVE (25) YEAR CONCESSION PERIOD AT MAYDON WHARF PRECINCT IN THE PORT OF DURBAN.</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
+      <c r="C110" s="2" t="n">
+        <v>45758.65010416666</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>45898.66666666666</v>
+      </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2025-05-07 10:00:00</t>
+          <t>5/7/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6257,11 +6697,15 @@
           <t>Request for Qualification (RFQ) for the Establishment of the Rolling Stock Leasing Company (LeaseCo) for Transnet SOC Ltd operating as Transnet Corporate Centre</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
+      <c r="C111" s="2" t="n">
+        <v>45755.66251157408</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>45842.66666666666</v>
+      </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2025-05-06 11:00:00</t>
+          <t>5/6/2025 11:00:00 AM</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6311,11 +6755,15 @@
           <t>APPOINTMENT OF A TERMINAL OPERATOR TO ACQUIRE, OPERATE, MAINTAIN, REFURBISH, AND/OR CONSTRUCT AND TRANSFER A LIQUID BULK TERMINAL FOR A TWENTY-FIVE (25) YEAR CONCESSION PERIOD AT THE PORT OF CAPE TOWN LIQUID BULK PRECINCT</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
+      <c r="C112" s="2" t="n">
+        <v>45750.64232638889</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>45881.66666666666</v>
+      </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2025-04-17 10:00:00</t>
+          <t>4/17/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6366,11 +6814,15 @@
 CONVEYOR SOLUTION FOR TRANSNET SOC (REG. N0 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS RICHARDS BAY (HEREINAFTER REFERRED TO AS “TPT RCB”)</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
+      <c r="C113" s="2" t="n">
+        <v>45743.61306712963</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>45838.41666666666</v>
+      </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2025-04-10 10:00:00</t>
+          <t>4/10/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6420,11 +6872,15 @@
           <t>REQUEST FOR PROPOSAL FOR THE APPOINTMENT OF A TERMINAL OPERATOR TO FINANCE, DESIGN, CONSTRUCT, OPERATE, MAINTAIN, AND TRANSFER A MULTI-PURPOSE TERMINAL HANDLING AGRICULTURAL DRY BULK AND OTHER COMPATIBLE CARGO FOR A TWENTY-FIVE (25) YEAR CONCESSION PERIOD AT MAYDON WHARF PRECINCT AT THE PORT OF DURBAN.</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
+      <c r="C114" s="2" t="n">
+        <v>45723.59657407407</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>45849.66666666666</v>
+      </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2025-03-27 10:00:00</t>
+          <t>3/27/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">

--- a/TenderScrap/TenderScrap/spiders/advert.xlsx
+++ b/TenderScrap/TenderScrap/spiders/advert.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L117"/>
+  <dimension ref="A1:L112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,39 +502,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TNPA/2025/06/0003/98284/RFQ</t>
+          <t>TE/2025/07/0042/100875/RFP</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PROVISION FOR DIVING SERVICES FOR THE PORT OF CAPE TOWN CRAFTS ON AS AN WHEN REQUIRED FOR 12 MONTHS</t>
+          <t>SUPPLY AND DELIVERY OF STRIPS INLAYS FOR THE BLUE TRAIN AT COACHES BUSINESS KOEDOESPOORT ON A ONCE-OFF PERIOD</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45818.37552083333</v>
+        <v>45848.68210648148</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45827.66666666666</v>
+        <v>45863.66666666666</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Port of Cape Town</t>
+          <t>Coaches Koedoespoort</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/98284</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100875</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Goods &amp; Services</t>
+          <t>Goods</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>RFQ</t>
+          <t>RFP</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -544,46 +544,50 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Khulekani Sikhosana   Transnet NPA   Cape Town</t>
+          <t>Ellen Tshabalala   Transnet Engineering   KDS</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Khulekani.Sikhosana@transnet.net</t>
+          <t>Ellen.Tshabalala@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TPT/2025/06/0014/98153/RFQ</t>
+          <t>TPT/2025/07/0011/100588/RFQ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">FOR THE PROVISION OF HIRING OF A SELF-PROPELLED SWEEPER FOR TRANSNET SOC LTD (REG. NO. 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS (HEREINAFTER REFERRED TO AS “TPT”), AT THE MAYDON WHARF AND AGRIPORT TERMINALS FOR THE PERIOD OF THREE MONTHS </t>
+          <t>FOR THE PROVISION OF INSTALLATION OF PUMPS, GRATING COVERS, AND STRUCTURAL SUPPORTS ALONG M/L GALLERY TRENCH FOR TRANSNET SOC LTD TERMINALS RICHARDS BAY (TPT RCB) AS A ONCE OFF SERVICE</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45817.9465625</v>
+        <v>45848.66775462963</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45827.5</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>45863.58333333334</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>7/18/2025 11:00:00 AM</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DURBAN </t>
+          <t>RICHARDS BAY</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/98153</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100588</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Goods &amp; Services</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -598,55 +602,51 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Khetha Mngadi        Transnet Port Terminals   DBN</t>
+          <t>Thandiswa Ndawonde   Transnet Port Terminals  RCB</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Khetha.Mngadi@transnet.net</t>
+          <t>Thandiswa.Ndawonde@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TFR/2025/06/0025/98266/RFP</t>
+          <t>TNPA/2025/07/0007/100463/RFQ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FOR THE DESIGN, MANUFACTURE, TEST, DELIVER, INSTALL, AND COMMISSION CONTROL BUILDING AND PRIMARY PROTECTION PANELS AT 3 TRACTION SUBSTATIONS UNDER RICHARDS BAY DEPOT</t>
+          <t>Request for Provision of long-term maintenance service for a forklift truck for five (5) years in the Port of Mossel Bay</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45817.71900462963</v>
+        <v>45848.6534375</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45832.41666666666</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>6/17/2025 10:00:00 AM</t>
-        </is>
-      </c>
+        <v>45856.66666666666</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">RICHARDS BAY </t>
+          <t>Mossel bay</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/98266</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100463</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Goods &amp; Services</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>RFP</t>
+          <t>RFQ</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -656,41 +656,47 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Dudu Mkhwebane   Transnet Freight Rail   Pretoria</t>
+          <t>Jody Ann Johnson     TNPA  MSB</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Dudu.Mkhwebane@transnet.net</t>
+          <t>JodyAnn.Johnson@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TPT/2025/06/0029/98228/RFQ</t>
+          <t>TPT/2025/07/0012/100827/RFQ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FOR THE PROVISION OF SERVICE AND REPAIRS ON KENDAL AT TRANSNET PORT TERMINALS.</t>
+          <t>PROVISION OF REPAIRS TO GOOSE NECK TRAILER AS PER SCOPE OF WORK (REG. NO
+1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS (HEREINAFTER REFERRED TO
+AS “TPT”) AT TRANSNET PORT TERMINALS PIER 2 CVR WORKSHOP FOR A ONCE OFF PERIOD</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>45817.66153935185</v>
+        <v>45848.54282407407</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45820.5</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
+        <v>45856.41666666666</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>7/15/2025 11:00:00 AM</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kendal, Mpumalanga</t>
+          <t>CVR Workshop Pier 2</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/98228</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100827</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -710,51 +716,56 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Kuhlekonke Zwane   Transnet Port Terminals   Richardsbay</t>
+          <t>Bonginkosi Mbatha   Transnet Port Terminals   DBN</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Kuhlekonke.Zwane@transnet.net</t>
+          <t>Bonginkosi.Mbatha2@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TE/2025/05/0033/96697/RFQ</t>
+          <t>TPT/2025/07/0012/100826/RFP</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FOR OUTSOURCING THE MACHINING OF SIDE BEAM ASSEMBLIES FOR 10 SETS OF TRAXX BOGIE FRAMES AS AND WHEN REQUIRED</t>
+          <t>PROVISION OF SEWERAGE WASTE REMOVAL AND DISPOSAL SERVICES FOR TRANSNET SOC LTD (REG. NO 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS (HEREINAFTER REFERRED TO AS “TPT”) DURBAN TERMINALS: DURBAN MULTIPURPOSE POINT, CAR, MAYDON WHARF AND AGRIBULK FOR A PERIOD OF 36
+MONTHS</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>45817.64662037037</v>
+        <v>45848.53149305555</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45833.45833333334</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
+        <v>45866.5</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7/16/2025 10:00:00 AM</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Durban</t>
+          <t>DURBAN</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96697</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100826</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Goods &amp; Services</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>RFQ</t>
+          <t>RFP</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -764,41 +775,45 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Nokuthula Kekana          Transnet Engineering   Dbn</t>
+          <t>Zine Mdaki     Transnet Port Terminals   DBN</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Nokuthula.Kekana@transnet.net</t>
+          <t>Zine.Mdaki@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TPT/2025/06/0020/98083/RFQ</t>
+          <t>TPT/2025/07/0010/100817/RFP</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PROVISION OF TRANSPORTATION AND CARGO HANDLING SERVICES OF MANGANESE ORE (TRAIN OFF-LOADING), FOR TRANSNET PORT TERMINALS (HEREINAFTER REFERRED TO AS “TPT”) AN OPERATING DIVISION OF TRANSNET SOC LTD, AT THE MULTI-PURPOSE TERMINAL, PORT OF SALDANHA ON AN “AS AND WHEN” REQUIRED BASIS FOR A PERIOD OF TWO (2) WEEKS.</t>
+          <t>FOR THE PROVISION OF BUILDING AIR CONDITION MAINTENANCE SERVICES FOR TRANSNET SOC LTD OPERATING AS TRANSNET PORT TERMINALS AT THE PORT OF DURBAN BBC FOR A PERIOD OF THIRTY-SIX (36) MONTHS, MPT, CAR, MAYDON WHARF &amp; AGRI</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>45817.62099537037</v>
+        <v>45848.53142361111</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45819.625</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+        <v>45863.5</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>7/15/2025 9:00:00 AM</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>PORT OF SALNDANHA</t>
+          <t>MPT, CAR, MAYDON WHARF &amp; AGRI</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/98083</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100817</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -808,7 +823,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>RFQ</t>
+          <t>RFP</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -818,51 +833,46 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Aphiwe Ngcobo   Transnet Port Terminals      DBN</t>
+          <t>Phumza Lehlohla   Transnet Port Terrminals   DBN</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Aphiwe.Ngcobo@transnet.net</t>
+          <t>Phumza.Lehlohla@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TNPA/2025/06/0015/98214/RFQ</t>
+          <t>TPT/2025/07/0002/100787/RFQ</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HIRING OF A SUITABLE HELICOPTER FOR TRANSPORT OF STAFF AND EQUIPMENT FOR A ONCE-OFF PERIOD. 
-COMPULSORY SITE BRIEFING ON FRIDAY 13TH JUNE 2025 @10H00 AT TNPA, LIGHTHOUSE AND NAVIGATIONAL SYSTEMS (LNS), PORT ELIZABETH WORKSHOP – PORT ELIZABETH.</t>
+          <t>FOR THE SUPPLY OF 5 TON FORKLIFT REPAIRS FOR TRANSNET SOC LTD (REG. NO. 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS AT THE PORT OF RICHARDS BAY.</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>45817.61069444445</v>
+        <v>45848.45775462963</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45828.70833333334</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>6/13/2025 10:00:00 AM</t>
-        </is>
-      </c>
+        <v>45853.5</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>TNPA, LIGHTHOUSE AND NAVIGATIONAL SYSTEMS (LNS), PORT ELIZABETH WORKSHOP – PORT ELIZABETH.</t>
+          <t>TPT RCB</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/98214</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100787</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Goods &amp; Services</t>
+          <t>Goods</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -877,51 +887,55 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Vuyiswa Asoba    Transnet   National   Ports  Authority   CPT</t>
+          <t>Nkosinathi  Msibi   Transnet Port Terminals   Richardsbay</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Vuyiswa.Asoba@transnet.net</t>
+          <t>Nkosinathi.Msibi@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TPT/2025/06/0027/98218/RFQ</t>
+          <t>TE/2025/06/0058/98265/RFP</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FOR THE PROVISION OF RIGGING AND CRANE HIRE SERVICES FOR TIPPLER 02 AND MGNETITE ROUTE AT TRANSNET PORT TERMINALS IN RICHARDS BAY AS ONCE OFF.</t>
+          <t>FOR SUPPLY AND DELIVERY OF COOLANT; GRIND SPRINGEND, WATER SOLUBLE FOR THE     RSE BUSINESS, DURBAN FOR A PERIOD OF 5 YEARS ON AN AS AND WHEN REQUIRED BASIS</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45817.6015625</v>
+        <v>45848.42329861111</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45819.66666666666</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
+        <v>45867.66666666666</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7/15/2025 10:00:00 AM</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>RICHARDS BAY</t>
+          <t>DURBAN</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/98218</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/98265</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Goods &amp; Services</t>
+          <t>Goods</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>RFQ</t>
+          <t>RFP</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -931,48 +945,47 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Leslie Thabede   Transnet Port Terminals   RCB</t>
+          <t>Hazey Mosalo          Transnet  Engineering  KDS</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Leslie.Thabede@transnet.net</t>
+          <t>Hazey.Mosalo@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TPT/2025/06/0030/98231/RFQ</t>
+          <t>TPT/2025/07/0036/100756/RFQ</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PROVISION OF LOAD TEST OF REACHSTACKER AS PER ATTACHED SCOPE AT TRANSNET SOC
-LTD (REG NO 1990/00090030) OPERATING AS TRANSNET PORT TERMINALS DURBAN
-CONTAINER TERMINAL PIER 2 FOR A ONCE OF PERIOD.</t>
+          <t xml:space="preserve">FOR SUPPLY AND DELIVERY OF TPT PRINTED T-SHIRTS AND CATERING FOR SAFETY DAY ON THE 24TH OF JULY 2025
+</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45817.6009375</v>
+        <v>45848.38850694444</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45821.58333333334</v>
+        <v>45852.5</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Durban Container Terminal Pier 2</t>
+          <t>DURBAN</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/98231</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100756</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Goods &amp; Services</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -987,46 +1000,46 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Moleboheng Mokoena</t>
+          <t>Nonkululeko Phungula  Transnet Port Terminals    DBN</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Moleboheng.Mokoena@transnet.net</t>
+          <t>Nonkululeko.Phungula@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TPT/2025/06/0026/98211/RFQ</t>
+          <t>TPT/2025/07/0010/100678/RFQ</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>11439639- Strip and test for Variable Frequency Drive (VFD)</t>
+          <t>FOR THE SUPPLY AND DELIVERY OF LAUNDRY DETERGENT AND TOASTER  AT CAPE TOWN TERMINAL AS A ONCE-OFF PERIOD.</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>45817.59927083334</v>
+        <v>45848.35841435185</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45821.95833333334</v>
+        <v>45853.58333333334</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ngqura Container Terminal</t>
+          <t>CAPE TOWN</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/98211</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100678</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Goods</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1041,41 +1054,45 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Yonela Mjindi    Transnet Port Terminals    PLZ</t>
+          <t>Nolusindiso Mafilika   Transnet Port Terminals   CPT</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Yonela.Mjindi@transnet.net</t>
+          <t>Nolusindiso.Mafilika@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TPT/2025/06/0022/98190/RFQ</t>
+          <t>TPT/2025/07/0031/100734/RFQ</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FOR THE PROVISION OF WATER TANKERS FOR A PERIOD OF FOUR (4) MONTHS FOR KENDAL INLAND TERMINALS SOC LTD.</t>
+          <t xml:space="preserve">FOR THE PROVISION OF H087 ACCIDENT DAMAGE REPAIRS AS PER SOW AT PIER 1 CONTAINER TERMINAL </t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>45817.51902777778</v>
+        <v>45847.86651620371</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45819.58333333334</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
+        <v>45854.5</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>7/14/2025 11:00:00 AM</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kendal, Mpumalanga</t>
+          <t>Pier 1 Container Terminal</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/98190</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100734</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1095,47 +1112,50 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Kuhlekonke Zwane   Transnet Port Terminals   Richardsbay</t>
+          <t>Monde Nyathi   Transnet Port Terminals   Durban</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Kuhlekonke.Zwane@transnet.net</t>
+          <t>Monde.Nyathi@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TPT/2025/06/0020/98172/RFQ</t>
+          <t>TPT/2025/07/0034/100741/RFQ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FOR THE SUPPLY OF TOOLS FOR TRANSNET SOC LTD (REG. NO.
-1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS AT THE DURBAN CONTAINER TERMINAL</t>
+          <t xml:space="preserve">FOR THE PROVISION OF H083 ACCIDENT DAMAGE REPAIRS AS PER SOW AT PIER 1 CONTAINER TERMINAL </t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>45817.50506944444</v>
+        <v>45847.86640046296</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45820.5</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
+        <v>45854.5</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>7/14/2025 11:00:00 AM</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>DCT PIER 2</t>
+          <t>Pier 1 Container Terminal</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/98172</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100741</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Goods &amp; Services</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1150,42 +1170,41 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Philile Ngcobo       Transnet Port Terminals    DBN</t>
+          <t>Monde Nyathi   Transnet Port Terminals   Durban</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Philile.Ngcobo3@transnet.net</t>
+          <t>Monde.Nyathi@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TPT/2025/06/0021/98174/RFQ</t>
+          <t>TPT/2025/07/0026/100714/RFQ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FOR THE PROVISION OF LOAD TEST LIFTING EQUIPMENT FOR TRANSNET SOC LTD (REG. NO.
-1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS AT THE DURBAN CONTAINER TERMINAL</t>
+          <t>FOR THE SUPPLY OF HIGH-PRESSURE CLEANING SERVICE FOR 6 MONTHS ON AN AS AND WHEN BASIS</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>45817.50502314815</v>
+        <v>45847.66525462963</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45820.5</v>
+        <v>45852.5</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>DCT PIER 2</t>
+          <t>Transnet Port Terminal, RCB</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/98174</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100714</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1205,45 +1224,45 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Philile Ngcobo       Transnet Port Terminals    DBN</t>
+          <t>Nompumelelo Simelane  Transnet Port Terminals   RCB</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Philile.Ngcobo3@transnet.net</t>
+          <t>Nompumelelo.Simelane@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TFR/2025/06/0004/98137/RFP</t>
+          <t>TE/2025/07/0044/100747/RFQ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FOR: DE BEERS BRIDGE: DESIGN AND CONSTRUCTION SUPERVISION OF A PERMANENT RAIL OVER RIVER BRIDGE ON THE VEERTIENSTROME – RAMATHLABAMA TFR RAIL-LINE AT KM 105,738, FOR A PERIOD OF 24 MONTHS.</t>
+          <t>Upgrade The 6E1 Motor Alternator Testbay for Rotating Machines Business Durban</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45817.47954861111</v>
+        <v>45847.66190972222</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45839.5</v>
+        <v>45868.58333333334</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6/19/2025 11:00:00 AM</t>
+          <t>7/16/2025 1:15:00 PM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>VEERTIENSTROME – RAMATHLABAMA TFR RAIL-LINE</t>
+          <t>Durban</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/98137</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100747</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1253,7 +1272,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>RFP</t>
+          <t>RFQ</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1263,50 +1282,46 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Thabo Nkosi     Transnet Freight Rail     JHB</t>
+          <t>Sagie Naiker</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Thabo.Nkosi@transnet.net</t>
+          <t>Sagie.Naiker@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TPT/2025/06/0007/98140/RFQ</t>
+          <t>TPT/2025/06/0035/97560/RFQ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PROVISION OF CONDITION MONITORING SERVICES FOR A PERIOD OF FOUR (04) MONTHS  CONTRACT FOR TRANSNET SOC LTD (REG. NO 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS RICHARDS BAY (HEREINAFTER REFERRED TO AS “TPT RCB”)</t>
+          <t>PROVISION OF A SERVICE TO HIRE 5TON FORKLIFT(S) FOR IRON ORE TERMINAL AT PORT OF SALDANHA “ON AN AS AND WHEN” REQUIRED BASIS FOR 36 MONTHS PERIOD</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45817.42697916667</v>
+        <v>45847.65864583333</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45821.625</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>6/11/2025 10:11:00 AM</t>
-        </is>
-      </c>
+        <v>45854.83333333334</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>PORT OF RICHARDS BAY</t>
+          <t>Saldanha</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/98140</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97560</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Goods &amp; Services</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1321,45 +1336,45 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Ndumiso Dlamini   Transnet Port Terminals   Richardsbay</t>
+          <t>Jeremy Petersen    Transnet Port Terminals  SLD</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Ndumiso.Dlamini@transnet.net</t>
+          <t>Jeremy.Petersen@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TE/2025/05/0035/95112/RFP</t>
+          <t>TCC/2025/07/0006/100213/RFQ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SUPPLY, DELIVERY, TESTING AND CALIBRATION AND COMMISSIONING OF 1 OFF CORE LOSS TESTER, 1 OFF COMMUTATOR PROFILER, 1 OFF AC HIPOT TESTER AND 1 OFF A VERY LOW FREQUENCY TESTER (VLF) TESTER FOR ROTATING MACHINES BUSINESS WITHIN TRANSNET ENGINEERING DURBAN</t>
+          <t>SITE PREPARATION FOR A SIMULATION HUB AT THE FACULTY OF PORT TERMINALS ANDMARINE, BAYHEAD CAMPUS.</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45817.40893518519</v>
+        <v>45847.64872685185</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45835.41666666666</v>
+        <v>45867.66666666666</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6/13/2025 11:00:00 AM</t>
+          <t>7/22/2025 11:00:00 AM</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rotating Machine Business</t>
+          <t>Kwazulu Natala</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/95112</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100213</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1369,7 +1384,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>RFP</t>
+          <t>RFQ</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1379,45 +1394,45 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Lesley Mtungwa          Transnet Engineering   Dbn</t>
+          <t>Malixole Mbadamana   Transnet Corporate   Johannesburg</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Lesley.Mtungwa@transnet.net</t>
+          <t>Malixole.Mbadamana@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TE/2025/06/0004/97826/RFQ</t>
+          <t>TPL/2025/05/0004/95446/RFP</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FOR THE UPGRADING OF THE EFFLUENT PLANT FOR TRANSNET ENGINEERING BETHLEHEM LOCOMOTIVES DEPOT</t>
+          <t>The Once-off Testing, and Refilling where Required of the FM200 Cylinders for TPL Sites.</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45817.40854166666</v>
+        <v>45847.63825231481</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45838.45833333334</v>
+        <v>45869.66666666666</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6/18/2025 10:00:00 AM</t>
+          <t>7/18/2025 11:00:00 AM</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Bethlehem</t>
+          <t>National</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97826</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/95446</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1427,7 +1442,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>RFQ</t>
+          <t>RFP</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1437,46 +1452,46 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Nokuthula Kekana          Transnet Engineering   Dbn</t>
+          <t>Khulakahle Mthethwa    Transnet Pipelines   DBN</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Nokuthula.Kekana@transnet.net</t>
+          <t>Khulakahle.Mthethwa@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TNPA/2025/06/0030/98101/RFQ</t>
+          <t>TP/2025/06/0002/99101/RFQ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">FOR THE SUPPLY AND DELIVERY OF OIL LUBRICANTS FOR THE TUG:  ENSELENI AT THE PORT OF CAPE TOWN (AS A ONCE OFF) </t>
+          <t>RE ISSUE: THE PROVISION OF OFFICE CLEANING, GRASS CUTTING, PEST CONTROL, AND HYGIENE SERVICES AT KAAPMUDEIN AND SURROUNDING AREAS FOR TRANSNET SOC LIMITED TRADING AS TRANSNET PROPERTY IN THE NORTHERN REGION ON AN “AS AND WHEN REQUIRED BASIS” FOR A PERIOD OF TWENTY-FOUR (24) MONTHS. [the services]</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45817.4084375</v>
+        <v>45847.57329861111</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45819.5</v>
+        <v>45849.70833333334</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>PORT OF CAPE TOWN</t>
+          <t>Kaapmuiden and surrounding areas in Mpumalanga, Northern Region</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/98101</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/99101</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Goods</t>
+          <t>Goods &amp; Services</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1491,46 +1506,46 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Claudine Johannes          Transnet National Ports Authority   CPT</t>
+          <t>Kebaabetswe Modise   Transnet Property   Johannesburg</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Claudine.Johannes@transnet.net</t>
+          <t>Kebaabetswe.Modise@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TFR/2025/06/0019/98103/RFP</t>
+          <t>TE/2025/07/0010/100663/RFP</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MAINTENANCE OF RAILWAY TRACK WITH ON-TRACK OVERHEAD TRACK EQUIPMENT MEDIUM MACHINES.</t>
+          <t>FOR THE SUPPLY AND DELIVERY OF MOLDING SAND, COAL DUST AND BENTONITE CLAY POWDER TO TRANSNET ENGINEERING FOR THE FOUNDRY BUSINESS IN BLOEMFONTEIN FOR A PERIOD OF FIVE (5) YEARS ON AN “AS AND WHEN” REQUIRED BASIS</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45814.80237268518</v>
+        <v>45847.43627314815</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45828.41666666666</v>
+        <v>45876.66666666666</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>National</t>
+          <t>Bloemfontein</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/98103</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100663</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Goods</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1545,45 +1560,41 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Lolo Sokhela          Transnet Freight Rail   JHB</t>
+          <t>Nomathemba Zwane       Transnet Engineering BFN</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Lolo.Sokhela@transnet.net</t>
+          <t>Nomathemba.Zwane@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TFR/2025/06/0016/98094/RFQ</t>
+          <t>TPT/2025/07/0003/100548/RFQ</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SUPPLY AND INSTALLATION OF PRECAST CONCRETE HOLLOW CORE SLABS FENCING</t>
+          <t>SUPPLY AND MAINTENANCE OF MOBILE FLUSHING TOILETS AT SALDANHA TERMINALS ON AN AS-AND-WHEN-REQUIRED BASIS FOR A DURATION OF THIRTY-SIX (36) MONTHS.</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45814.79368055556</v>
+        <v>45847.38822916667</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45838.41666666666</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>6/19/2025 10:00:00 AM</t>
-        </is>
-      </c>
+        <v>45854.625</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">North West Province </t>
+          <t>Transnet Port Terminals</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/98094</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100548</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1603,55 +1614,56 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Thuli Mathebula   Transnet Freight Rail   JHB</t>
+          <t>Thabo Louw   Transnet Port Terminals   Saldanha</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Thuli.Mathebula@transnet.net</t>
+          <t>Thabo.Louw@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>TPT/2025/05/0016/97266/RFP</t>
+          <t>TE/2025/07/0024/100596/RFQ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FOR THE SUPPLY AND DELIVERY OF COMPUTING EQUIPMENT LAPTOPS, MONITORS, MOUSE AND KEYBOARDS FOR TRANSNET SOC LTD (REG. NO 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS (HEREINAFTER REFERRED TO AS “TPT”) AT TPT HEAD OFFICE</t>
+          <t>FOR THE APPOINTMENT OF A SERVICE PROVIDER TO PROGRAM THE ENGRAVING MACHINE AT TRANSNET
+ENGINEERING, GERMISTON. [ONCE-OFF]</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45814.67530092593</v>
+        <v>45846.61297453703</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45845.5</v>
+        <v>45853.625</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>6/12/2025 10:00:00 AM</t>
+          <t>7/11/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Durban CBD</t>
+          <t>03 Keswick Road Germiston</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97266</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100596</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Goods &amp; Services</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>RFP</t>
+          <t>RFQ</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1661,48 +1673,50 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Linamandla Ntontela   Transnet Port Terminals   Durban</t>
+          <t>Katlego  Mokgwatsana      Transnet Engineerin   GRM</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Linamandla.Ntontela@transnet.net</t>
+          <t>Katlego.Mokgwatsana@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TPT/2025/06/0015/98057/RFQ</t>
+          <t>TFR/2025/07/0010/100589/RFQ</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Provision to hire Three (3) 2.5 Ton Forklifts (FL) for TRANSNET SOC LTD (Reg No.
-1990/000900/30) operating as Transnet Port Terminals (Hereinafter referred as “TPT”) for
-Ngqura Container Terminal (NCT) for a period of six (6) months.</t>
+          <t>FOR THE UPGRADE OF FIRE SUPPRESSION SYSTEM IN PYRAMID SOUTH</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>45814.59646990741</v>
+        <v>45846.5562037037</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45828.45833333334</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
+        <v>45861.41666666666</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>7/14/2025 10:30:00 AM</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NGQURA PORT TERMINALS</t>
+          <t xml:space="preserve">Gauteng </t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/98057</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100589</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Goods &amp; Services</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1717,55 +1731,58 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Zabathwa Mnene   Transnet Port Terminals     NCT</t>
+          <t>Dudu Mkhwebane   Transnet Freight Rail   Pretoria</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Zabathwa.Mnene@transnet.net</t>
+          <t>Dudu.Mkhwebane@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TFR/2025/06/0008/98039/RFP</t>
+          <t>TPT/2025/07/0009/100582/RFQ</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FOR THE REFURBISHMENT OF 2 X 20MVA TRACTION TRANSFORMERS AT VARIOUS SUBSTATION ON THE NORTH CORRIDOR SHUTDOWN.</t>
+          <t xml:space="preserve">FOR THE PROVISION OF REEVING MACHINE UPGRADES AND REPAIRS FOR TRANSNET 
+SOC LTD (REG. NO. 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS AT THE 
+DURBAN CONTAINER TERMINAL PIER 2
+</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>45814.54866898148</v>
+        <v>45846.54589120371</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45828.5</v>
+        <v>45854.5</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6/13/2025 10:00:00 AM</t>
+          <t>7/11/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>NATIONAL</t>
+          <t>DCT PIER 2</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/98039</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100582</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Goods</t>
+          <t>Goods &amp; Services</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>RFP</t>
+          <t>RFQ</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1775,46 +1792,53 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Lolo Sokhela          Transnet Freight Rail   JHB</t>
+          <t>Philile Ngcobo       Transnet Port Terminals    DBN</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Lolo.Sokhela@transnet.net</t>
+          <t>Philile.Ngcobo3@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TPT/2025/06/0002/97990/RFQ</t>
+          <t>TPT/2025/07/0010/100585/RFQ</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FOR THE SUPPLY AND DELIVERY OF STORE MAINTENANCE PARTS AT CAPE TOWN TERMINAL AS A ONCE-OFF PERIOD</t>
+          <t xml:space="preserve">FOR THE PROVISION OF REPAIR RESCUE CAGE HDO 5791 FOR TRANSNET 
+SOC LTD (REG. NO. 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS AT THE 
+DURBAN CONTAINER TERMINAL PIER 2
+</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>45814.53662037037</v>
+        <v>45846.54587962963</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45819.5</v>
-      </c>
-      <c r="E25" t="inlineStr"/>
+        <v>45854.5</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>7/11/2025 11:00:00 AM</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>CAPE TOWN</t>
+          <t>DCT PIER 2</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97990</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100585</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Goods</t>
+          <t>Goods &amp; Services</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1829,41 +1853,47 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Nolusindiso Mafilika   Transnet Port Terminals   CPT</t>
+          <t>Philile Ngcobo       Transnet Port Terminals    DBN</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Nolusindiso.Mafilika@transnet.net</t>
+          <t>Philile.Ngcobo3@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>TPT/2025/06/0010/98041/RFP</t>
+          <t>TPT/2025/07/0004/100550/RFQ</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FOR THE PROVISION OF STAFF TRANSPORT FOR TRANSNET SOC LTD (REG. NO 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS (HEREINAFTER REFERRED TO AS “TPT”) DURBAN CONTAINER TERMINAL PIER 1</t>
+          <t>SCOPE TO MODIFY AIR CLEANER SYSTEM , INSTAL BLOCKS ON 5TH WHEEL AS AN
+ADJUSTMENT AND WELD GUSSETS ON NEW TERBERGS 17 IN TOTAL TO TRANSNET PORT
+TERMINALS SOC LTD AT PORT OF RICHARDS BAY (TPT RCB).</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45814.51998842593</v>
+        <v>45846.42809027778</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45828.5</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
+        <v>45853.5</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>7/10/2025 10:11:00 AM</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>DURBAN CONTAINER TERMINAL PIER 1</t>
+          <t>PORT OF RICHARDS BAY</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/98041</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100550</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1873,7 +1903,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>RFP</t>
+          <t>RFQ</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1883,52 +1913,50 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Hlengiwe Mthimkhulu     Transnet Port Terminals   DBN</t>
+          <t>Ndumiso Dlamini   Transnet Port Terminals   Richardsbay</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Hlengiwe.Mthimkhulu@transnet.net</t>
+          <t>Ndumiso.Dlamini@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TPT/2025/06/0006/97845/RFQ</t>
+          <t>TPT/2025/07/0002/100545/RFQ</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FOR THE DE-CLOGGING OF DRAINS AND PLUMBING SEWER FOR (REG NO. 1990/000900/30)
-OPERATING AS TRANSNET PORT TERMINALS (TPT) AT DURBAN BBC TERMINAL FOR A PERIOD
-OF THIRTY-SIX (36) MONTHS</t>
+          <t>PROVISION OF MAINTENANCE SERVICE TO FIRE EQUIPMENT</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45814.44255787037</v>
+        <v>45846.38151620371</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45835.5</v>
+        <v>45853.95833333334</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6/13/2025 10:00:00 AM</t>
+          <t>7/10/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DURBAN BBC TERMINAL </t>
+          <t>Port of East London</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97845</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100545</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Goods &amp; Services</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1943,55 +1971,55 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Linamandla Busakwe   Transnet Port Terminals   DBN</t>
+          <t>Lusanda Metu Transnet Port Terminals ELS</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Linamandla.Busakwe@transnet.net</t>
+          <t>Lusanda.Metu@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TPT/2024/11/0006/83031/RFP</t>
+          <t>TPT/2025/03/0007/92664/RFQ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PROVISION FOR MAINTENANCE OF IBM STORAGE AND LENOVO SERVER INFRASTRUCTURE FOR TRANSNET SOC LTD (REG. NO. 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS (HEREINAFTER REFERRED TO AS “TPT”) AT ALL SIX (6) TPT DATA CENTRES COUNTRY-WIDE FOR A PERIOD OF TWENTY-FOUR (24) MONTHS</t>
+          <t xml:space="preserve">FOR THE PROVISION OF REPAIRS, SUPPLY AND INSTALL NEW ELECTRICAL WIRE CIRCUIT, ACCESS LIGHTS AND FLOOD LIGHTS AT TRANSNET PORT TERMINALS </t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45814.43829861111</v>
+        <v>45845.46863425926</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45831.5</v>
+        <v>45859.5</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>6/13/2025 11:13:00 AM</t>
+          <t>7/14/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>TPT HQ</t>
+          <t>RCB</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/83031</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/92664</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Goods &amp; Services</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>RFP</t>
+          <t>RFQ</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2001,45 +2029,42 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Mvelo Bekwa   Transnet Port Terminals   Durban</t>
+          <t>Mbuso Mlaba   Transnet Port Terminals   Richardsbay</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Mvelo.Bekwa@transnet.net</t>
+          <t>Mbuso.Mlaba@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TPT/2025/06/0006/98004/RFQ</t>
+          <t>TFR/2025/07/0002/100453/RFQ</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">FOR THE PROVISION OF SUPPLY AND DELIVERY OF AIR CONDITIONERS AND INSTALLATION </t>
+          <t>SUPPLY, DELIVERY, INSTALLATION, TEST AND COMMISSIONING OF MAINTENANCE FREE 110V BATTERIES INCLUDING BATTERY CHARGERS AND STANDS FOR DROERIVIER, WELTERVREDE, GEELBEK, QUARRY, SOETENDAL AND GOUDA SUBSTATIONS
+Tenderers are required to ensure that electronic bid submissions are done at least a day before he closing date to prevent issues which they may encounter due to their internet speed, bandwidth or the size of the number of uploads they are submitting. Transnet will not be held liable for any challenges experienced by bidders as a result of the technical challenges. Please do not wait for the last hour to submit. A Tenderer can upload 30mb per upload and multiple uploads are permitted.</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45814.42671296297</v>
+        <v>45845.35506944444</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45820.5</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>6/10/2025 12:00:00 PM</t>
-        </is>
-      </c>
+        <v>45861.45833333334</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Durban</t>
+          <t>DROERIVIER, WELTERVREDE, GEELBEK, QUARRY, SOETENDAL AND GOUDA SUBSTATIONS</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/98004</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100453</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2059,46 +2084,46 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Ndumiso Thabethe   Transnet Port Terminals   DBN</t>
+          <t>Johanna Swart Transnet Freight Rail   CPT</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Ndumiso.Thabethe@transnet.net</t>
+          <t>Johanna.Swart@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TPT/2025/06/0031/97918/RFQ</t>
+          <t>TE/2025/07/0034/100420/RFQ</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">FOR THE PROVISION OF THE REPAIR OF FENCE AND GATES IN VARIOUS AREAS AT RORO; FOR TRANSNET SOC LTD (REG. NO. 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS (HEREINAFTER REFERRED TO AS “TPT”) AT THE PORT OF DURBAN: MAYDON WHARF AND AGRIBULK 
-</t>
+          <t>FOR THE APPOINTMENT OF A SERVICE PROVIDER TO REPAIR &amp; OVERHAUL GEARBOX FOR
+FUNKY/SHUNTING LOCOMOTIVE AT TRANSNET ENGINEERING, WELGEDACHT.</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45813.97548611111</v>
+        <v>45842.61003472222</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45828.5</v>
+        <v>45852.625</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6/13/2025 11:00:00 AM</t>
+          <t>7/9/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve">DURBAN </t>
+          <t>WELGEDACHT</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97918</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100420</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2118,48 +2143,50 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Darren Chetty    Transnet Port Terminals</t>
+          <t>Duncan Mohaleamalla         Transnet Engineer   GMR</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Darren.Chetty@transnet.net</t>
+          <t>Duncan.Mohaleamalla@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TPT/2025/06/0024/97899/RFQ</t>
+          <t>TE/2025/07/0031/100412/RFQ</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">FOR THE PROVISION OF FABRICATE AND DELIVER STORM WATER DRAIN COVERS FOR TRANSNET SOC LTD (REG. NO. 1990/000900/30) OPERATING AS TRANSNET PORT
-TERMINALS (HEREINAFTER REFERRED TO AS “TPT”), DURBAN MPT TERMINAL AT THE PORT OF DURBAN FOR A PERIOD OF ONCE OFF.
-</t>
+          <t>FOR THE APPOINTMENT OF A SERVICE PROVIDER TO REPAIR THREE-WHEEL WELDING TRACTOR AT TRANSNET ENGINEERING, GERMISTON. [ONCE-OFF]</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45813.97119212963</v>
+        <v>45842.60851851852</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45819.5</v>
-      </c>
-      <c r="E31" t="inlineStr"/>
+        <v>45849.625</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>7/9/2025 11:00:00 AM</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve">DURBAN </t>
+          <t>Germiston</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97899</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100412</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Goods</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2174,45 +2201,41 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Nontobeko Masuku     Transnet Port Terminal     DBN</t>
+          <t>Mduduzi Mkhantshwa   Transnet Engineering   GMX</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Nontobeko.Masuku@transnet.net</t>
+          <t>Mduduzi.Mkhantshwa@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>TPT/2025/06/0046/97980/RFQ</t>
+          <t>TNPA/2025/07/0002/100350/RFQ</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FOR THE PROVISION OF REPAIR OF VEHICLE MOUNT TERMINALS AT DURBAN CONTAINER TERMINAL PIER 2</t>
+          <t>PROVISION OF A DEDICATED STAFF TRANSPORTATION SERVICE ON A MONTH-TO-MONTH BASIS FOR A PERIOD UP TO SIX (6) MONTHS</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45813.86892361111</v>
+        <v>45842.54359953704</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45819.5</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>6/9/2025 11:00:00 AM</t>
-        </is>
-      </c>
+        <v>45849.66666666666</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Durban</t>
+          <t>Port of Cape Town</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97980</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100350</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2232,45 +2255,41 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Vincent Mabuza   Transnet Port Terminals   JHB</t>
+          <t>Khulekani Sikhosana   Transnet NPA   Cape Town</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Vincent.Mabuza@transnet.net</t>
+          <t>Khulekani.Sikhosana@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TPT/2025/06/0044/97976/RFQ</t>
+          <t>TNPA/2025/07/0009/100386/RFP</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FOR THE PROVISION OF DOUBLE SOCKET VMT MOUNTING BRACKETS</t>
+          <t>The Transnet National Ports Authority (“the TNPA or the Authority”) intends concluding a lease agreement with City of Cape Town (“CoCT”) for 3 Sub-Stations for a three (3) year term.</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45813.81100694444</v>
+        <v>45842.52181712963</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45819.5</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>6/9/2025 11:00:00 AM</t>
-        </is>
-      </c>
+        <v>45853.5</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Durban</t>
+          <t>City of Cape Town</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97976</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100386</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2280,7 +2299,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>RFQ</t>
+          <t>RFP</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2290,617 +2309,625 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Siyabonga Msomi   Transnet Port Terminals  Durban</t>
+          <t>Mcebo Mhlanga   Transnet NPA   CPT</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Siyabonga.Msomi@transnet.net</t>
+          <t>Mcebo.Mhlanga@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>TPT/2025/06/0043/97973/RFQ</t>
+          <t>TPT/2025/07/0003/100363/RFQ</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
-        <is>
-          <t>FOR THE PROVISION OF REPAIRS AND MAINTENANCE OF PROJECTION AND SOUNDS AT PIER 2 AUDITORIUM</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>45813.77528935186</v>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>45819.5</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>6/9/2025 10:00:00 AM</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Durban</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97973</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Goods &amp; Services</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>RFQ</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Siyabonga Msomi   Transnet Port Terminals  Durban</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>Siyabonga.Msomi@transnet.net</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>TPT/2025/06/0036/97935/RFQ</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>HIRING OF MOBILE COMPRESSOR</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>45813.61622685185</v>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>45818.5</v>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>TPT DCT PIER 2 CVR</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97935</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Services</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>RFQ</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Bonginkosi Mbatha   Transnet Port Terminals   DBN</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>Bonginkosi.Mbatha2@transnet.net</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>TPT/2025/06/0008/97854/RFQ</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FOR THE PROVISION OF DUST MONITORING AND MANAGEMENT CONTRACT FOR A PERIOD OF 2 YEARS 
-</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>45813.60574074074</v>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>45818.5</v>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Transnet Port Terminal, RCB</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97854</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Goods &amp; Services</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>RFQ</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Nompumelelo Simelane  Transnet Port Terminals   RCB</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>Nompumelelo.Simelane@transnet.net</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>TPT/2025/06/0020/97887/RFQ</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>REFURBISH SIL BEAM CRACKS</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>45813.51255787037</v>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>45820.5</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>6/9/2025 10:00:00 AM</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>TPT DCT PIER 2 STRADDLES</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97887</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Services</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>RFQ</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Kisten Mervyn          Transnet Port Terminals   DBN</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>Kisten.Mervyn@transnet.net</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>TPT/2025/06/0016/97879/RFP</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PROVISION OF HANDLING SERVICES [INCLUDING MATERIAL HANDLING EQUIPMENT] – 6 REACH STACKERS, 2 EMPTY CARGO HANDLERS AND 14 HORSE AND TRAILER TRUCK COMBINATION, ALL EQUIPMENT COUPLED WITH OPERATORS/DRIVERS FOR THE TRANSPORTATION AND CARGO HANDLING OF MINERAL RESOURCES (FERRO CHROME, MANGANESE, COAL, CHROME ORE, IRON ORE, ETC), FOR BREAKBULK AND CONTAINERS BUT NOT LIMITED, AT THE MULTI-PURPOSE TERMINAL, MAYDON WHARF ON AN “AS AND WHEN” REQUIRED BASIS FOR A PERIOD OF THIRTY-SIX (36) MONTHS </t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>45813.51171296297</v>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>45833.5</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>6/11/2025 10:00:00 AM</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Durban</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97879</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Services</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>RFP</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Phumza Lehlohla   Transnet Port Terrminals   DBN</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>Phumza.Lehlohla@transnet.net</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>TPT/2025/06/0015/97877/RFQ</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>FOR THE PROVISION OF BREAKDOWN SUPPORT AND CALIBRATION OF OTLS AND TIPPLER SCALES FOR A PERIOD OF 6 (SIX) MONTHS.</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>45813.48887731481</v>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>45818.5</v>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>RCB</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97877</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Goods &amp; Services</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>RFQ</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Mbuso Mlaba   Transnet Port Terminals   Richardsbay</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Mbuso.Mlaba@transnet.net</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>TFR/2025/06/0008/97860/RFI</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>REQUEST FOR INFORMATION (RFI) TO REQUEST FOR INFORMATION (RFI) FOR THE PROVISION OF A PORTABLE RAILWAY WHEEL MACHINING LATHE NATIONALLY FOR TRANSNET FREIGHT RAIL (TFR)</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>45813.45481481482</v>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>45842.5</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>6/20/2025 10:00:00 AM</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>NATIONALLY</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97860</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Services</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>RFI</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Lolo Sokhela          Transnet Freight Rail   JHB</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Lolo.Sokhela@transnet.net</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>TPT/2025/06/0023/97677/RFQ</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>THE PROVISION TO REMOVE AN OLD IGNITION AND INSTALLATION OF NEW IGNITION ON THE VOLVO FL12 INTERCOOLER TRUCK LOCATED AT CAPE TOWN MULTI-PURPOSE TERMINAL AS ONCE-OFF</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>45813.36769675926</v>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>45820.66666666666</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>6/9/2025 12:00:00 PM</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Cape Town</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97677</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Goods &amp; Services</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>RFQ</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Camagu Masiko   Transnet Port Terminals   Cape Town</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Camagu.Masiko@transnet.net</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>TPT/2025/06/0020/97784/RFQ</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FOR THE PROVISION OF SERVICE FOR THE ALLIGNMENT OF THE MAIN TROLLEY OF LIEBHERR STS CRANE LC9 FOR CAPE TOWN TERMINALS FOR A ONCE OFF PERIOD </t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>45812.63305555555</v>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>45820.66666666666</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>6/9/2025 12:00:00 PM</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Cape Town</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97784</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Services</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>RFQ</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Cilliers Louw     Transnet Port Terminals   CPT</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Cilliers.Louw@transnet.net</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>TE/2025/06/0032/97764/RFP</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">THE PROVISION OF THE UPGRADING OF A 65-TON TRAVERSER TO 120 TONS AT TRANSNET ENGINEERING SALT RIVER FOR A PERIOD OF SIX MONTHS
-</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>45812.56971064815</v>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>45833.45833333334</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>6/11/2025 10:00:00 AM</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Salt River</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97764</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Services</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>RFP</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Charl du Preez          Transnet Engineering   SLR</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Charl.duPreez@transnet.net</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>TPT/2025/06/0004/97714/RFQ</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
         <is>
           <t>PROVISION OF HIGH MAST 285 ACCIDENT DAMAGE REPAIRS AS PER ATTACHED SCOPE AT
 TRANSNET SOC LTD (REG NO 1990/00090030) OPERATING AS TRANSNET PORT TERMINALS
 DURBAN CONTAINER TERMINAL PIER 2 FOR A ONCE OF PERIOD.</t>
         </is>
       </c>
+      <c r="C34" s="2" t="n">
+        <v>45842.50925925926</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>45849.58333333334</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>7/9/2025 10:00:00 AM</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Durban Container Terminal Pier 2</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100363</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Goods</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>RFQ</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Mzwandile Ngcongo   Transnet Port Terminals   DBN</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Mzwandile.Ngcongo@transnet.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>TCC/2025/04/0001/94272/RFP</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FOR THE PROVISION OF FINANCE CONSOLIDATION ON A CENTRALIZED DIGITAL PLATFORM SOLUTION FOR A PERIOD OF TWELVE (12) MONTHS</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>45842.4080787037</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>45877.5</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>7/11/2025 11:00:00 AM</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/94272</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>RFP</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Mahlodi Kganyago   Transnet Corporate Centre   Johannesburg</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Mahlodi.Kganyago@transnet.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>TNPA/2025/07/0011/100140/RFP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>THE LONG-TERM LEASING AND RE-DEVELOPMENT OF PREMISES FOR INDUSTRIAL/COMMERCIAL DESCRIBED AS LEASE L40618 OF ERF 12355, DURBAN-FU WITH IMPROVEMENTS THEREON, IN BAYHEAD,IN THE PORT OF DURBAN FOR A PERIOD OF TWENTY-FIVE (25) YEARS.</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>45842.38256944445</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>45903.625</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>7/17/2025 10:00:00 AM</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Port of Durban</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100140</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>RFP</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Thabisile Ndlovu  [Transnet NPA DBN]</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Thabisile.Ndlovu@transnet.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>TPT/2025/07/0025/100327/RFQ</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+FOR THE PROVISION OF INSTALLATION OF HEIGHT RESTRICTION BARRIERS FOR TRANSNET SOC LTD (REG. NO. 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS (HEREINAFTER REFERRED TO AS “TPT”) AT THE PORT OF DURBAN: MAYDON WHARF AND AGRIBULK 
+</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>45841.94429398148</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>45856.5</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>7/11/2025 11:00:00 AM</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DURBAN </t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100327</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>RFQ</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Darren Chetty    Transnet Port Terminals</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Darren.Chetty@transnet.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>TNPA/2025/07/0012/100141/RFP</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>THE LONG-TERM LEASING AND RE-DEVELOPMENT OF PREMISES FOR INDUSTRIAL/COMMERCIAL DESCRIBED AS LEASE L46004 OF ERF 12355, DURBAN-FU WITH IMPROVEMENTS THEREON, IN BAYHEAD,IN THE PORT OF DURBAN FOR A PERIOD OF TWENTY-FIVE (25) YEARS.</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>45841.67131944445</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>45903.625</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>7/17/2025 10:00:00 AM</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Port of Durban</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100141</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>RFP</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Thabisile Ndlovu  [Transnet NPA DBN]</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Thabisile.Ndlovu@transnet.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>TNPA/2025/07/0020/100154/RFP</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>THE LEASING OF PREMISES DESCRIBED LEASE L96014 OF PTN OF KINGS REST FLATS NO.16344 DURBAN, IN BAYHEAD IN THE PORT OF DURBAN FOR A PERIOD OF TEN (10) YEARS.</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>45841.66165509259</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>45903.625</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>7/17/2025 10:00:00 AM</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Port of Durban</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100154</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>RFP</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Thabisile Ndlovu  [Transnet NPA DBN]</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Thabisile.Ndlovu@transnet.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>TFR/2025/07/0025/100314/RFQ</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>FOR THE SUPPLY AND DELIVERY OF 400 TACTICAL HELMETS TO A TRANSNET RAIL INFRASTRUCTURE MANAGER (TRIM) FACILITY IN GAUTENG PROVINCE FOR A PERIOD OF TWO (02) MONTHS</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>45841.65052083333</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>45855.41666666666</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>GAUTENG PROVINCE</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100314</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Goods</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>RFQ</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Lolo Sokhela          Transnet Freight Rail   JHB</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Lolo.Sokhela@transnet.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>TPT/2025/07/0034/100193/RFQ</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>FOR THE STRUCTURAL STEEL MODIFICATION OF HOPPERS ON K01, K03 AND S05 AT EXPORT FOR TRANSNET PORT TERMINAL RICHARDS BAY (TPT RCB)</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>45841.6449537037</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>45856.33333333334</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>7/11/2025 10:00:00 AM</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Transnet Port terminal, RCB</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100193</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>RFQ</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Nompumelelo Simelane  Transnet Port Terminals   RCB</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Nompumelelo.Simelane@transnet.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>TNPA/2025/07/0021/100156/RFP</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>LEASING OF PREMISES DESCRIBED AS LEASE L96013 OF KINGS FLATS NO. 16344, IN BAYHEAD, IN THE PORT OF DURBAN FOR A PERIOD OF TEN (10) YEARS.</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>45841.63428240741</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>45903.625</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>7/17/2025 10:00:00 AM</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Port of Durban </t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100156</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>RFP</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Thabisile Ndlovu  [Transnet NPA DBN]</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Thabisile.Ndlovu@transnet.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>TNPA/2025/07/0022/100157/RFP</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>LEASE L96009 OF KINGS FLAT NO. 16344 DURBAN-FU WITH IMPROVEMENTS THEREON, IN BAYHEAD (PD/WE 3/2/289) - LEASING OF PREMISES DESCRIBED AS LEASE L96009 OF KINGS FLAT NO. 16344 DURBAN-FU WITH IMPROVEMENTS THEREON, IN BAYHEAD IN THE PORT OF DURBAN FOR A PERIOD OF TEN (10) YEARS</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>45841.59193287037</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>45903.625</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>7/17/2025 10:00:00 AM</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Port of Durban</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100157</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>RFP</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Helen Sigcau [Transnet NPA DBN]</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Helen.Sigcau@transnet.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>TNPA/2025/07/0016/100145/RFP</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>REQUEST FOR PROPOSAL FOR THE LONG-TERM LEASING AND RE-DEVELOPMENT OF PREMISES FOR INDUSTRIAL/COMMERCIAL DESCRIBED AS LEASE L46098 OF PORTION OF PORTION 1 OF ERF 10019 &amp; ERF 10013, DURBAN FU WITH IMPROVEMENTS THEREON, IN BAYHEAD,IN THE PORT OF DURBAN FOR A PERIOD OF TWENTY-FIVE (25) YEARS.</t>
+        </is>
+      </c>
       <c r="C44" s="2" t="n">
-        <v>45812.48269675926</v>
+        <v>45841.59193287037</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45818.58333333334</v>
+        <v>45903.625</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>6/5/2025 10:00:00 AM</t>
+          <t>7/17/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>DCT Pier 2</t>
+          <t>Port of Durban</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97714</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100145</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2910,7 +2937,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>RFQ</t>
+          <t>RFP</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2920,51 +2947,55 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Mzwandile Ngcongo   Transnet Port Terminals   DBN</t>
+          <t>Thabisile Ndlovu  [Transnet NPA DBN]</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Mzwandile.Ngcongo@transnet.net</t>
+          <t>Thabisile.Ndlovu@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>TFR/2025/06/0007/97726/RFQ</t>
+          <t>TNPA/2025/07/0023/100159/RFP</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FOR THE: REFURBISHMENT OF THE ABOVE GROUND VERTICAL TANK AT KROONSTAD DIESEL DEPOT</t>
+          <t>LEASE L90686 OF KINGS FLATS NO.16344 DURBAN, IN BAYHEAD (PD/WE 3/2/233) - LEASING OF PREMISES DESCRIBED AS LEASE L90686 OF KINGS FLATS NO.16344 DURBAN, IN BAYHEAD IN THE PORT OF DURBAN FOR A PERIOD OF TEN (10) YEARS.</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45812.47982638889</v>
+        <v>45841.59177083334</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45827.5</v>
-      </c>
-      <c r="E45" t="inlineStr"/>
+        <v>45903.625</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>7/17/2025 10:00:00 AM</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>KROONSTAD DIESEL DEPOT</t>
+          <t>Port of Durban</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97726</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100159</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Goods &amp; Services</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>RFQ</t>
+          <t>RFP</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2974,46 +3005,45 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Cecilia Mosolodi     Transnet(RME)</t>
+          <t>Helen Sigcau [Transnet NPA DBN]</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Cecilia.Mosolodi@transnet.net</t>
+          <t>Helen.Sigcau@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>TNPA/2025/06/0025/97547/RFP</t>
+          <t>TNPA/2025/07/0024/100160/RFP</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">RCB 06/2025/04 Land situated on Lot 2/5 Umhlathuzi sites, Bayview Precinct, RBH 86-A-693 - Land situated on Lot 2/3 Umhlathuzi sites, Bayview Precinct, RBH 86-A-691 &amp; Land situated on Lot 2/4 Umhlathuzi sites, Bayview Precinct, RBH 86-A-692
-</t>
+          <t>LEASE L360913 OF PORTION 203 OF ERF-1004, DURBAN-FU, IN MAYDON WHARF (PD/WE 2/2/352) - LEASING OF PREMISES DESCRIBED AS LEASE L360913 OF PORTION 203 OF ERF-1004, DURBAN-FU, IN MAYDON WHARF IN THE PORT OF DURBAN FOR A PERIOD OF TWENTY (20) YEARS.</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45812.37508101852</v>
+        <v>45841.59173611111</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45838.66666666666</v>
+        <v>45903.625</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>6/12/2025 9:00:00 AM</t>
+          <t>7/17/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>PORT OF RICHARDS BAY</t>
+          <t>Port of Durban</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97547</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100160</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3033,55 +3063,55 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Priya Naidoo     Transnet NPA    RCB</t>
+          <t>Helen Sigcau [Transnet NPA DBN]</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Priya.Naidoo@transnet.net</t>
+          <t>Helen.Sigcau@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>TNPA/2025/06/0029/97553/RFP</t>
+          <t>TFR/2025/07/0011/100251/RFQ</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>RCB 06/2025/08	Land and Building situated on Newark Road, Tuzi Gazi, RBH 89-A-676</t>
+          <t>FOR THE: FOR DRAINAGE AND REPAIRS OF SERVICE ROAD BETWEEN GLENCOE AND WASBANK UNDER LADYSMITH DEPOT</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45812.35645833334</v>
+        <v>45841.58944444444</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45838.66666666666</v>
+        <v>45856.41666666666</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>6/12/2025 9:00:00 AM</t>
+          <t>7/11/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>PORT OF RICHARDS BAY</t>
+          <t>GLENCOE  AND WASBANK</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97553</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100251</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Goods &amp; Services</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>RFP</t>
+          <t>RFQ</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3091,55 +3121,55 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Priya Naidoo     Transnet NPA    RCB</t>
+          <t>Mduduzi Khoza    Transnet Freight Rail  KZN</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Priya.Naidoo@transnet.net</t>
+          <t>Mduduzi.Khoza@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>TPT/2025/06/0002/97701/RFQ</t>
+          <t>TNPA/2025/07/0017/100150/RFP</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">FOR THE HIRE, DELIVER AND MAINTAIN THE REQUIRED NUMBER OF TWO [2] 500KVA
-GENERATORS FOR 4-MONTH PERIOD FOR TRANSNET SOC LTD (REG NO. 1990/000900/30) 
-OPERATING AS TRANSNET PORT TERMINALS (HEREINAFTER REFERRED TO AS “TPT”) AT 
-THE PORT ELIZABETH CONTAINER TERMINAL AS ONCE OFF SUPPLY
-</t>
+          <t>LONG-TERM LEASING AND RE-DEVELOPMENT OF PREMISES FOR INDUSTRIAL/COMMERCIAL DESCRIBED AS LEASE L46026 OF ERF 12355, DURBAN-FU WITH IMPROVEMENTS THEREON, IN BAYHEAD,IN THE PORT OF DURBAN FOR A PERIOD OF TWENTY-FIVE (25) YEARS.</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45812.35114583333</v>
+        <v>45841.53237268519</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45827.95833333334</v>
-      </c>
-      <c r="E48" t="inlineStr"/>
+        <v>45903.625</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>7/17/2025 10:00:00 AM</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve">PORT ELIZABETH CONTAINER TERMINAL </t>
+          <t>Port of Durban</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97701</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100150</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Goods &amp; Services</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>RFQ</t>
+          <t>RFP</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3149,41 +3179,45 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Sue-Ellen Nazer     Transnet Port Terminals   PLZ</t>
+          <t>Thabisile Ndlovu  [Transnet NPA DBN]</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Sue-Ellen.Nazer@transnet.net</t>
+          <t>Thabisile.Ndlovu@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TFR/2025/06/0022/97688/RFP</t>
+          <t>TNPA/2025/07/0018/100151/RFP</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MAINTENANCE OF RAILWAY TRACK WITH ON-TRACK HIGH PRODUCTION BALLAST TAMPING MACHINES COUNTRYWIDE ON AN 'AS AND WHEN” REQUIRED' BASIS.</t>
+          <t>THE LEASING OF PREMISES DESCRIBED LEASE L96069 OF PTN OF KINGS REST FLATS NO. 16344 DURBAN, IN BAYHEAD IN THE PORT OF DURBAN FOR A PERIOD OF TWENTY (20) YEARS.</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45811.84238425926</v>
+        <v>45841.53229166667</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45828.5</v>
-      </c>
-      <c r="E49" t="inlineStr"/>
+        <v>45903.625</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>7/17/2025 10:00:00 AM</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>COUNTRYWIDE</t>
+          <t xml:space="preserve">Port of Durban </t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97688</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100151</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3203,46 +3237,45 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Lolo Sokhela          Transnet Freight Rail   JHB</t>
+          <t>Thabisile Ndlovu  [Transnet NPA DBN]</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Lolo.Sokhela@transnet.net</t>
+          <t>Thabisile.Ndlovu@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TNPA/2025/06/0027/97549/RFP</t>
+          <t>TNPA/2025/07/0009/100136/RFP</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve">RCB 06/2025/06	Land situated on Sub 21 (of 8) Lot 5333, RBH 87-A-6017
-</t>
+          <t>LONG-TERM LEASING AND RE-DEVELOPMENT OF PREMISES FOR INDUSTRIAL/COMMERCIAL DESCRIBED AS LEASE L46090 OF ERF 12355, DURBAN-FU WITH IMPROVEMENTS THEREON, IN BAYHEAD,IN THE PORT OF DURBAN FOR A PERIOD OF TWENTY-FIVE (25) YEARS.</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45811.6865625</v>
+        <v>45841.48608796296</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45838.66666666666</v>
+        <v>45903.625</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>6/12/2025 9:00:00 AM</t>
+          <t>7/17/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>PORT OF RICHARDS BAY</t>
+          <t xml:space="preserve">Port of Durban </t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97549</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100136</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3262,45 +3295,47 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Priya Naidoo     Transnet NPA    RCB</t>
+          <t>Thabisile Ndlovu  [Transnet NPA DBN]</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Priya.Naidoo@transnet.net</t>
+          <t>Thabisile.Ndlovu@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TNPA/2025/06/0026/97548/RFP</t>
+          <t>TNPA/2025/07/0019/100153/RFP</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>RCB 06/2025/05	Land situated on Sub 21 (of 8) of Lot 5333, Umhlathuzi Lot 3/7,RBH 86-A-663</t>
+          <t xml:space="preserve">LEASE L46029 OF ERF 10013, DURBAN-FU, IN BAYHEAD (PD/WE 3/2/195) 
+LEASING OF PREMISES DESCRIBED L46029 OF ERF 10013, DURBAN-FU, IN BAYHEAD IN BAYHEAD IN THE PORT OF DURBAN FOR A PERIOD OF TWENTY (20) YEARS.
+</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
-        <v>45811.68482638889</v>
+        <v>45841.48604166666</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45838.66666666666</v>
+        <v>45903.625</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>6/12/2025 9:00:00 AM</t>
+          <t>7/17/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>PORT OF RICHARDS BAY</t>
+          <t>Port of Durban</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97548</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100153</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3320,46 +3355,46 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Priya Naidoo     Transnet NPA    RCB</t>
+          <t>Helen Sigcau [Transnet NPA DBN]</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Priya.Naidoo@transnet.net</t>
+          <t>Helen.Sigcau@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TNPA/2025/06/0024/97546/RFP</t>
+          <t>TNPA/2025/07/0008/100135/RFP</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">RCB 06/2025/03 Land situated on Lot 223 Umhlathuzi No. 16230, portion of Lot 4/5 to Siza Nika, RBH 86-A-681 - Umhlathuzi Lot 4/6, RBH 86-A-657, Land situated on Lot 223 Umhlathuzi No. 16230, portion of Lot 4/1, RBH 86-A-659 – land and building situated in Northmoor road site 4/2, RBH 86-A-625 – Land situated on Lot 4/3 in Northmoor road, RBH 86-A-629 &amp; Land and building situated on Lot 4/4 
+          <t xml:space="preserve">THE LONG-TERM LEASING AND RE-DEVELOPMENT OF PREMISES FOR INDUSTRIAL/COMMERCIAL DESCRIBED AS LEASE L40691 OF ERF 12355, DURBAN-FU WITH IMPROVEMENTS THEREON, IN BAYHEAD,IN THE PORT OF DURBAN FOR A PERIOD OF TWENTY-FIVE (25) YEARS.
 </t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
-        <v>45811.68445601852</v>
+        <v>45841.48583333333</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45838.66666666666</v>
+        <v>45903.625</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>6/12/2025 9:00:00 AM</t>
+          <t>7/17/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>PORT OF RICHARDS BAY</t>
+          <t>Port of Durban</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97546</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100135</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3379,45 +3414,45 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Priya Naidoo     Transnet NPA    RCB</t>
+          <t>Thabisile Ndlovu  [Transnet NPA DBN]</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Priya.Naidoo@transnet.net</t>
+          <t>Thabisile.Ndlovu@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TNPA/2025/06/0023/97544/RFP</t>
+          <t>TNPA/2025/07/0017/100149/RFP</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>RCB 06/2025/02 Land situated on Lot 3/4 Umhlathuzi sites, Bayview Precinct, RBH 86-A-689</t>
+          <t>LEASING OF PREMISES DESCRIBED LEASE L40639 OF ERF 10013, DURBAN FU WITH IMPROVEMENTS THEREON, IN BAYHEAD IN THE PORT OF DURBAN FOR A PERIOD OF TWENTY (20) YEARS.</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
-        <v>45811.6837037037</v>
+        <v>45841.47009259259</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45838.66666666666</v>
+        <v>45903.625</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>6/12/2025 9:00:00 AM</t>
+          <t>7/17/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>PORT OF RICHARDS BAY</t>
+          <t>Port of Durban</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97544</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100149</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3437,45 +3472,45 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Priya Naidoo     Transnet NPA    RCB</t>
+          <t>Helen Sigcau [Transnet NPA DBN]</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Priya.Naidoo@transnet.net</t>
+          <t>Helen.Sigcau@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TPT/2025/06/0016/97651/RFQ</t>
+          <t>TNPA/2025/07/0015/100144/RFP</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve">FOR THE PROVISION OF THE SUPPLY AND INSTALLATION OF SUMP PUMPS; FOR TRANSNET SOC LTD (REG. NO. 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS (HEREINAFTER REFERRED TO AS “TPT”) AT THE PORT OF DURBAN: MAYDON WHARF AND AGRIPORT TERMINALS </t>
+          <t>LEASING OF PREMISES DESCRIBED LEASE L46042 OF ERF 12355, DURBAN-FU IN BAYHEAD IN THE PORT OF DURBAN FOR A PERIOD OF TWENTY (20) YEARS.</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
-        <v>45811.67271990741</v>
+        <v>45841.46976851852</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45825.5</v>
+        <v>45903.625</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>6/10/2025 11:00:00 AM</t>
+          <t>7/17/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t xml:space="preserve">DURBAN </t>
+          <t>Port of Durban</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97651</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100144</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3485,7 +3520,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>RFQ</t>
+          <t>RFP</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3495,45 +3530,45 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Darren Chetty    Transnet Port Terminals</t>
+          <t>Helen Sigcau [Transnet NPA DBN]</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Darren.Chetty@transnet.net</t>
+          <t>Helen.Sigcau@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TNPA/2025/06/0021/97540/RFP</t>
+          <t>TNPA/2025/07/0016/100146/RFP</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>RCB 06/2025/11 Land situated on Lot 2/7 and 2/8 Umhlatuzi sites, Bayview Precinct</t>
+          <t>LEASING OF PREMISES DESCRIBED LEASE L90636 OF ERF 12355, DURBAN-FU WITH IMPROVEMENTS THEREON, IN BAYHEAD IN THE PORT OF DURBAN FOR A PERIOD OF TWENTY (20) YEARS.</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
-        <v>45811.65217592593</v>
+        <v>45841.41440972222</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45838.66666666666</v>
+        <v>45903.625</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>6/12/2025 9:00:00 AM</t>
+          <t>7/17/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Port of Richards Bay </t>
+          <t>Port of Durban</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97540</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100146</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3553,47 +3588,45 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Priya Naidoo     Transnet NPA    RCB</t>
+          <t>Helen Sigcau [Transnet NPA DBN]</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Priya.Naidoo@transnet.net</t>
+          <t>Helen.Sigcau@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TNPA/2025/06/0022/97542/RFP</t>
+          <t>TNPA/2025/07/0014/100143/RFP</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve">RCB 06/2025/01 Land situated on Sub 21 (of 8) of Lot 5333 &amp; Remainder of lot 223, Umhlathuzi No. 16230
-RBH-86-A-620
-</t>
+          <t>LEASING OF PREMISES DESCRIBED LEASE L40640 OF ERF 12355, DURBAN-FU WITH IMPROVEMENTS THEREON IN BAYHEAD IN THE PORT OF DURBAN FOR A PERIOD OF TWENTY (20) YEARS.</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
-        <v>45811.65131944444</v>
+        <v>45841.41422453704</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45838.66666666666</v>
+        <v>45903.625</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>6/12/2025 9:00:00 AM</t>
+          <t>7/17/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>PORT OF RICHARDS BAY</t>
+          <t>Port of Durban</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97542</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100143</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3613,45 +3646,45 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Priya Naidoo     Transnet NPA    RCB</t>
+          <t>Helen Sigcau [Transnet NPA DBN]</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Priya.Naidoo@transnet.net</t>
+          <t>Helen.Sigcau@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TNPA/2025/06/0028/97552/RFP</t>
+          <t>TNPA/2025/07/0013/100142/RFP</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>RCB 06/2025/07	Land Situated on Newark Road, Bayview precinct, RBH 87-A-6020</t>
+          <t>LEASING OF PREMISES DESCRIBED LEASE L46073 ERF 12355, DURBAN FU WITH IMPROVEMENTS THEREON, IN BAYHEAD IN THE PORT OF DURBAN FOR A PERIOD OF TWENTY (20) YEARS.</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
-        <v>45811.64928240741</v>
+        <v>45841.41403935185</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45838.66666666666</v>
+        <v>45903.625</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>6/12/2025 9:00:00 AM</t>
+          <t>7/17/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t xml:space="preserve">PORT OF RICHARDS BAY </t>
+          <t>Port of Durban</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97552</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100142</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3671,45 +3704,45 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Priya Naidoo     Transnet NPA    RCB</t>
+          <t>Helen Sigcau [Transnet NPA DBN]</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Priya.Naidoo@transnet.net</t>
+          <t>Helen.Sigcau@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>TNPA/2025/06/0032/97555/RFP</t>
+          <t>TE/2025/07/0004/100216/RFQ</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>RCB 06/2025/09	Land Situated in Sub 21 (of 8) of Lot 5333, Umhlathuzi lot 2/6, RBH 86-A-682</t>
+          <t>FOR THE RENTAL OF A 3-WHEEL WELDING TRACTOR AT TRANSNET ENGINEERING, GERMISTON FOR A PERIOD OF THREE (3) MONTHS</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
-        <v>45811.64877314815</v>
+        <v>45841.35746527778</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45838.66666666666</v>
+        <v>45849.625</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>6/12/2025 9:00:00 AM</t>
+          <t>7/8/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>PORT OF RICHARDS BAY</t>
+          <t>GERMISTON</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97555</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100216</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3719,7 +3752,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>RFP</t>
+          <t>RFQ</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3729,50 +3762,46 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Priya Naidoo     Transnet NPA    RCB</t>
+          <t>Mduduzi Mkhantshwa   Transnet Engineering   GMX</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Priya.Naidoo@transnet.net</t>
+          <t>Mduduzi.Mkhantshwa@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TNPA/2025/06/0031/97556/RFP</t>
+          <t>TPT/2025/07/0003/100095/RFP</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>RCB 06/2025/10	Water area Walk-on Moorings and slipway, New Ark Precinct, RBH-89-A-646</t>
+          <t>FOR THE SUPPLY AND DELIVER FOR GAP COVER OF FIRE-RETARDANT ROLLERS FOR TRANSNET PORT TERMINALS IN RICHARDS BAY, AS AND WHEN REQUIRED BASIS FOR A PERIOD OF SIX (6) MONTHS</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
-        <v>45811.64552083334</v>
+        <v>45840.6171412037</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45838.66666666666</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>6/12/2025 9:00:00 AM</t>
-        </is>
-      </c>
+        <v>45853.5</v>
+      </c>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>PORT OF RICHARDS BAY</t>
+          <t>RICHARDS BAY</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97556</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100095</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Goods</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3787,45 +3816,45 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Priya Naidoo     Transnet NPA    RCB</t>
+          <t>Samkele Bhengu   Transnet Port Terminals   RCB</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Priya.Naidoo@transnet.net</t>
+          <t>Samkele.Bhengu@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>TE/2025/06/0028/97530/RFP</t>
+          <t>TCC/2025/05/0001/95346/RFP</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>FOR THE APPOINTMENT OF A SERVICE PROVIDER TO REMOVE WASTE AND PROVIDE WASTE MANAGEMENT SERVICES IN THE GERMISTON PLANT &amp; CENTRAL CORRIDOR FOR A PERIOD OF THREE (3) YEARS</t>
+          <t>THE PROVISION OF TRANSACTIONAL ADVISORY SERVICES FOR THE DISPOSAL OF TRANSNET PROPERTIES (NON-CORE) ON AN “MONTH-TO-MONTH” BASIS FOR A MAXIMUM PERIOD OF TWELVE (12) MONTHS.</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
-        <v>45811.645</v>
+        <v>45840.48523148148</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45833.625</v>
+        <v>45863.625</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>6/12/2025 10:00:00 AM</t>
+          <t>7/11/2025 11:00:00 AM</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>GERMISTON</t>
+          <t>Johannesburg, Gauteng</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97530</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/95346</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3845,52 +3874,50 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Langanani Mphelo   Transnet Engineering   KPK</t>
+          <t>Deon Tobias   Transnet Corporate Centre   HQ</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Langanani.Mphelo@transnet.net</t>
+          <t>Deon.Tobias@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>TCC/2025/04/0004/93623/RFQ</t>
+          <t>TPT/2025/07/0014/99974/RFQ</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve">FOR THE PROVISION OF: ARTWORK VALUATION AND PROVENANCE SERVICES 
-FOR A ONCE OFF PERIOD
-</t>
+          <t>PROVISION OF D02 MOVING HEAD STRUCTURAL REPAIRS FOR TRANSNET PORT TERMINALS IN RICHARDS BAY AS ONCE OFF.</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
-        <v>45811.58258101852</v>
+        <v>45840.46164351852</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45825.5</v>
+        <v>45854.5</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>6/10/2025 10:00:00 AM</t>
+          <t>7/9/2025 11:30:00 AM</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>National</t>
+          <t>RICHARDS BAY</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/93623</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/99974</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Goods &amp; Services</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3905,45 +3932,41 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Matlhatsi Boshomane   Transnet Corporate   Johannesburg</t>
+          <t>Leslie Thabede   Transnet Port Terminals   RCB</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Matlhatsi.Boshomane@transnet.net</t>
+          <t>Leslie.Thabede@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>TPT/2025/06/0005/97601/RFQ</t>
+          <t>TCC/2025/05/0001/95410/RFI</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>FOR THE PROVISION OF BHEKULWANDLE LIBRARY WINDOWS AT PIER 1 CONTAINER TERMINAL</t>
+          <t>FOR THE PROVISION OF AN INTEGRATED FLEET AND FUEL MANAGEMENT SYSTEM FOR ON-ROAD VEHICLES</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
-        <v>45811.52664351852</v>
+        <v>45840.36537037037</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45821.5</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>6/10/2025 10:00:00 AM</t>
-        </is>
-      </c>
+        <v>45866.5</v>
+      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Pier 1 Container Terminal</t>
+          <t>National</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97601</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/95410</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3953,7 +3976,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>RFQ</t>
+          <t>RFI</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3963,41 +3986,45 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Chris Bodenstein   Transnet Port Terrminals   DBN</t>
+          <t>Mahlodi Kganyago   Transnet Corporate Centre   Johannesburg</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Chris.Bodenstein@transnet.net</t>
+          <t>Mahlodi.Kganyago@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TFR/2025/06/0006/97612/RFQ</t>
+          <t>TE/2025/07/0042/100029/RFQ</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>FOR THE SUPPLY, DELIVERY AND RENTAL OF PERWAY AND WELDING TOOLS AT ERMELO FOR THE PERIOD OF SIX (6) MONTHS</t>
+          <t>DSG AND OKK MACHINE SPARES</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
-        <v>45811.44056712963</v>
+        <v>45839.78354166666</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45826.41666666666</v>
-      </c>
-      <c r="E63" t="inlineStr"/>
+        <v>45849</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>7/4/2025 10:00:00 AM</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>ERMELO</t>
+          <t>FABRICATION BUSINESS</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97612</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/100029</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -4017,41 +4044,45 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Dudu Mkhwebane   Transnet Freight Rail   Pretoria</t>
+          <t>Nokuthula Kekana          Transnet Engineering   Dbn</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Dudu.Mkhwebane@transnet.net</t>
+          <t>Nokuthula.Kekana@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TFR/2025/06/0010/97514/RFP</t>
+          <t>TNPA/2025/06/0015/99272/RFP</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>FOR THE PROVISION AND DELIVERY OF HIGH AND MEDIUM PRODUCTION BALLAST TAMPERS FOR COAL ANNUAL SHUTDOWN</t>
+          <t>REQUEST FOR PROPOSAL TO LEASE LAND IN EXTENT OF 190m2 AT ALKMAAR ROAD IN MARINE ENGINEERING PRECINCT: PORT OF CAPE TOWN FOR A PERIOD OF UP TO TEN (10) YEARS.</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
-        <v>45810.5594212963</v>
+        <v>45839.64337962963</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45832.41666666666</v>
-      </c>
-      <c r="E64" t="inlineStr"/>
+        <v>45869.5</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>7/4/2025 10:00:00 AM</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>North Corridor</t>
+          <t>port of cape town</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97514</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/99272</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -4071,56 +4102,55 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Dudu Mkhwebane   Transnet Freight Rail   Pretoria</t>
+          <t>Mcebo Mhlanga   Transnet NPA   CPT</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Dudu.Mkhwebane@transnet.net</t>
+          <t>Mcebo.Mhlanga@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TPT/2025/06/0007/97473/RFQ</t>
+          <t>TNPA/2025/07/0005/99939/RFP</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve">FOR THE PROVISION OF TRANSFORMER NO. 3 PURIFICATION AT PIER 1 CONTAINER TERMINAL 
-</t>
+          <t>REQUEST FOR PROPOSAL TO LEASE PREMISES IN EXTENT OF 1 502.4m2 AT OCEAN ROAD IN MARINE ENGINEERING PRECINCT: PORT OF CAPE TOWN FOR A PERIOD OF UP TO TEN (10) YEARS.</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
-        <v>45810.5203125</v>
+        <v>45839.6274537037</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45819.5</v>
+        <v>45869.5</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>6/6/2025 10:00:00 AM</t>
+          <t>7/4/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Pier 1 Container Terminal</t>
+          <t>PORT OF CAPE TOWN</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97473</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/99939</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Goods &amp; Services</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>RFQ</t>
+          <t>RFP</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4130,45 +4160,45 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Amar Hurku          Transnet Port Terminals  DBN</t>
+          <t>Mcebo Mhlanga   Transnet NPA   CPT</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Amar.Hurku@transnet.net</t>
+          <t>Mcebo.Mhlanga@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TFR/2025/06/0004/97467/RFP</t>
+          <t>TNPA/2025/07/0007/99942/RFP</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>THE PROVISION TO RE-INSTATE OHTE INFRASTRUCTURE BETWEEN RUSTENBURG AND THABAZIMBI</t>
+          <t>REQUEST FOR PROPOSAL TO LEASE PREMISES IN EXTENT OF 199.7m² DESCRIBED AS OFFICE SPACE LOCATED IN HERIBI HOUSE: PORT OF CAPE TOWN FOR A PERIOD OF UP TO TEN (10) YEARS.</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
-        <v>45810.44561342592</v>
+        <v>45839.62660879629</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45825.41666666666</v>
+        <v>45869.5</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>6/10/2025 11:00:00 AM</t>
+          <t>7/4/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>RUSTENBURG AND THABAZIMBI</t>
+          <t>PORT OF CAPE TOWN</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97467</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/99942</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -4188,46 +4218,50 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Dudu Mkhwebane   Transnet Freight Rail   Pretoria</t>
+          <t>Mcebo Mhlanga   Transnet NPA   CPT</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Dudu.Mkhwebane@transnet.net</t>
+          <t>Mcebo.Mhlanga@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TPT/2025/06/0002/97443/RFP</t>
+          <t>TNPA/2025/07/0006/99940/RFP</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>FOR THE SUPPLY &amp; DELIVERY OF BATTERIES FOR TRANSNET SOC LTD (REG. NO 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS (HEREINAFTER REFERRED TO AS “TPT”) AT THE DURBAN CONTAINER TERMINAL (PIER 1 AND 2) ON AN AS AND WHEN BASIS FOR A PERIOD OF THREE (3) YEARS.</t>
+          <t>REQUEST FOR PROPOSAL TO LEASE A PORTION OF OFFICE SPACE WITH PARKING AT BON 1: PORT OF CAPE TOWN FOR A PERIOD OF UP TO TEN (10) YEARS.</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
-        <v>45810.34425925926</v>
+        <v>45839.62660879629</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45831.41666666666</v>
-      </c>
-      <c r="E67" t="inlineStr"/>
+        <v>45869.5</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>7/31/2025 10:00:00 AM</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Durban Container -Pier 1 and 2 </t>
+          <t>PORT OF CAPE TOWN</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97443</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/99940</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Goods</t>
+          <t>Goods &amp; Services</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4242,50 +4276,50 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>TPT-Tenders TPT</t>
+          <t>Mcebo Mhlanga   Transnet NPA   CPT</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>TendersTPT@transnet.net</t>
+          <t>Mcebo.Mhlanga@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>TPT/2025/05/0019/97428/RFP</t>
+          <t>TNPA/2025/07/0008/99944/RFP</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>FOR THE PROVISION OF CANTEEN AND CATERING SERVICES FOR TRANSNET SOC LTD (REG. NO. 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS (HEREINAFTER REFERRED TO AS “TPT”) AT THE NGQURA CONTAINER TERMINAL (NCT) AND PORT OF PORT ELIZABETH (PE)FOR A PERIOD OF THREE (3) YEARS.</t>
+          <t>REQUEST FOR PROPOSAL TO LEASE PREMISES IN EXTENT OF 13 239m2 AT BERRIO ROAD IN MARINE ENGINEERING PRECINCT: PORT OF CAPE TOWN FOR A PERIOD OF UP TO TEN (10) YEARS.</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
-        <v>45807.66918981481</v>
+        <v>45839.6259375</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45835.95833333334</v>
+        <v>45869.5</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>6/18/2025 10:00:00 AM</t>
+          <t>7/4/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Port Elizabeth</t>
+          <t>PORT OF CAPE TOWN</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97428</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/99944</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Goods &amp; Services</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4300,55 +4334,55 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Bellinda Stemele     Transnet Port Terminals   PLZ</t>
+          <t>Mcebo Mhlanga   Transnet NPA   CPT</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Bellinda.Stemele@transnet.net</t>
+          <t>Mcebo.Mhlanga@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>TPT/2025/05/0026/96781/RFQ</t>
+          <t>TPT/2025/07/0012/99971/RFP</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>FOR THE  PROVISION OF A01, A02,A03 &amp; B GALLERY LIGHTING TO TRANSNET PORT TERMINAL IN RICHARDS BAY AS ONCE OFF.</t>
+          <t>PROVISION OF PEST CONTROL SERVICES FOR TRANSNET SOC LTD (REG.NO 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS (HEREINAFTER REFERRED TO AS “TPT”) AT THE DURBAN BBC TERMINALS FOR A PERIOD OF THIRTY-SIX (36) MONTHS</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
-        <v>45807.63056712963</v>
+        <v>45839.53358796296</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45819.5</v>
+        <v>45863.5</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>6/4/2025 11:00:00 AM</t>
+          <t>7/7/2025 11:00:00 AM</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>RICHARDS BAY</t>
+          <t>DURBAN</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96781</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/99971</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Goods &amp; Services</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>RFQ</t>
+          <t>RFP</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4358,55 +4392,52 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Leslie Thabede   Transnet Port Terminals   RCB</t>
+          <t>Zine Mdaki     Transnet Port Terminals   DBN</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Leslie.Thabede@transnet.net</t>
+          <t>Zine.Mdaki@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>TCC/2024/01/0002/54684/RFP</t>
+          <t>TFR/2025/06/0007/99872/RFQ</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>FOR THE PROVISION OF TECHNICAL SERVICES ON A MIGRATION FROM SAP ECC6 TO SAP S/4HANA FOR TRANSNET CORPORATE CENTER (TCC) FOR A PERIOD OF TWELVE (12) MONTHS.</t>
+          <t xml:space="preserve">SUPPLY AND INSTALLATION OF SAFE DOOR AND REFURBISHMENT OF RELAY ROOMS IN KIMBERLEY
+</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
-        <v>45807.59373842592</v>
+        <v>45838.51762731482</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45838.5</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>6/6/2025 11:00:00 AM</t>
-        </is>
-      </c>
+        <v>45854.41666666666</v>
+      </c>
+      <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>National</t>
+          <t>KIMBERLEY</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/54684</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/99872</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Goods &amp; Services</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>RFP</t>
+          <t>RFQ</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4416,52 +4447,50 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Reetsang Modise    Transnet Corporate    JHB</t>
+          <t>Susan DeJongh, TFR (RME)</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Reetsang.Modise@transnet.net</t>
+          <t>Susan.DeJongh@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>TNPA/2025/05/0015/97399/RFP</t>
+          <t>TCC/2025/06/0001/97995/RFP</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>REQUEST FOR PROPOSALS FOR THE LEASING OF PROPERTIES DESCRIBED AS PEH/05/2025/01 - PEH/05/2025/09
-OWNED BY TRANSNET SOC LIMITED TRADING THROUGH ITS OPERATING DIVISION
-TRANSNET NATIONAL PORTS AUTHORITY IN THE PORT OF PORT ELIZABETH.</t>
+          <t>FOR THE APPOINTMENT OF A SERVICE PROVIDER TO IMPLEMENT THE PROCUREMENT MASTER DATA ENABLEMENT SOLUTION FOR A PERIOD OF TWO (2) YEARS.</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
-        <v>45807.57770833333</v>
+        <v>45838.49473379629</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45838.5</v>
+        <v>45860.66666666666</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>6/13/2025 12:00:00 PM</t>
+          <t>7/8/2025 12:00:00 AM</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Port of Port Elizabeth</t>
+          <t>Johannesburg</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97399</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97995</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Goods &amp; Services</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4476,55 +4505,55 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Anja Moller    Transnet NPA   PLZ</t>
+          <t>Thandeka Nondwangu   Transnet Corporate   Johannesburg</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Anja.Moller@transnet.net</t>
+          <t>Thandeka.Nondwangu@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>TNPA/2025/04/0007/94803/RFQ</t>
+          <t>TNPA/2025/06/0024/99289/RFP</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PROVISION FOR THE REPAIRS AND MAINTENANCE OF WHARF FOREMAN FOR CIVIL MAINTENANCE DEPARTMENT AT THE PORT OF RICHARDS BAY FOR A PERIOD OF THREE (03) MONTHS</t>
+          <t>REQUEST FOR PROPOSAL TO LEASE LAND IN EXTENT OF 16.25m2 AT ELLIOTT BASIN IN MARINE ENGINEERING PRECINCT: PORT OF CAPE TOWN FOR A PERIOD OF UP TO TEN (10) YEARS.</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
-        <v>45807.52611111111</v>
+        <v>45838.48141203704</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45838.5</v>
+        <v>45869.5</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>6/18/2025 10:00:00 AM</t>
+          <t>7/4/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>TNPA RICHARDS BAY</t>
+          <t>port of cape town</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/94803</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/99289</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Goods &amp; Services</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>RFQ</t>
+          <t>RFP</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4534,41 +4563,45 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Zandile Ncayiyane   Transnet NPA   Richardsbay</t>
+          <t>Mcebo Mhlanga   Transnet NPA   CPT</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Zandile.Ncayiyane@transnet.net</t>
+          <t>Mcebo.Mhlanga@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>TFR/2025/05/0015/97327/RFQ</t>
+          <t>TNPA/2025/06/0020/99283/RFP</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>FOR THE TEST AND REPAIR OF INTERNAL TRACTION TRANSFORMER FAULT AT TURFGROND AT, INFRA KOEDOESPOORT</t>
+          <t>REQUEST FOR PROPOSAL TO LEASE LAND IN EXTENT OF 2,680m2 AT SCEPTRE CRESCENT IN CONTAINER TERMINAL PRECINCT: PORT OF CAPE TOWN FOR A PERIOD OF UP TO TEN(10) YEARS.</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
-        <v>45807.3596875</v>
+        <v>45838.41864583334</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45819.41666666666</v>
-      </c>
-      <c r="E73" t="inlineStr"/>
+        <v>45869.5</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>7/4/2025 10:00:00 AM</t>
+        </is>
+      </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>KOEDOESPOORT</t>
+          <t>port of cape town</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97327</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/99283</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -4578,7 +4611,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>RFQ</t>
+          <t>RFP</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4588,46 +4621,50 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Dudu Mkhwebane   Transnet Freight Rail   Pretoria</t>
+          <t>Mcebo Mhlanga   Transnet NPA   CPT</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Dudu.Mkhwebane@transnet.net</t>
+          <t>Mcebo.Mhlanga@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>TFR/2025/05/0016/97328/RFP</t>
+          <t>TNPA/2025/06/0008/99252/RFP</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MAINTENANCE OF RAILWAY TRACK WITH ON-TRACK MEDIUM PRODUCTION UNIVERAL BALLAST TAMPING MACHINES AND A BALLAST STABILISER COUNTRYWIDE ON AN 'AS AND WHEN” REQUIRED' BASIS</t>
+          <t>REQUEST FOR PROPOSAL TO LEASE LAND IN EXTENT OF 2,268.5m2 AT EASTERN MOLE ROAD, TANKER BASIN IN LIQUID BULK PRECINCT: PORT OF CAPE TOWN FOR A PERIOD OF UP TO TEN (10) YEARS.</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
-        <v>45807.33966435185</v>
+        <v>45838.41842592593</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45821.41666666666</v>
-      </c>
-      <c r="E74" t="inlineStr"/>
+        <v>45869.5</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>7/4/2025 10:00:00 AM</t>
+        </is>
+      </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Countrywide </t>
+          <t>port of cape town</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97328</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/99252</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Goods &amp; Services</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4642,52 +4679,55 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Lolo Sokhela          Transnet Freight Rail   JHB</t>
+          <t>Mcebo Mhlanga   Transnet NPA   CPT</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Lolo.Sokhela@transnet.net</t>
+          <t>Mcebo.Mhlanga@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>TE/2025/05/0022/97249/RFQ</t>
+          <t>TNPA/2025/06/0014/99270/RFP</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TE25-BFX-05B-14748
-PROVIDE, SERV;RECERTIFY,XB SAMPLE TEST</t>
+          <t>REQUEST FOR PROPOSAL TO LEASE LAND IN EXTENT OF 225m2 AT SEAFARER CIRCLE IN CONTAINER TERMINAL PRECINCT: PORT OF CAPE TOWN FOR A PERIOD OF UP TO TEN (10) YEARS.</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
-        <v>45806.6893287037</v>
+        <v>45838.41833333333</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45820.75</v>
-      </c>
-      <c r="E75" t="inlineStr"/>
+        <v>45869.5</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>7/4/2025 10:00:00 AM</t>
+        </is>
+      </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Wagons Bloemfontein</t>
+          <t>port of cape town</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97249</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/99270</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Goods &amp; Services</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>RFQ</t>
+          <t>RFP</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4697,45 +4737,46 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Tebogo Cholo   Transnet Engineering   Bloemfontein</t>
+          <t>Mcebo Mhlanga   Transnet NPA   CPT</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Tebogo.Cholo@transnet.net</t>
+          <t>Mcebo.Mhlanga@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>TNPA/2025/04/0017/94422/RFP</t>
+          <t>TNPA/2025/06/0021/99286/RFP</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>REPLACEMENT AND INSTALLATION OF FENCE AT THE PORT OF NGQURA AND COEGA KOP QUARRY FOR A PERIOD OF TEN (10) MONTH</t>
+          <t>REQUEST FOR PROPOSAL TO LEASE LAND IN EXTENT OF 32.5m2 AT ELLIOTT BASIN IN
+MARINE ENGINEERING PRECINCT: PORT OF CAPE TOWN FOR A PERIOD OF UP TO TEN (10) YEARS.</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
-        <v>45806.62247685185</v>
+        <v>45838.40350694444</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45838.625</v>
+        <v>45869.5</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>6/11/2025 10:00:00 AM</t>
+          <t>7/4/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>PORT OF NGQURA</t>
+          <t>port of cape town</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/94422</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/99286</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4755,52 +4796,50 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Kwanele Mtembu   Transnet NPA   East London</t>
+          <t>Mcebo Mhlanga   Transnet NPA   CPT</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Kwanele.Mtembu@transnet.net</t>
+          <t>Mcebo.Mhlanga@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>TFR/2025/05/0009/97240/RFP</t>
+          <t>TNPA/2025/06/0018/99278/RFP</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>FOR THE: DESIGN, SUPPLY, INSTALLATION, PRE-TESTING AND FAULT FINDING OF 
-VARIOUS ASSOCIATED EQUIPMENT AT QUAIL, PIETERS AND PEPWORTH 3KV DC 
-TRACTION SUBSTATIONS UNDER THE CONTROL OF DEPOT ENGINEER.</t>
+          <t>REQUEST FOR PROPOSAL TO LEASE LAND IN EXTENT OF 2,043m2 AT SCEPTRE CRESCENT IN CONTAINER TERMINAL: PORT OF CAPE TOWN FOR A PERIOD OF UP TO TEN (10) YEARS.</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
-        <v>45806.51459490741</v>
+        <v>45838.37079861111</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45825.41666666666</v>
+        <v>45869.5</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>6/6/2025 10:00:00 AM</t>
+          <t>7/4/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Ladysmith</t>
+          <t>port of cape town</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97240</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/99278</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Goods</t>
+          <t>Goods &amp; Services</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4815,50 +4854,50 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Mduduzi Khoza    Transnet Freight Rail  KZN</t>
+          <t>Mcebo Mhlanga   Transnet NPA   CPT</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Mduduzi.Khoza@transnet.net</t>
+          <t>Mcebo.Mhlanga@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>TNPA/2025/02/0016/89905/RFP</t>
+          <t>TNPA/2025/06/0019/99282/RFP</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>HEALTH AND SAFETY AGENT/S ON THE PORT ELIZABETH (PE) FOR CIVIL BULK INFRASTRUCTURE UPGRADE (FOR A PERIOD OF THIRTY-SIX (36) MONTHS) AND/OR MARINE INFRASTRUCTURE UPGRADE (FOR A PERIOD OF TWENTY-FOUR (24) MONTHS) AND/OR NATIONAL FIRE SERVICES INFRASTRUCTURE EQUIPMENT UPGRADE PHASE 2A  (FOR A PERIOD OF FIFTEEN (15) MONTHS)</t>
+          <t>REQUEST FOR PROPOSAL TO LEASE LAND IN EXTENT OF 1,300m2 AT SCEPTRE CRESCENT IN CONTAINER TERMINAL PRECINCT: PORT OF CAPE TOWN FOR A PERIOD OF UP TO TEN (10) YEARS.</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
-        <v>45806.48064814815</v>
+        <v>45838.37050925926</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45827.5</v>
+        <v>45869.5</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>6/5/2025 10:00:00 AM</t>
+          <t>7/4/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Port of Port Elizabeth</t>
+          <t>port of cape town</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/89905</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/99282</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Goods &amp; Services</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4873,50 +4912,51 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Omashree Balie (Vanessa)    Transnet National Ports Authority  PLZ</t>
+          <t>Mcebo Mhlanga   Transnet NPA   CPT</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Omashree.Balie@transnet.net</t>
+          <t>Mcebo.Mhlanga@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>TNPA/2025/03/0002/92645/RFP</t>
+          <t>TNPA/2025/06/0017/99276/RFP</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>THE APPOINTMENT OF A PROFESSIONAL SERVICE PROVIDER FOR THE BOEGOEBAAI PORT AND RAIL DEVELOPMENT MARKET RESEARCH STUDIES FOR A PERIOD OF SIX (6) MONTHS</t>
+          <t>REQUEST FOR PROPOSAL TO LEASE LAND IN EXTENT OF 191m2 AT ALKMAAR ROAD IN
+MARINE ENGINEERING PRECINCT: PORT OF CAPE TOWN FOR A PERIOD OF UP TO TEN (10) YEARS.</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
-        <v>45806.45256944445</v>
+        <v>45838.37002314815</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45835.66666666666</v>
+        <v>45869.5</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>6/6/2025 10:00:00 AM</t>
+          <t>7/4/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>BOEGOEBAAI, Northern Cape</t>
+          <t>port of cape town</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/92645</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/99276</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Goods &amp; Services</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4931,55 +4971,56 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Zandile Mhlongo [Transnet NPA Ngqura]</t>
+          <t>Mcebo Mhlanga   Transnet NPA   CPT</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Zandile.Mhlongo2@transnet.net</t>
+          <t>Mcebo.Mhlanga@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>TPT/2025/05/0004/97217/RFQ</t>
+          <t>TNPA/2025/06/0022/99287/RFP</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>FOR THE PROVISION OF REPAIRS TO WASH BAY ROOF &amp; HAULER WORKSHOP BUILDING</t>
+          <t>REQUEST FOR PROPOSAL TO LEASE LAND IN EXTENT OF 32.5m2 AT ELLIOTT BASIN IN
+MARINE ENGINEERING PRECINCT: PORT OF CAPE TOWN FOR A PERIOD OF UP TO TEN (10) YEARS.</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
-        <v>45806.4412962963</v>
+        <v>45838.35619212963</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45821.5</v>
+        <v>45869.5</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>6/10/2025 10:00:00 AM</t>
+          <t>7/4/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Pier 1 Container Terminal</t>
+          <t>port of cape town</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97217</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/99287</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Goods &amp; Services</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>RFQ</t>
+          <t>RFP</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4989,50 +5030,50 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Chris Bodenstein   Transnet Port Terrminals   DBN</t>
+          <t>Mcebo Mhlanga   Transnet NPA   CPT</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Chris.Bodenstein@transnet.net</t>
+          <t>Mcebo.Mhlanga@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>TE/2025/05/0007/97214/RFP</t>
+          <t>TNPA/2025/06/0006/99249/RFP</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>FOR THE SUPPLY AND DELIVERY OF XV, XN AND XB WAGONS SAFETY RELIEF VALVES FOR TRANSNET ENGINEERING, FOR GERMISTON AND BLOEMFONTEIN ON AN “AS AND WHEN” REQUIRED BASIS FOR A PERIOD OF FIVE (5) YEARS</t>
+          <t>REQUEST FOR PROPOSAL TO LEASE LAND IN EXTENT OF 2,444.6m2 AT EASTERN MOLE ROAD, TANKER BASIN IN LIQUID BULK PRECINCT: PORT OF CAPE TOWN FOR A PERIOD OF UP TO TEN (10) YEARS.</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
-        <v>45806.38208333333</v>
+        <v>45838.35583333333</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45838.66666666666</v>
+        <v>45869.5</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>6/11/2025 11:00:00 AM</t>
+          <t>7/4/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Bloemfontein and Germiston</t>
+          <t>Port of Cape Town</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97214</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/99249</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Goods</t>
+          <t>Goods &amp; Services</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5047,50 +5088,51 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Millicent Segane   Transnet Engineering   KDS</t>
+          <t>Mcebo Mhlanga   Transnet NPA   CPT</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Millicent.Segane@transnet.net</t>
+          <t>Mcebo.Mhlanga@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>TNPA/2024/10/0003/80674/RFP</t>
+          <t>TNPA/2025/06/0023/99288/RFP</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>RFP REQUEST FOR THE PROVISION OF DRY DOCK MAINTENANCE OF THE LAUNCH KITE, PILOT BOAT AVOCET, WORK BOAT CRESTED TERN, TUG OSPREY, TUG CORMORANT, TUG JUTTEN/LOTHENI AND TUG CHARDONNAY FOR TRANSNET NATIONAL PORTS AUTHORITY (TNPA), PORT OF SALDANHA, ON AN AS AND WHEN REQUIRED BASIS FOR A PERIOD OF THIRTY-SIX (36) MONTHS</t>
+          <t>REQUEST FOR PROPOSAL TO LEASE LAND IN EXTENT OF 32.5m2 AT ELLIOTT BASIN IN
+MARINE ENGINEERING PRECINCT: PORT OF CAPE TOWN FOR A PERIOD OF UP TO TEN (10) YEARS.</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
-        <v>45806.37510416667</v>
+        <v>45838.35490740741</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45832.58333333334</v>
+        <v>45869.5</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>6/10/2025 11:00:00 AM</t>
+          <t>7/4/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Transnet National Ports Authority, Port of Saldanha</t>
+          <t>port of cape town</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/80674</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/99288</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Goods &amp; Services</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -5105,45 +5147,42 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Natalie Joubert          Transnet National Ports Authority   SLD</t>
+          <t>Mcebo Mhlanga   Transnet NPA   CPT</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Natalie.Joubert@transnet.net</t>
+          <t>Mcebo.Mhlanga@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>TCC/2025/03/0005/91127/RFP</t>
+          <t>TPT/2025/06/0034/99817/RFQ</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>For an appointment of a publishing house to wholly develop, publish, print and distribute one Magazine for a period of (3) Three years</t>
+          <t xml:space="preserve">FOR THE PROVISION TO INSTALL TP1 POSITIONER VARIABLE SPEED DRIVES FOR SALDANHA IRON ORE TERMINAL FOR THE PORT OF SALDANHA FOR A ONCE OFF PERIOD.
+</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
-        <v>45805.73349537037</v>
+        <v>45835.63086805555</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45826.5</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>6/5/2025 11:00:00 AM</t>
-        </is>
-      </c>
+        <v>45860.66666666666</v>
+      </c>
+      <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>National</t>
+          <t>SALDANHA PORT TERMINALS</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/91127</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/99817</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -5153,7 +5192,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>RFP</t>
+          <t>RFQ</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5163,45 +5202,41 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Abednego Marosane  Transnet  Corporate   JHB</t>
+          <t>Njabulo Hlophe    Transnet Port Terminals   Saldanha</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Abednego.Marosane@transnet.net</t>
+          <t>Njabulo.Hlophe@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>TNPA/2025/04/0018/93883/RFQ</t>
+          <t>TPT/2025/06/0016/99785/RFP</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>For the Provision of Roof Repairs and General Building Maintenance Services at the ex-Transtel building at TNPA in the Port of Richards Bay for a period of four (4) months.</t>
+          <t>FOR THE SUPPLY, REPAIR AND FITMENT OF HYDRAULIC PIPES AND FITTINGS FOR TRANSNET SOC LTD REG. NO. 1990/000900) OPERATING AS TRANSNET PORT TERMINALS (HEREINAFTER REFERRED TO AS “TPT”) FOR THE DURBAN CONTAINER TERMINALS PIER 1 AND PIER 2</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
-        <v>45805.58128472222</v>
+        <v>45835.49928240741</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45820.5</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>6/5/2025 10:00:00 AM</t>
-        </is>
-      </c>
+        <v>45849.5</v>
+      </c>
+      <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Port of Richards Bay</t>
+          <t xml:space="preserve">Durban Container Terminal Pier 1 and Pier 2 </t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/93883</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/99785</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -5211,7 +5246,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>RFQ</t>
+          <t>RFP</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5221,46 +5256,50 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Eunita Mfeka   Transnet National Ports Authority     RCB</t>
+          <t>Hlengiwe Mthimkhulu     Transnet Port Terminals   DBN</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Eunita.Mfeka@transnet.net</t>
+          <t>Hlengiwe.Mthimkhulu@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>TE/2025/03/0003/92732/RFQ</t>
+          <t>TNPA/2025/06/0014/98777/RFQ</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>LAB CONSUMABLES</t>
+          <t xml:space="preserve">FOR THE PROVISION TO SUPPLY, TRANSPORT, AND UNLOAD FABRICATED STEEL COMPONENTS, INCLUDING SPECIFIC FABRICATED STEEL ARTICLES, FOR MOUNTING TYRE FENDERS ON THE QUAYSIDE, AND INSTALLATION OF HANDRAILING FOR A PERIOD OF TWELVE (12) MONTHS                                                                                                                                                                             </t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
-        <v>45805.36445601852</v>
+        <v>45835.47584490741</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45818.625</v>
-      </c>
-      <c r="E85" t="inlineStr"/>
+        <v>45853.66666666666</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>7/8/2025 10:00:00 AM</t>
+        </is>
+      </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Bloemfonein</t>
+          <t>Mossel Bay</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/92732</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/98777</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Goods</t>
+          <t>Goods &amp; Services</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5275,45 +5314,45 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Pieter Wentzel          Transnet  Engineering   KDS</t>
+          <t>Jody Ann Johnson     TNPA  MSB</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Pieter.Wentzel@transnet.net</t>
+          <t>JodyAnn.Johnson@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>TPT/2025/05/0025/97073/RFP</t>
+          <t>TFR/2025/06/0002/99747/RFP</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PROVISION OF OFFICE, BUILDING, WORKSHOP CLEANING AND TEA SERVICES FOR TRANSNET SOC LTD (REG. NO. 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS (HEREINAFTER REFERRED TO AS “TPT”) AT THE PORT OF DURBAN: MPT POINT, CAR TERMINAL, MAYDON WHARF AND AGRIBULK FOR A PERIOD OF THREE (3) YEARS.</t>
+          <t>TEST, REPAIR AND COMMISSION 132KV/3KV TRANSFORMERS AT VARIOUS 3KV DC SUBSTATIONS UNDER THE CONTROL OF NELSPRUIT DEPOT</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
-        <v>45804.70929398148</v>
+        <v>45835.36835648148</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45819.41666666666</v>
+        <v>45849.41666666666</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>6/3/2025 10:00:00 AM</t>
+          <t>7/4/2025 11:00:00 AM</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t xml:space="preserve">BBC </t>
+          <t>NELSPRUIT</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97073</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/99747</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -5333,46 +5372,50 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>TPT-Tenders TPT</t>
+          <t>Dudu Mkhwebane   Transnet Freight Rail   Pretoria</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>TendersTPT@transnet.net</t>
+          <t>Dudu.Mkhwebane@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>TE/2025/05/0005/96968/RFP</t>
+          <t>TE/2025/05/0046/97194/RFP</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>FOR THE PROVISION OF REPAIR, TESTING AND COMMISSIONING OF TWO RAIL-ROAD SHUNTING LOCOMOTIVES SALDANHA AT TRANSNET ENGINEERING FOR A ONCE-OFF PERIOD</t>
+          <t>FOR THE OUTSOURCING OF THE WINDING OF ARMATURES FOR THE (TRACTION MOTOR AND MOTOR ALTERNATOR), FOR 6E1 LOCOMOTIVE CLASS, FOR DELIVERY TO THE ROTATING MACHINE BUSINESS IN KOEDOESPOORT, FOR A PERIOD OF ONE (1) YEAR ON “AS AND WHEN REQUIRED” BASIS</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
-        <v>45804.58878472223</v>
+        <v>45834.55835648148</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45833.45833333334</v>
-      </c>
-      <c r="E87" t="inlineStr"/>
+        <v>45860.41666666666</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>7/10/2025 10:00:00 AM</t>
+        </is>
+      </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Saldanha</t>
+          <t>Pretoria</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96968</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97194</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Goods &amp; Services</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5387,35 +5430,37 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Charl du Preez          Transnet Engineering   SLR</t>
+          <t>Ephraim Ramaru    Transnet Engineering   KDS</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Charl.duPreez@transnet.net</t>
+          <t>Ephraim.Ramaru@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>TE/2025/05/0012/96985/RFQ</t>
+          <t>TE/2025/06/0020/99600/RFP</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>REQUEST FOR THE PROVISION OF PROCUREMENT SERVICES TO MUNCHER &amp;
-CONVEYOR PROJECT FOR THE SUPPLY OF: CONVEYOR COMPONENTS FOR THE
-CONVEYOR</t>
+          <t xml:space="preserve">FOR THE PROVISION OF WASTE REMOVAL SERVICES FOR KOEDOESPOORT PLANT , NORTH &amp; NORTH -EAST CORRIDOR FOR A PERIOD OF THREE (3) YEARS  </t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
-        <v>45804.47309027778</v>
+        <v>45834.49424768519</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45828.66666666666</v>
-      </c>
-      <c r="E88" t="inlineStr"/>
+        <v>45856.66666666666</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>7/2/2025 10:00:00 AM</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr">
         <is>
           <t>Koedoespoort</t>
@@ -5423,17 +5468,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96985</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/99600</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Goods &amp; Services</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>RFQ</t>
+          <t>RFP</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -5443,51 +5488,55 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Fortunate Ndala   Transnet Engineering   KDS</t>
+          <t>Hazey Mosalo          Transnet  Engineering  KDS</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Fortunate.Ndala@transnet.net</t>
+          <t>Hazey.Mosalo@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>TE/2025/05/0015/95158/RFI</t>
+          <t>TPT/2025/01/0007/87175/RFP</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>EXPRESSION OF INTEREST (EOI) REQUIRED IN RELATION TO TRIDEM AXLE BOGIE WITH OVERSLUNG SUSPENSION (TRAILER) FOR USE AT PORT TERMINAL, MARITIME BUSINESS, TRANSNET ENGINEERING, RICHARDS BAY.</t>
+          <t>FOR THE SUPPLY OF SPARES FOR FIRE DETECTION AND SUPPRESSION ON 5 YEARS CONTRACT ON AS AND WHEN REQUIRED BASIS AGREEMENT FOR TRANSNET SOC LTD (REG. N0 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS RICHARDS BAY (HEREINAFTER REFERRED TO AS “TPT RCB”)</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
-        <v>45804.37309027778</v>
+        <v>45834.3590625</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45819.58333333334</v>
-      </c>
-      <c r="E89" t="inlineStr"/>
+        <v>45856.5</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>7/3/2025 11:00:00 AM</t>
+        </is>
+      </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Maritime Business Richards Bay</t>
+          <t>Richards Bay</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/95158</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/87175</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Goods</t>
+          <t>Goods &amp; Services</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>RFI</t>
+          <t>RFP</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -5497,51 +5546,50 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Nokuthula Kekana          Transnet Engineering   Dbn</t>
+          <t>Nthombi Mtshali   Transnet Port Terminals  RCB</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Nokuthula.Kekana@transnet.net</t>
+          <t>Nthombi.Mtshali@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>TFR/2025/05/0028/96953/RFQ</t>
+          <t>TPT/2025/06/0012/99584/RFQ</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SUPPLY AND DELIVERY OF 400 ELBOW AND KNEE PADS TO TRANSNET RAIL -INFRASTRUCTURE MANAGER’S SECURITY DEPARTMENT.</t>
+          <t>FOR THE PROVISION OF INSTALL CAR WASH BOOTH AT G-SHED INCLUDING CIVIL WORK FOR TRANSNET SOC LTD (REG. NO. 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS (HEREINAFTER REFERRED TO AS “TPT”) AT THE PORT OF DURBAN FOR A PERIOD OF ONCE OFF.</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
-        <v>45804.32800925926</v>
+        <v>45833.90893518519</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45832.54166666666</v>
+        <v>45849.5</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>6/3/2025 11:00:00 AM</t>
+          <t>7/4/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gauteng </t>
+          <t xml:space="preserve">DURBAN </t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96953</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/99584</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Goods</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5556,45 +5604,45 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Thuli Mathebula   Transnet Freight Rail   JHB</t>
+          <t>Amanda Ben-Mazwi     Transnet Port Terminals   DBN</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Thuli.Mathebula@transnet.net</t>
+          <t>Amanda.Ben-Mazwi@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>TPT/2025/05/0026/96950/RFP</t>
+          <t>TNPA/2025/06/0010/98479/RFQ</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PROVISION TO REFURBISHMENT OF SUBSTATION 1A AND 1B AT NGQURA CONTAINER TERMINAL FOR TRANSNET SOC LTD (REG NO:1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS (HEREINAFTER REFERRED AS “TPT”) FOR NGQURA CONTAINER TERMINAL AS A ONCE OFF </t>
+          <t>CONSTRUCTION OF MANHOLES, INSTALLATION OF NEW WATER INLINE STRAINERS, ADDITIONAL WATER METERS, AND ISOLATION GATE VALVES AT THE PORT OF NGQURA FOR A ONCE-OFF PERIOD</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
-        <v>45803.6796875</v>
+        <v>45833.50910879629</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45835.58333333334</v>
+        <v>45854.66666666666</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>6/10/2025 11:00:00 AM</t>
+          <t>7/3/2025 12:30:00 PM</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t xml:space="preserve">PORT OF NGQURA CONTAINER TERMINAL </t>
+          <t>Port of Ngqura</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96950</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/98479</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -5604,7 +5652,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>RFP</t>
+          <t>RFQ</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -5614,53 +5662,55 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Snenhlanhla Mtshali    Transnet Port Terminals   PLZ</t>
+          <t>Sibulele  Mzizi     Transnet NPA    NGQ</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Snenhlanhla.Mtshali@transnet.net</t>
+          <t>Sibulele.Mzizi@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>TE/2025/05/0031/96921/RFQ</t>
+          <t>TNPA/2025/04/0007/94265/RFP</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>REQUEST FOR THE PROVISION OF PROCUREMENT SERVICES TO MUNCHER &amp;
-CONVEYOR PROJECT FOR THE SUPPLY OF: MUNCHER COMPONENTS FOR THE
-MUNCHER</t>
+          <t>FOR THE SUPPLY AND DELIVERY OF HOT MIX ASPHALT (MIX A AND MIX D), IN THE PORT OF DURBAN ON AN “AS AND WHEN” REQUIRED BASIS FOR THIRTY-SIX (36) MONTHS.</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
-        <v>45803.63376157408</v>
+        <v>45833.46327546296</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45828.66666666666</v>
-      </c>
-      <c r="E92" t="inlineStr"/>
+        <v>45862.58333333334</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>7/10/2025 10:00:00 AM</t>
+        </is>
+      </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Koedoespoort </t>
+          <t>Durban</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96921</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/94265</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Goods &amp; Services</t>
+          <t>Goods</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>RFQ</t>
+          <t>RFP</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -5670,52 +5720,51 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Fortunate Ndala   Transnet Engineering   KDS</t>
+          <t>Winile Xhakaza  [Transnet Eastern Region]</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Fortunate.Ndala@transnet.net</t>
+          <t>Winile.Xhakaza@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>TE/2025/05/0011/95898/RFQ</t>
+          <t>TE/2025/06/0027/99477/RFP</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TE25-BFX-05B-14532
-RECON, COMP;DRAWGEAR KEYSTONE</t>
+          <t>PROVISION OF HAZARDOUS WASTE MANAGEMENT SERVICES TO TRANSNET ENGINEERING AT SALT RIVER PLANT AND MAINTENANCE DEPOTS, BELLVILLE AND SALDANHA ON AN “AS AND WHEN” REQUIRED BASIS FOR A PERIOD OF THIRTY-SIX (36) MONTHS</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
-        <v>45800.63063657407</v>
+        <v>45832.66142361111</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45818.75</v>
+        <v>45854.45833333334</v>
       </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOEMFONTEIN WAGONS </t>
+          <t>Western Cape: Salt River, Bellville and Saldanha</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/95898</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/99477</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Goods</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>RFQ</t>
+          <t>RFP</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -5725,51 +5774,53 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Debra Jones   Transnet Engineering   BFN</t>
+          <t>Charl du Preez          Transnet Engineering   SLR</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Debra.Jones@transnet.net</t>
+          <t>Charl.duPreez@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>TCC/2025/05/0001/96361/RFP</t>
+          <t>TPT/2025/05/0003/96145/RFQ</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>THE PROVISION OF AN ACCREDITED YOUNG LEADERS PROGRAMME WITHIN TRANSNET, FOR A PERIOD OF THREE (3) YEARS.</t>
+          <t xml:space="preserve">FOR THE MANUFACTURE, SUPPLY AND DELIVERY OF HYDRAULIC WATER HOSE AND VARIOUS 
+FITTINGS FOR A PERIOD OF THIRTY-SIX (36) MONTHS ON AN AS AND WHEN REQUIRED BASIS
+</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
-        <v>45800.47005787037</v>
+        <v>45832.45542824074</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45835.66666666666</v>
+        <v>45849.66666666666</v>
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Transnet School of Rail, Esselen Park</t>
+          <t>Transnet Port Terminal Cape Town</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96361</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96145</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Goods</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>RFP</t>
+          <t>RFQ</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -5779,55 +5830,51 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Mpho Mohapi   Transnet Corporate Centre  JHB</t>
+          <t>Rozainne Scheepers   Transnet Port Terminals   Cape Town</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Mpho.Mohapi@transnet.net</t>
+          <t>Rozainne.Scheepers@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>TE/2025/05/0020/96663/RFQ</t>
+          <t>TPT/2025/04/0004/93140/RFP</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>REPAIR DAMAGED LEAKING ROOFS WITHIN THE RM BUSINESS WORKSHOP 150 EEL ROAD UMBILO</t>
+          <t>SUPPLY AND DELIVERY OF PERSONAL PROTECTIVE EQUIPMENT (PPE) FOR CAPE TOWN TERMINALS ON AN AS AND WHEN REQUIRED BASIS FOR A PERIOD OF THIRTY-SIX (36) MONTHS.</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
-        <v>45800.44152777778</v>
+        <v>45831.80179398148</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45825.54166666666</v>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>6/3/2025 11:00:00 AM</t>
-        </is>
-      </c>
+        <v>45853.66666666666</v>
+      </c>
+      <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Rotating Machine</t>
+          <t>CAPE TOWN - WESTERN CAPE</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96663</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/93140</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Goods</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>RFQ</t>
+          <t>RFP</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -5837,45 +5884,45 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Lesley Mtungwa          Transnet Engineering   Dbn</t>
+          <t>Noloyiso Alam    Transnet Port Terminals   CPT</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Lesley.Mtungwa@transnet.net</t>
+          <t>Noloyiso.Alam@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>TP/2025/04/0004/93373/RFP</t>
+          <t>TNPA/2024/10/0013/79500/RFP</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>FOR THE PROVISION OF WASTE REMOVAL SERVICES IN NORTHERN KZN (EMPANGENI, RICHARDS BAY AND VRYHEID AND SURROUNDING AREAS) FOR TRANSNET PROPERTY FOR A PERIOD OF THIRTY SIX (36) MONTHS</t>
+          <t>REQUEST FOR PROPOSALS FOR THE APPOINTMENT OF A LIQUID BULK TERMINAL OPERATOR TO DESIGN, FINANCE, DEVELOP, CONSTRUCT, OPERATE, MAINTAIN AND TRANSFER A LIQUID BULK TERMINAL FOR A CONCESSION PERIOD OF TWENTY-FIVE (25) YEARS AT THE PORT OF NGQURA</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
-        <v>45799.79829861111</v>
+        <v>45828.65216435185</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45825.5</v>
+        <v>45950.66666666666</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>5/29/2025 9:30:00 AM</t>
+          <t>7/9/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>NORTHERN KZN</t>
+          <t>Port of Ngqura</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/93373</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/79500</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -5895,55 +5942,55 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Oscar Mhlanga     Transnet Property   Durban</t>
+          <t>Zukiswa Nkonyeni   Transnet NPA   East London</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Oscar.Mhlanga@transnet.net</t>
+          <t>Zukiswa.Nkonyeni@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>TP/2025/04/0003/94085/RFP</t>
+          <t>TNPA/2025/05/0006/97357/RFI</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve">PROVISION OF PEST CONTROL SERVICES AT VRYHEID, EMPANGENI , RICHARDS BAY AND SURROUNDING AREAS FOR TRANSNET PROPERTY FOR A PERIOD OF 36 MONTHS. </t>
+          <t>REQUEST FOR INFORMATION (RFI) IN RESPECT OF THE SALE OF TWO (2) TM2500 MOBILE POWER UNITS</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
-        <v>45799.79804398148</v>
+        <v>45828.59291666667</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45821.58333333334</v>
+        <v>45860.66666666666</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>5/29/2025 11:00:00 AM</t>
+          <t>7/4/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t xml:space="preserve">DURBAN </t>
+          <t>Richards Bay</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/94085</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97357</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Goods &amp; Services</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>RFP</t>
+          <t>RFI</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5953,46 +6000,51 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Jennifer Manikam     *Transnet Property    DBN</t>
+          <t>Bhatisani Widzani   TNPA HQ</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Jennifer.Manikam@transnet.net</t>
+          <t>Bhatisani.Widzani@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>TCC/2025/04/0001/94467/RFP</t>
+          <t>TPT/2025/01/0051/86738/RFP</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>FOR THE APPOINTMENT OF FINANCIAL INSTITUTION(S) TO ACT AS LEAD ARRANGER(S) AND TRANSACTION ADVISOR(S) FOR SPECIFIC ISSUANCES UNDER TRANSNET’S R80 BILLION DOMESTIC MEDIUM-TERM NOTE (“DMTN”) PROGRAMME FOR A PERIOD OF THREE (3) YEARS.</t>
+          <t xml:space="preserve">FOR THE OF PROVISION OF RIGGING AND CRANE HIRE SERVICES ON AN AS AND WHEN REQUIRED BASIS FOR A PERIOD OF SIXTY (60) MONTHS AGREEMENT FOR TRANSNET SOC LTD (REG. N0 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS RICHARDS BAY (HEREINAFTER REFERRED TO AS “TPT RCB”)
+</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
-        <v>45798.68741898148</v>
+        <v>45827.62553240741</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45821.66666666666</v>
-      </c>
-      <c r="E98" t="inlineStr"/>
+        <v>45856.5</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>7/1/2025 11:00:00 AM</t>
+        </is>
+      </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>National</t>
+          <t>Richards Bay</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/94467</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/86738</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Goods &amp; Services</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -6007,51 +6059,55 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Nhlanhla Caluza   Transnet Corporate   Johannesburg</t>
+          <t>Nthombi Mtshali   Transnet Port Terminals  RCB</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Nhlanhla.Caluza@transnet.net</t>
+          <t>Nthombi.Mtshali@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>TFR/2025/05/0013/96567/RFQ</t>
+          <t>TFR/2025/06/0018/98740/RFP</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Provision of service for the maintenance, repair and installation (if necessary) of air conditioning units in Kimberley South relay rooms (Spuitfontein to De Aar) as and when required for a period of two (2) years.</t>
+          <t>FOR THE PROVISION OF CONSULTANCY SERVICES ON THE DEVELOPMENT OF A REGIONS NATIONAL OPERATIONS AND FUNDING STRATEGY FOR THE TRANSNET RAIL INFRASTRUCTURE MANAGER FOR A PERIOD OF SIX (6) MONTHS</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
-        <v>45798.6144212963</v>
+        <v>45821.82261574074</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45825.41666666666</v>
-      </c>
-      <c r="E99" t="inlineStr"/>
+        <v>45863.41666666666</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>6/23/2025 10:00:00 AM</t>
+        </is>
+      </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Kimberley</t>
+          <t xml:space="preserve">National </t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96567</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/98740</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Goods &amp; Services</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>RFQ</t>
+          <t>RFP</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -6061,47 +6117,50 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Chris van_Vuuren          Transnet Freight Rail   BLM</t>
+          <t>Lolo Sokhela          Transnet Freight Rail   JHB</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Chris.vanVuuren@transnet.net</t>
+          <t>Lolo.Sokhela@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>TPL/2024/04/0003/63385/RFP</t>
+          <t>TNPA/2025/06/0005/98660/RFP</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t xml:space="preserve">FOR THE SUPPLY OF SUPPORT AND MAINTENANCE SERVICES FOR IBM HARDWARE FOR A PERIOD OF TWO(2) YEARS
-</t>
+          <t>REQUEST FOR PROPOSAL FOR THE LEASING OF PREMISES DESCRIBED AS PORTION OF ERF 12460 (RESTAURANT/STORAGE/VERANDA) IN THE PORT OF MOSSEL BAY FOR A PERIOD OF FIVE (5) YEARS.</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
-        <v>45797.47945601852</v>
+        <v>45821.65576388889</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45821.5</v>
-      </c>
-      <c r="E100" t="inlineStr"/>
+        <v>45849.66666666666</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>6/27/2025 11:30:00 AM</t>
+        </is>
+      </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>TPL</t>
+          <t xml:space="preserve">Port of Mossel Bay </t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/63385</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/98660</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Goods &amp; Services</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -6116,50 +6175,51 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Fezeka Mhlongo   Transnet Pipelines       DBN</t>
+          <t>Lesego Makeketa   Transnet National Ports Authority  MSB</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Fezeka.Mhlongo@transnet.net</t>
+          <t>Lesego.Makeketa@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>TE/2025/04/0007/94658/RFP</t>
+          <t>TNPA/2025/06/0013/98493/RFP</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>FOR THE SUPPLY, DELIVERY, INSTALLATION, TESTING AND COMMISSIONING OF 9 OFF ROTARY SCREW TYPE COMPRESSORS AND AIR DRYERS FOR TRANSNET ENGINEERING AT VARIOUS CORRIDOR DEPOTS (NORTH CAPE AND CONTAINER CORRIDORS)</t>
+          <t xml:space="preserve"> LAND: 65,000m² AND BUILDING: 1,874m² AND CONVEYOR: 2,500m², LOCATED IN THE PORT OF RICHARDS BAY FOR A PERIOD OF TWENTY (20) YEARS.
+RBH-87-A-6038</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
-        <v>45793.60487268519</v>
+        <v>45819.64090277778</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45832.5</v>
+        <v>45869.66666666666</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>5/26/2025 9:30:00 AM</t>
+          <t>6/30/2025 12:00:00 PM</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>VARIOUS CORRIDOR DEPOTS (NORTH CAPE AND CONTAINER CORRIDORS)</t>
+          <t xml:space="preserve">Port of Richards Bay </t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/94658</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/98493</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Goods &amp; Services</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -6174,45 +6234,45 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Lesley Mtungwa          Transnet Engineering   Dbn</t>
+          <t>Priya Naidoo     Transnet NPA    RCB</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Lesley.Mtungwa@transnet.net</t>
+          <t>Priya.Naidoo@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>TCC/2024/12/0001/84866/RFP</t>
+          <t>TNPA/2025/06/0003/98000/RFQ</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>FOR THE PROVISION OF NETWORK DETECTION AND RESPONSE (NDR) SOLUTION FOR A PERIOD OF THREE (3) YEARS.</t>
+          <t>Ground Maintenance at various Lighthouse on the Central Eastern Region for 24 month period as and when required.</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
-        <v>45793.48670138889</v>
+        <v>45818.53450231482</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45827.5</v>
+        <v>45849.66666666666</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>5/23/2025 11:00:00 AM</t>
+          <t>6/24/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>National</t>
+          <t>CENTRAL EASTERN REGION</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/84866</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/98000</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -6222,7 +6282,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>RFP</t>
+          <t>RFQ</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -6232,341 +6292,337 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Mahlodi Kganyago   Transnet Corporate Centre   Johannesburg</t>
+          <t>Mxoleli Ngongoshe   Transnet NPA   CPT</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Mahlodi.Kganyago@transnet.net</t>
+          <t>Mxoleli.Ngongoshe@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
+          <t>TNPA/2025/05/0010/97003/RFQ</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ONCE-OFF ROOF REPAIR AT EX-PHOSPHATE BUILDING AT THE PORT OF RICHARDS BAY</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>45818</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>45856.5</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>7/4/2025 10:00:00 AM</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>PORT OF RICHARDS BAY</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97003</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>RFQ</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Priya Naidoo     Transnet NPA    RCB</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Priya.Naidoo@transnet.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>TFR/2025/06/0008/97860/RFI</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>REQUEST FOR INFORMATION (RFI) TO REQUEST FOR INFORMATION (RFI) FOR THE PROVISION OF A PORTABLE RAILWAY WHEEL MACHINING LATHE NATIONALLY FOR TRANSNET FREIGHT RAIL (TFR)</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>45813.45481481482</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>45863.5</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>6/20/2025 10:00:00 AM</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>NATIONALLY</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97860</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>RFI</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Lolo Sokhela          Transnet Freight Rail   JHB</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Lolo.Sokhela@transnet.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>TE/2025/06/0032/97764/RFP</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">THE PROVISION OF THE UPGRADING OF A 65-TON TRAVERSER TO 120 TONS AT TRANSNET ENGINEERING SALT RIVER FOR A PERIOD OF SIX MONTHS
+</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>45812.56971064815</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>45854.45833333334</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>6/11/2025 10:00:00 AM</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Salt River</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/97764</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>RFP</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Charl du Preez          Transnet Engineering   SLR</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Charl.duPreez@transnet.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>TCC/2024/01/0002/54684/RFP</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>FOR THE PROVISION OF TECHNICAL SERVICES ON A MIGRATION FROM SAP ECC6 TO SAP S/4HANA FOR TRANSNET CORPORATE CENTER (TCC) FOR A PERIOD OF TWELVE (12) MONTHS.</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>45807.59373842592</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>45852.5</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>6/6/2025 11:00:00 AM</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/54684</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>RFP</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Reetsang Modise    Transnet Corporate    JHB</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Reetsang.Modise@transnet.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
           <t>TE/2025/05/0003/96000/RFP</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t xml:space="preserve">THE DESIGN, INSTALLATION AND COMMISSIONING OF AN EFFLUENT TREATMENT PLANT FOR THE SALDANHA, CAMBRIDGE, BELLVILLE AND SWARTKOPS,  LOCOMOTIVE DEPOTS, TEN (10) MONTHS
 </t>
         </is>
       </c>
-      <c r="C103" s="2" t="n">
+      <c r="C107" s="2" t="n">
         <v>45792.64659722222</v>
       </c>
-      <c r="D103" s="2" t="n">
-        <v>45838.75</v>
-      </c>
-      <c r="E103" t="inlineStr">
+      <c r="D107" s="2" t="n">
+        <v>45852.75</v>
+      </c>
+      <c r="E107" t="inlineStr">
         <is>
           <t>5/27/2025 10:00:00 AM</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>SALDANHA, CAMBRIDGE, SWARTKOPS, BELVILLE</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/96000</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>Goods &amp; Services</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>RFP</t>
         </is>
       </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
         <is>
           <t>Naomi Jordaan    Transnet Engineering   BFN</t>
         </is>
       </c>
-      <c r="L103" t="inlineStr">
+      <c r="L107" t="inlineStr">
         <is>
           <t>Naomi.Jordaan@transnet.net</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>TCC/2024/05/0001/65599/RFP</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>THE ESTABLISHMENT OF AN  APPROVED LIST OF SERVICE PROVIDERS FOR PROVISION OF LEGAL SERVICES FOR A PERIOD OF FIVE (5) YEARS</t>
-        </is>
-      </c>
-      <c r="C104" s="2" t="n">
-        <v>45791.66534722222</v>
-      </c>
-      <c r="D104" s="2" t="n">
-        <v>45825.5</v>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>5/23/2024 11:00:00 AM</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Johannesburg</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/65599</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Services</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>RFP</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>Busi Chabalala      Transnet Corporate    JHB</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>Busi.Chabalala@transnet.net</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>TE/2025/04/0021/94921/RFP</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t xml:space="preserve">THE SUPPLY, DELIVERY, INSTALLATION, TESTING AND COMMISSIONING OF AN AUTOMATED GANTRY HEAVY DUTY CNC CONTROLLED 3m X 20m BED HIGH-DEFINITION PLASMA /OXYFUEL-GAS CUTTING MACHINE FOR THE RSE BUSINESS, DURBAN FOR A PERIOD OF FOUR (04) MONTHS
-</t>
-        </is>
-      </c>
-      <c r="C105" s="2" t="n">
-        <v>45791.47337962963</v>
-      </c>
-      <c r="D105" s="2" t="n">
-        <v>45821.75</v>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>5/19/2025 1:00:00 PM</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>RSE DURBAN</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/94921</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Goods &amp; Services</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>RFP</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>Naomi Jordaan    Transnet Engineering   BFN</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>Naomi.Jordaan@transnet.net</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>TFR/2025/05/0012/95751/RFI</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">REQUEST FOR INFORMATION (RFI) PROPOSAL FOR ADVANCED TECHNOLOGY ROLLING STOCK -SUPERSITE USING ADVANCED CONDITION ASSESSMENT TECHNOLOGIES, ARTIFICIAL 
-INTELLIGENCE TECHNOLOGIES, ROBOTICS TECHNOLOGIES AND MACHINE VISION -TECHNOLOGIES-</t>
-        </is>
-      </c>
-      <c r="C106" s="2" t="n">
-        <v>45790.86484953704</v>
-      </c>
-      <c r="D106" s="2" t="n">
-        <v>45828.41666666666</v>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>5/22/2025 10:00:00 AM</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">National </t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/95751</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Services</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>RFI</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>Lolo Sokhela          Transnet Freight Rail   JHB</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>Lolo.Sokhela@transnet.net</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>TFR/2025/05/0011/95743/RFP</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>MECHANICAL UPGRADE AT SASOLBURG DIESEL STORAGE DEPOT, FREE STATE.</t>
-        </is>
-      </c>
-      <c r="C107" s="2" t="n">
-        <v>45789.69364583334</v>
-      </c>
-      <c r="D107" s="2" t="n">
-        <v>45821.41666666666</v>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>5/22/2025 10:12:00 AM</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>SASOLBURG DIESEL STORAGE DEPOT, FREE STATE.</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/95743</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Goods &amp; Services</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>RFP</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>Thato Lehana     Transnet Freight Rail    JHB</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>Thato.Lehana@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>TCC/2025/03/0002/92369/RFI</t>
+          <t>TP/2025/03/0002/92763/RFP</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>FOR AN APPOINTMENT OF A SERVICE PROVIDER TO OPERATE  AND  TAKE OVER OWNERSHIP SCHOOL OF EXCELLENCE</t>
+          <t>FOR THE LEASE AND/OR DEVELOPMENT OF THE REMAINDER OF ERF 34104 BELLVILLE (UNREGISTERED SUBDIVISION OF REMAINDER OF ERF 11661 BELLVILLE), ERF 34103 BELLVILLE (UNREGISTERED SUBDIVISION OF REMAINDER OF ERF 11659 BELLVILLE), ERF 22933 PAROW.</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
-        <v>45784.35107638889</v>
+        <v>45780.34752314815</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45821.625</v>
+        <v>45856.95833333334</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>5/21/2025 11:00:00 AM</t>
+          <t>5/19/2025 11:00:00 AM</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t xml:space="preserve">National </t>
+          <t>Belville in the City of Capetown</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/92369</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/92763</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -6576,7 +6632,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>RFI</t>
+          <t>RFP</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -6586,45 +6642,45 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Nhlanhla Caluza   Transnet Corporate   Johannesburg</t>
+          <t>Peter Motodi   Transnet Property   Johannesburg</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Nhlanhla.Caluza@transnet.net</t>
+          <t>Peter.Motodi@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>TPT/2025/03/0022/92515/RFQ</t>
+          <t>TNPA/2025/04/0015/93866/RFP</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>FOR THE APPOINTMENT OF A REGISTERED PROFESSIONAL TO PERFORM AN EPC ASSESSMENT, MEASUREMENT OF THE BUILDING NET FLOOR AREA AND ENERGY DATA ON 13 FACILITIES TO TRANSNET SOC LTD (REG. NO. 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS (HEREINAFTER REFERRED TO AS “TPT”) AT THE VARIOUS TRANSNET PORT TERMINALS ON A ONCE OFF BASIS.</t>
+          <t>REQUEST FOR PROPOSALS FOR THE APPOINTMENT OF A TERMINAL OPERATOR TO FINANCE, DESIGN, CONSTRUCT, OPERATE, MAINTAIN, AND TRANSFER A MULTI-PURPOSE TERMINAL HANDLING FRESH PRODUCE AND COMPATIBLE BREAK BULK CARGO FOR A TWENTY-FIVE (25) YEAR CONCESSION PERIOD AT MAYDON WHARF PRECINCT IN THE PORT OF DURBAN.</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
-        <v>45783.49142361111</v>
+        <v>45758.65010416666</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45821.5</v>
+        <v>45898.66666666666</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>5/16/2025 11:00:00 AM</t>
+          <t>5/7/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Durban HQ</t>
+          <t>Port of Durban</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/92515</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/93866</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -6634,7 +6690,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>RFQ</t>
+          <t>RFP</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -6644,55 +6700,55 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Mthembu Sphumelele   Transnet Port Terminals   Durban</t>
+          <t>Thabisile Ndlovu  [Transnet NPA DBN]</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Mthembu.Sphumelele@transnet.net</t>
+          <t>Thabisile.Ndlovu@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>TE/2025/04/0005/92908/RFP</t>
+          <t>TCC/2025/03/0001/92339/RFQ</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>DESIGN, SUPPLY, DELIVER AND CONSTRUCT THE PERIMETER FENCE WITH INTRUSION DETECTION AT UITENHAGE (SWARTKOPS), FOR A PERIOD OF 06 MONTHS</t>
+          <t>Request for Qualification (RFQ) for the Establishment of the Rolling Stock Leasing Company (LeaseCo) for Transnet SOC Ltd operating as Transnet Corporate Centre</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
-        <v>45782.56052083334</v>
+        <v>45755.66251157408</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45821.75</v>
+        <v>45873.66666666666</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>5/13/2025 10:00:00 AM</t>
+          <t>5/6/2025 11:00:00 AM</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>SWARTKOPS PE</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/92908</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/92339</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Goods &amp; Services</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>RFP</t>
+          <t>RFQ</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -6702,50 +6758,50 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Naomi Jordaan    Transnet Engineering   BFN</t>
+          <t>Xolile Mthimunye   Transnet Corporate   Johannesburg</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Naomi.Jordaan@transnet.net</t>
+          <t>Xolile.Mthimunye@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>TP/2025/03/0002/92763/RFP</t>
+          <t>TNPA/2025/02/0006/90040/RFP</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>FOR THE LEASE AND/OR DEVELOPMENT OF THE REMAINDER OF ERF 34104 BELLVILLE (UNREGISTERED SUBDIVISION OF REMAINDER OF ERF 11661 BELLVILLE), ERF 34103 BELLVILLE (UNREGISTERED SUBDIVISION OF REMAINDER OF ERF 11659 BELLVILLE), ERF 22933 PAROW.</t>
+          <t>APPOINTMENT OF A TERMINAL OPERATOR TO ACQUIRE, OPERATE, MAINTAIN, REFURBISH, AND/OR CONSTRUCT AND TRANSFER A LIQUID BULK TERMINAL FOR A TWENTY-FIVE (25) YEAR CONCESSION PERIOD AT THE PORT OF CAPE TOWN LIQUID BULK PRECINCT</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
-        <v>45780.34752314815</v>
+        <v>45750.64232638889</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45838.95833333334</v>
+        <v>45881.66666666666</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>5/19/2025 11:00:00 AM</t>
+          <t>4/17/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Belville in the City of Capetown</t>
+          <t>PORT OF CAPE TOWN</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/92763</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/90040</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Goods &amp; Services</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6760,55 +6816,55 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Peter Motodi   Transnet Property   Johannesburg</t>
+          <t>Nonceba Magazi-Qelile   Transnet NPA   CPT</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Peter.Motodi@transnet.net</t>
+          <t>Nonceba.Magazi-Qelile@transnet.net</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>TFR/2025/04/0015/94967/RFQ</t>
+          <t>TNPA/2025/03/0016/90945/RFP</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>DECOMMISSIONING OF OBSOLETE NETWORK VIDEO RECORDERS (NVRs), SUPPLY, INSTALLATION, CONFIGURATION, INTEGRATION, TRAINING, MAINTENANCE, AND COMMISSIONING OF A NEW NVR AND SOFTWARE FOR THE CCTV SURVEILLANCE SYSTEM AT KILNERPARK CORPORATE OFFICE FOR A PERIOD OF 12 MONTHS</t>
+          <t>REQUEST FOR PROPOSAL FOR THE APPOINTMENT OF A TERMINAL OPERATOR TO FINANCE, DESIGN, CONSTRUCT, OPERATE, MAINTAIN, AND TRANSFER A MULTI-PURPOSE TERMINAL HANDLING AGRICULTURAL DRY BULK AND OTHER COMPATIBLE CARGO FOR A TWENTY-FIVE (25) YEAR CONCESSION PERIOD AT MAYDON WHARF PRECINCT AT THE PORT OF DURBAN.</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
-        <v>45777.94576388889</v>
+        <v>45723.59657407407</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45818.41666666666</v>
+        <v>45912.66666666666</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>5/14/2025 11:00:00 AM</t>
+          <t>3/27/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>GAUTENG</t>
+          <t>Port of Durban</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/94967</t>
+          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/90945</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Goods &amp; Services</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>RFQ</t>
+          <t>RFP</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -6818,301 +6874,10 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Thuli Mathebula   Transnet Freight Rail   JHB</t>
+          <t>Helen Sigcau [Transnet NPA DBN]</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
-        <is>
-          <t>Thuli.Mathebula@transnet.net</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>TNPA/2025/04/0015/93866/RFP</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>REQUEST FOR PROPOSALS FOR THE APPOINTMENT OF A TERMINAL OPERATOR TO FINANCE, DESIGN, CONSTRUCT, OPERATE, MAINTAIN, AND TRANSFER A MULTI-PURPOSE TERMINAL HANDLING FRESH PRODUCE AND COMPATIBLE BREAK BULK CARGO FOR A TWENTY-FIVE (25) YEAR CONCESSION PERIOD AT MAYDON WHARF PRECINCT IN THE PORT OF DURBAN.</t>
-        </is>
-      </c>
-      <c r="C113" s="2" t="n">
-        <v>45758.65010416666</v>
-      </c>
-      <c r="D113" s="2" t="n">
-        <v>45898.66666666666</v>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>5/7/2025 10:00:00 AM</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Port of Durban</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/93866</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Services</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>RFP</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>Thabisile Ndlovu  [Transnet NPA DBN]</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>Thabisile.Ndlovu@transnet.net</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>TCC/2025/03/0001/92339/RFQ</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Request for Qualification (RFQ) for the Establishment of the Rolling Stock Leasing Company (LeaseCo) for Transnet SOC Ltd operating as Transnet Corporate Centre</t>
-        </is>
-      </c>
-      <c r="C114" s="2" t="n">
-        <v>45755.66251157408</v>
-      </c>
-      <c r="D114" s="2" t="n">
-        <v>45842.66666666666</v>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>5/6/2025 11:00:00 AM</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/92339</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Services</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>RFQ</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>Xolile Mthimunye   Transnet Corporate   Johannesburg</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>Xolile.Mthimunye@transnet.net</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>TNPA/2025/02/0006/90040/RFP</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>APPOINTMENT OF A TERMINAL OPERATOR TO ACQUIRE, OPERATE, MAINTAIN, REFURBISH, AND/OR CONSTRUCT AND TRANSFER A LIQUID BULK TERMINAL FOR A TWENTY-FIVE (25) YEAR CONCESSION PERIOD AT THE PORT OF CAPE TOWN LIQUID BULK PRECINCT</t>
-        </is>
-      </c>
-      <c r="C115" s="2" t="n">
-        <v>45750.64232638889</v>
-      </c>
-      <c r="D115" s="2" t="n">
-        <v>45881.66666666666</v>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>4/17/2025 10:00:00 AM</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>PORT OF CAPE TOWN</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/90040</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Services</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>RFP</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>Nonceba Magazi-Qelile   Transnet NPA   CPT</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>Nonceba.Magazi-Qelile@transnet.net</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>TPT/2025/01/0003/85636/RFI</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>CONSOLIDATION OF ALL RCB COAL STOCKPILES TO A BOP
-CONVEYOR SOLUTION FOR TRANSNET SOC (REG. N0 1990/000900/30) OPERATING AS TRANSNET PORT TERMINALS RICHARDS BAY (HEREINAFTER REFERRED TO AS “TPT RCB”)</t>
-        </is>
-      </c>
-      <c r="C116" s="2" t="n">
-        <v>45743.61306712963</v>
-      </c>
-      <c r="D116" s="2" t="n">
-        <v>45838.41666666666</v>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>4/10/2025 10:00:00 AM</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Port of Richards Bay</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/85636</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Services</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>RFI</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>Nomvuselelo Mabuyakhulu    Transnet Port Terminals   DBN</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>Nomvuselelo.Mabuyakhulu@transnet.net</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>TNPA/2025/03/0016/90945/RFP</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>REQUEST FOR PROPOSAL FOR THE APPOINTMENT OF A TERMINAL OPERATOR TO FINANCE, DESIGN, CONSTRUCT, OPERATE, MAINTAIN, AND TRANSFER A MULTI-PURPOSE TERMINAL HANDLING AGRICULTURAL DRY BULK AND OTHER COMPATIBLE CARGO FOR A TWENTY-FIVE (25) YEAR CONCESSION PERIOD AT MAYDON WHARF PRECINCT AT THE PORT OF DURBAN.</t>
-        </is>
-      </c>
-      <c r="C117" s="2" t="n">
-        <v>45723.59657407407</v>
-      </c>
-      <c r="D117" s="2" t="n">
-        <v>45849.66666666666</v>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>3/27/2025 10:00:00 AM</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Port of Durban</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>https://publishedetenders.blob.core.windows.net/publishedetenderscontainer/90945</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>Services</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>RFP</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>Helen Sigcau [Transnet NPA DBN]</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
         <is>
           <t>Helen.Sigcau@transnet.net</t>
         </is>
